--- a/src/senaite/instruments/tests/files/instruments/perkinelmer/somascope/Somascope_H230613-16_SCC.xlsx
+++ b/src/senaite/instruments/tests/files/instruments/perkinelmer/somascope/Somascope_H230613-16_SCC.xlsx
@@ -1,93 +1,126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
-    <t>Date</t>
+    <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t>Time</t>
+    <t xml:space="preserve">Time</t>
   </si>
   <si>
-    <t>Name</t>
+    <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t>Replicate</t>
+    <t xml:space="preserve">Replicate</t>
   </si>
   <si>
-    <t>Cell Count</t>
+    <t xml:space="preserve">Cell Count</t>
   </si>
   <si>
-    <t>Q-Value</t>
+    <t xml:space="preserve">Q-Value</t>
   </si>
   <si>
-    <t>Mean</t>
+    <t xml:space="preserve">Mean</t>
   </si>
   <si>
-    <t>Cv</t>
+    <t xml:space="preserve">Cv</t>
   </si>
   <si>
-    <t>Total Count</t>
+    <t xml:space="preserve">Total Count</t>
   </si>
   <si>
-    <t>Gated Count</t>
+    <t xml:space="preserve">Gated Count</t>
   </si>
   <si>
-    <t>Comment</t>
+    <t xml:space="preserve">Comment</t>
   </si>
   <si>
-    <t>2023/06/13</t>
+    <t xml:space="preserve">2023/06/13</t>
   </si>
   <si>
-    <t>15:07:41</t>
+    <t xml:space="preserve">15:07:41</t>
   </si>
   <si>
-    <t>H23-04845</t>
+    <t xml:space="preserve">DU-0001</t>
   </si>
   <si>
-    <t>15:07:01</t>
+    <t xml:space="preserve">15:07:01</t>
   </si>
   <si>
-    <t>H23-04844</t>
+    <t xml:space="preserve">H23-04844</t>
   </si>
   <si>
-    <t>15:06:21</t>
+    <t xml:space="preserve">15:06:21</t>
   </si>
   <si>
-    <t>H23-04843</t>
+    <t xml:space="preserve">H23-04843</t>
   </si>
   <si>
-    <t>15:05:30</t>
+    <t xml:space="preserve">15:05:30</t>
   </si>
   <si>
-    <t>H23-04842</t>
+    <t xml:space="preserve">H23-04842</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="167" formatCode="0.00"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Open Sans"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -95,290 +128,192 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
-    <border>
+  <borders count="1">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFD9EAD3"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF434343"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="0000FF"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="16.83" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="16.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.5"/>
-    <col customWidth="1" min="2" max="2" width="11.0"/>
-    <col customWidth="1" min="3" max="3" width="12.83"/>
-    <col customWidth="1" min="4" max="4" width="11.17"/>
-    <col customWidth="1" min="5" max="5" width="11.83"/>
-    <col customWidth="1" min="6" max="6" width="11.0"/>
-    <col customWidth="1" min="7" max="7" width="8.17"/>
-    <col customWidth="1" min="8" max="8" width="7.83"/>
-    <col customWidth="1" min="9" max="9" width="15.0"/>
-    <col customWidth="1" min="10" max="10" width="13.17"/>
-    <col customWidth="1" min="11" max="11" width="28.5"/>
-    <col customWidth="1" min="12" max="26" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="28.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="12" style="0" width="10.68"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.0" customHeight="1">
+    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +363,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" ht="18.0" customHeight="1">
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -438,26 +373,26 @@
       <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5">
-        <v>1.0</v>
+      <c r="D2" s="5" t="n">
+        <v>1</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="5" t="n">
         <v>123.925534234669</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="6" t="n">
         <v>91.8426103646833</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="7" t="n">
         <v>123.925534234669</v>
       </c>
-      <c r="H2" s="6">
-        <v>0.0</v>
+      <c r="H2" s="6" t="n">
+        <v>0</v>
       </c>
-      <c r="I2" s="5">
-        <v>1042.0</v>
+      <c r="I2" s="5" t="n">
+        <v>1042</v>
       </c>
-      <c r="J2" s="5">
-        <v>957.0</v>
+      <c r="J2" s="5" t="n">
+        <v>957</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="8"/>
@@ -476,7 +411,7 @@
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
     </row>
-    <row r="3" ht="18.0" customHeight="1">
+    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -486,26 +421,26 @@
       <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5">
-        <v>1.0</v>
+      <c r="D3" s="5" t="n">
+        <v>1</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="5" t="n">
         <v>101.971424727711</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="6" t="n">
         <v>88.8513513513514</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="7" t="n">
         <v>101.971424727711</v>
       </c>
-      <c r="H3" s="6">
-        <v>0.0</v>
+      <c r="H3" s="6" t="n">
+        <v>0</v>
       </c>
-      <c r="I3" s="5">
-        <v>888.0</v>
+      <c r="I3" s="5" t="n">
+        <v>888</v>
       </c>
-      <c r="J3" s="5">
-        <v>789.0</v>
+      <c r="J3" s="5" t="n">
+        <v>789</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="8"/>
@@ -524,7 +459,7 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
     </row>
-    <row r="4" ht="18.0" customHeight="1">
+    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -534,26 +469,26 @@
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5">
-        <v>1.0</v>
+      <c r="D4" s="5" t="n">
+        <v>1</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="5" t="n">
         <v>105.712076884159</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="6" t="n">
         <v>92.3250564334086</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="7" t="n">
         <v>105.712076884159</v>
       </c>
-      <c r="H4" s="6">
-        <v>0.0</v>
+      <c r="H4" s="6" t="n">
+        <v>0</v>
       </c>
-      <c r="I4" s="5">
-        <v>886.0</v>
+      <c r="I4" s="5" t="n">
+        <v>886</v>
       </c>
-      <c r="J4" s="5">
-        <v>818.0</v>
+      <c r="J4" s="5" t="n">
+        <v>818</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="8"/>
@@ -572,7 +507,7 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
     </row>
-    <row r="5" ht="18.0" customHeight="1">
+    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -582,26 +517,26 @@
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5">
-        <v>1.0</v>
+      <c r="D5" s="5" t="n">
+        <v>1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="5" t="n">
         <v>119.710350867837</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="6" t="n">
         <v>92.5925925925926</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="7" t="n">
         <v>119.710350867837</v>
       </c>
-      <c r="H5" s="6">
-        <v>0.0</v>
+      <c r="H5" s="6" t="n">
+        <v>0</v>
       </c>
-      <c r="I5" s="5">
-        <v>999.0</v>
+      <c r="I5" s="5" t="n">
+        <v>999</v>
       </c>
-      <c r="J5" s="5">
-        <v>925.0</v>
+      <c r="J5" s="5" t="n">
+        <v>925</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="8"/>
@@ -620,7 +555,7 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
     </row>
-    <row r="6" ht="18.0" customHeight="1">
+    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -648,7 +583,7 @@
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
     </row>
-    <row r="7" ht="18.0" customHeight="1">
+    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -676,7 +611,7 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" ht="18.0" customHeight="1">
+    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -704,7 +639,7 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
     </row>
-    <row r="9" ht="18.0" customHeight="1">
+    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -732,7 +667,7 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10" ht="18.0" customHeight="1">
+    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -760,7 +695,7 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
     </row>
-    <row r="11" ht="18.0" customHeight="1">
+    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -788,7 +723,7 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12" ht="18.0" customHeight="1">
+    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -816,7 +751,7 @@
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
     </row>
-    <row r="13" ht="18.0" customHeight="1">
+    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -844,7 +779,7 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
     </row>
-    <row r="14" ht="18.0" customHeight="1">
+    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -872,7 +807,7 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
     </row>
-    <row r="15" ht="18.0" customHeight="1">
+    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -900,7 +835,7 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" ht="18.0" customHeight="1">
+    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -928,7 +863,7 @@
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
     </row>
-    <row r="17" ht="18.0" customHeight="1">
+    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -956,7 +891,7 @@
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
     </row>
-    <row r="18" ht="18.0" customHeight="1">
+    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -984,7 +919,7 @@
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
     </row>
-    <row r="19" ht="18.0" customHeight="1">
+    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1012,7 +947,7 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
     </row>
-    <row r="20" ht="18.0" customHeight="1">
+    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1040,7 +975,7 @@
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
     </row>
-    <row r="21" ht="18.0" customHeight="1">
+    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1068,7 +1003,7 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
     </row>
-    <row r="22" ht="18.0" customHeight="1">
+    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1096,7 +1031,7 @@
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
     </row>
-    <row r="23" ht="18.0" customHeight="1">
+    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1124,7 +1059,7 @@
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
     </row>
-    <row r="24" ht="18.0" customHeight="1">
+    <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1152,7 +1087,7 @@
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
     </row>
-    <row r="25" ht="18.0" customHeight="1">
+    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1180,7 +1115,7 @@
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
     </row>
-    <row r="26" ht="18.0" customHeight="1">
+    <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1208,7 +1143,7 @@
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
     </row>
-    <row r="27" ht="18.0" customHeight="1">
+    <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1236,7 +1171,7 @@
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
     </row>
-    <row r="28" ht="18.0" customHeight="1">
+    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1264,7 +1199,7 @@
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
     </row>
-    <row r="29" ht="18.0" customHeight="1">
+    <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1292,7 +1227,7 @@
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
     </row>
-    <row r="30" ht="18.0" customHeight="1">
+    <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1320,7 +1255,7 @@
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
     </row>
-    <row r="31" ht="18.0" customHeight="1">
+    <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1348,7 +1283,7 @@
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
     </row>
-    <row r="32" ht="18.0" customHeight="1">
+    <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1376,7 +1311,7 @@
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
     </row>
-    <row r="33" ht="18.0" customHeight="1">
+    <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1404,7 +1339,7 @@
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
     </row>
-    <row r="34" ht="18.0" customHeight="1">
+    <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1432,7 +1367,7 @@
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
     </row>
-    <row r="35" ht="18.0" customHeight="1">
+    <row r="35" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1460,7 +1395,7 @@
       <c r="Y35" s="8"/>
       <c r="Z35" s="8"/>
     </row>
-    <row r="36" ht="18.0" customHeight="1">
+    <row r="36" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -1488,7 +1423,7 @@
       <c r="Y36" s="8"/>
       <c r="Z36" s="8"/>
     </row>
-    <row r="37" ht="18.0" customHeight="1">
+    <row r="37" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -1516,7 +1451,7 @@
       <c r="Y37" s="8"/>
       <c r="Z37" s="8"/>
     </row>
-    <row r="38" ht="18.0" customHeight="1">
+    <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -1544,7 +1479,7 @@
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
     </row>
-    <row r="39" ht="18.0" customHeight="1">
+    <row r="39" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -1572,7 +1507,7 @@
       <c r="Y39" s="8"/>
       <c r="Z39" s="8"/>
     </row>
-    <row r="40" ht="18.0" customHeight="1">
+    <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -1600,7 +1535,7 @@
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
     </row>
-    <row r="41" ht="18.0" customHeight="1">
+    <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -1628,7 +1563,7 @@
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
     </row>
-    <row r="42" ht="18.0" customHeight="1">
+    <row r="42" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -1656,7 +1591,7 @@
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
     </row>
-    <row r="43" ht="18.0" customHeight="1">
+    <row r="43" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -1684,7 +1619,7 @@
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
     </row>
-    <row r="44" ht="18.0" customHeight="1">
+    <row r="44" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -1712,7 +1647,7 @@
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
     </row>
-    <row r="45" ht="18.0" customHeight="1">
+    <row r="45" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -1740,7 +1675,7 @@
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
     </row>
-    <row r="46" ht="18.0" customHeight="1">
+    <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -1768,7 +1703,7 @@
       <c r="Y46" s="8"/>
       <c r="Z46" s="8"/>
     </row>
-    <row r="47" ht="18.0" customHeight="1">
+    <row r="47" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -1796,7 +1731,7 @@
       <c r="Y47" s="8"/>
       <c r="Z47" s="8"/>
     </row>
-    <row r="48" ht="18.0" customHeight="1">
+    <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -1824,7 +1759,7 @@
       <c r="Y48" s="8"/>
       <c r="Z48" s="8"/>
     </row>
-    <row r="49" ht="18.0" customHeight="1">
+    <row r="49" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -1852,7 +1787,7 @@
       <c r="Y49" s="8"/>
       <c r="Z49" s="8"/>
     </row>
-    <row r="50" ht="18.0" customHeight="1">
+    <row r="50" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -1880,7 +1815,7 @@
       <c r="Y50" s="8"/>
       <c r="Z50" s="8"/>
     </row>
-    <row r="51" ht="18.0" customHeight="1">
+    <row r="51" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -1908,7 +1843,7 @@
       <c r="Y51" s="8"/>
       <c r="Z51" s="8"/>
     </row>
-    <row r="52" ht="18.0" customHeight="1">
+    <row r="52" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -1936,7 +1871,7 @@
       <c r="Y52" s="8"/>
       <c r="Z52" s="8"/>
     </row>
-    <row r="53" ht="18.0" customHeight="1">
+    <row r="53" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -1964,7 +1899,7 @@
       <c r="Y53" s="8"/>
       <c r="Z53" s="8"/>
     </row>
-    <row r="54" ht="18.0" customHeight="1">
+    <row r="54" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -1992,7 +1927,7 @@
       <c r="Y54" s="8"/>
       <c r="Z54" s="8"/>
     </row>
-    <row r="55" ht="18.0" customHeight="1">
+    <row r="55" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -2020,7 +1955,7 @@
       <c r="Y55" s="8"/>
       <c r="Z55" s="8"/>
     </row>
-    <row r="56" ht="18.0" customHeight="1">
+    <row r="56" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -2048,7 +1983,7 @@
       <c r="Y56" s="8"/>
       <c r="Z56" s="8"/>
     </row>
-    <row r="57" ht="18.0" customHeight="1">
+    <row r="57" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -2076,7 +2011,7 @@
       <c r="Y57" s="8"/>
       <c r="Z57" s="8"/>
     </row>
-    <row r="58" ht="18.0" customHeight="1">
+    <row r="58" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -2104,7 +2039,7 @@
       <c r="Y58" s="8"/>
       <c r="Z58" s="8"/>
     </row>
-    <row r="59" ht="18.0" customHeight="1">
+    <row r="59" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -2132,7 +2067,7 @@
       <c r="Y59" s="8"/>
       <c r="Z59" s="8"/>
     </row>
-    <row r="60" ht="18.0" customHeight="1">
+    <row r="60" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -2160,7 +2095,7 @@
       <c r="Y60" s="8"/>
       <c r="Z60" s="8"/>
     </row>
-    <row r="61" ht="18.0" customHeight="1">
+    <row r="61" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -2188,7 +2123,7 @@
       <c r="Y61" s="8"/>
       <c r="Z61" s="8"/>
     </row>
-    <row r="62" ht="18.0" customHeight="1">
+    <row r="62" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -2216,7 +2151,7 @@
       <c r="Y62" s="8"/>
       <c r="Z62" s="8"/>
     </row>
-    <row r="63" ht="18.0" customHeight="1">
+    <row r="63" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -2244,7 +2179,7 @@
       <c r="Y63" s="8"/>
       <c r="Z63" s="8"/>
     </row>
-    <row r="64" ht="18.0" customHeight="1">
+    <row r="64" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -2272,7 +2207,7 @@
       <c r="Y64" s="8"/>
       <c r="Z64" s="8"/>
     </row>
-    <row r="65" ht="18.0" customHeight="1">
+    <row r="65" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -2300,7 +2235,7 @@
       <c r="Y65" s="8"/>
       <c r="Z65" s="8"/>
     </row>
-    <row r="66" ht="18.0" customHeight="1">
+    <row r="66" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -2328,7 +2263,7 @@
       <c r="Y66" s="8"/>
       <c r="Z66" s="8"/>
     </row>
-    <row r="67" ht="18.0" customHeight="1">
+    <row r="67" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -2356,7 +2291,7 @@
       <c r="Y67" s="8"/>
       <c r="Z67" s="8"/>
     </row>
-    <row r="68" ht="18.0" customHeight="1">
+    <row r="68" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -2384,7 +2319,7 @@
       <c r="Y68" s="8"/>
       <c r="Z68" s="8"/>
     </row>
-    <row r="69" ht="18.0" customHeight="1">
+    <row r="69" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -2412,7 +2347,7 @@
       <c r="Y69" s="8"/>
       <c r="Z69" s="8"/>
     </row>
-    <row r="70" ht="18.0" customHeight="1">
+    <row r="70" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -2440,7 +2375,7 @@
       <c r="Y70" s="8"/>
       <c r="Z70" s="8"/>
     </row>
-    <row r="71" ht="18.0" customHeight="1">
+    <row r="71" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -2468,7 +2403,7 @@
       <c r="Y71" s="8"/>
       <c r="Z71" s="8"/>
     </row>
-    <row r="72" ht="18.0" customHeight="1">
+    <row r="72" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -2496,7 +2431,7 @@
       <c r="Y72" s="8"/>
       <c r="Z72" s="8"/>
     </row>
-    <row r="73" ht="18.0" customHeight="1">
+    <row r="73" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -2524,7 +2459,7 @@
       <c r="Y73" s="8"/>
       <c r="Z73" s="8"/>
     </row>
-    <row r="74" ht="18.0" customHeight="1">
+    <row r="74" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -2552,7 +2487,7 @@
       <c r="Y74" s="8"/>
       <c r="Z74" s="8"/>
     </row>
-    <row r="75" ht="18.0" customHeight="1">
+    <row r="75" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -2580,7 +2515,7 @@
       <c r="Y75" s="8"/>
       <c r="Z75" s="8"/>
     </row>
-    <row r="76" ht="18.0" customHeight="1">
+    <row r="76" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -2608,7 +2543,7 @@
       <c r="Y76" s="8"/>
       <c r="Z76" s="8"/>
     </row>
-    <row r="77" ht="18.0" customHeight="1">
+    <row r="77" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -2636,7 +2571,7 @@
       <c r="Y77" s="8"/>
       <c r="Z77" s="8"/>
     </row>
-    <row r="78" ht="18.0" customHeight="1">
+    <row r="78" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -2664,7 +2599,7 @@
       <c r="Y78" s="8"/>
       <c r="Z78" s="8"/>
     </row>
-    <row r="79" ht="18.0" customHeight="1">
+    <row r="79" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -2692,7 +2627,7 @@
       <c r="Y79" s="8"/>
       <c r="Z79" s="8"/>
     </row>
-    <row r="80" ht="18.0" customHeight="1">
+    <row r="80" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -2720,7 +2655,7 @@
       <c r="Y80" s="8"/>
       <c r="Z80" s="8"/>
     </row>
-    <row r="81" ht="18.0" customHeight="1">
+    <row r="81" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -2748,7 +2683,7 @@
       <c r="Y81" s="8"/>
       <c r="Z81" s="8"/>
     </row>
-    <row r="82" ht="18.0" customHeight="1">
+    <row r="82" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -2776,7 +2711,7 @@
       <c r="Y82" s="8"/>
       <c r="Z82" s="8"/>
     </row>
-    <row r="83" ht="18.0" customHeight="1">
+    <row r="83" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -2804,7 +2739,7 @@
       <c r="Y83" s="8"/>
       <c r="Z83" s="8"/>
     </row>
-    <row r="84" ht="18.0" customHeight="1">
+    <row r="84" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -2832,7 +2767,7 @@
       <c r="Y84" s="8"/>
       <c r="Z84" s="8"/>
     </row>
-    <row r="85" ht="18.0" customHeight="1">
+    <row r="85" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -2860,7 +2795,7 @@
       <c r="Y85" s="8"/>
       <c r="Z85" s="8"/>
     </row>
-    <row r="86" ht="18.0" customHeight="1">
+    <row r="86" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -2888,7 +2823,7 @@
       <c r="Y86" s="8"/>
       <c r="Z86" s="8"/>
     </row>
-    <row r="87" ht="18.0" customHeight="1">
+    <row r="87" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -2916,7 +2851,7 @@
       <c r="Y87" s="8"/>
       <c r="Z87" s="8"/>
     </row>
-    <row r="88" ht="18.0" customHeight="1">
+    <row r="88" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -2944,7 +2879,7 @@
       <c r="Y88" s="8"/>
       <c r="Z88" s="8"/>
     </row>
-    <row r="89" ht="18.0" customHeight="1">
+    <row r="89" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -2972,7 +2907,7 @@
       <c r="Y89" s="8"/>
       <c r="Z89" s="8"/>
     </row>
-    <row r="90" ht="18.0" customHeight="1">
+    <row r="90" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -3000,7 +2935,7 @@
       <c r="Y90" s="8"/>
       <c r="Z90" s="8"/>
     </row>
-    <row r="91" ht="18.0" customHeight="1">
+    <row r="91" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -3028,7 +2963,7 @@
       <c r="Y91" s="8"/>
       <c r="Z91" s="8"/>
     </row>
-    <row r="92" ht="18.0" customHeight="1">
+    <row r="92" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -3056,7 +2991,7 @@
       <c r="Y92" s="8"/>
       <c r="Z92" s="8"/>
     </row>
-    <row r="93" ht="18.0" customHeight="1">
+    <row r="93" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -3084,7 +3019,7 @@
       <c r="Y93" s="8"/>
       <c r="Z93" s="8"/>
     </row>
-    <row r="94" ht="18.0" customHeight="1">
+    <row r="94" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -3112,7 +3047,7 @@
       <c r="Y94" s="8"/>
       <c r="Z94" s="8"/>
     </row>
-    <row r="95" ht="18.0" customHeight="1">
+    <row r="95" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -3140,7 +3075,7 @@
       <c r="Y95" s="8"/>
       <c r="Z95" s="8"/>
     </row>
-    <row r="96" ht="18.0" customHeight="1">
+    <row r="96" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -3168,7 +3103,7 @@
       <c r="Y96" s="8"/>
       <c r="Z96" s="8"/>
     </row>
-    <row r="97" ht="18.0" customHeight="1">
+    <row r="97" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -3196,7 +3131,7 @@
       <c r="Y97" s="8"/>
       <c r="Z97" s="8"/>
     </row>
-    <row r="98" ht="18.0" customHeight="1">
+    <row r="98" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -3224,7 +3159,7 @@
       <c r="Y98" s="8"/>
       <c r="Z98" s="8"/>
     </row>
-    <row r="99" ht="18.0" customHeight="1">
+    <row r="99" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -3252,7 +3187,7 @@
       <c r="Y99" s="8"/>
       <c r="Z99" s="8"/>
     </row>
-    <row r="100" ht="18.0" customHeight="1">
+    <row r="100" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -3280,7 +3215,7 @@
       <c r="Y100" s="8"/>
       <c r="Z100" s="8"/>
     </row>
-    <row r="101" ht="18.0" customHeight="1">
+    <row r="101" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -3308,7 +3243,7 @@
       <c r="Y101" s="8"/>
       <c r="Z101" s="8"/>
     </row>
-    <row r="102" ht="18.0" customHeight="1">
+    <row r="102" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -3336,7 +3271,7 @@
       <c r="Y102" s="8"/>
       <c r="Z102" s="8"/>
     </row>
-    <row r="103" ht="18.0" customHeight="1">
+    <row r="103" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -3364,7 +3299,7 @@
       <c r="Y103" s="8"/>
       <c r="Z103" s="8"/>
     </row>
-    <row r="104" ht="18.0" customHeight="1">
+    <row r="104" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -3392,7 +3327,7 @@
       <c r="Y104" s="8"/>
       <c r="Z104" s="8"/>
     </row>
-    <row r="105" ht="18.0" customHeight="1">
+    <row r="105" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -3420,7 +3355,7 @@
       <c r="Y105" s="8"/>
       <c r="Z105" s="8"/>
     </row>
-    <row r="106" ht="18.0" customHeight="1">
+    <row r="106" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -3448,7 +3383,7 @@
       <c r="Y106" s="8"/>
       <c r="Z106" s="8"/>
     </row>
-    <row r="107" ht="18.0" customHeight="1">
+    <row r="107" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -3476,7 +3411,7 @@
       <c r="Y107" s="8"/>
       <c r="Z107" s="8"/>
     </row>
-    <row r="108" ht="18.0" customHeight="1">
+    <row r="108" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -3504,7 +3439,7 @@
       <c r="Y108" s="8"/>
       <c r="Z108" s="8"/>
     </row>
-    <row r="109" ht="18.0" customHeight="1">
+    <row r="109" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -3532,7 +3467,7 @@
       <c r="Y109" s="8"/>
       <c r="Z109" s="8"/>
     </row>
-    <row r="110" ht="18.0" customHeight="1">
+    <row r="110" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -3560,7 +3495,7 @@
       <c r="Y110" s="8"/>
       <c r="Z110" s="8"/>
     </row>
-    <row r="111" ht="18.0" customHeight="1">
+    <row r="111" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -3588,7 +3523,7 @@
       <c r="Y111" s="8"/>
       <c r="Z111" s="8"/>
     </row>
-    <row r="112" ht="18.0" customHeight="1">
+    <row r="112" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -3616,7 +3551,7 @@
       <c r="Y112" s="8"/>
       <c r="Z112" s="8"/>
     </row>
-    <row r="113" ht="18.0" customHeight="1">
+    <row r="113" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -3644,7 +3579,7 @@
       <c r="Y113" s="8"/>
       <c r="Z113" s="8"/>
     </row>
-    <row r="114" ht="18.0" customHeight="1">
+    <row r="114" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -3672,7 +3607,7 @@
       <c r="Y114" s="8"/>
       <c r="Z114" s="8"/>
     </row>
-    <row r="115" ht="18.0" customHeight="1">
+    <row r="115" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -3700,7 +3635,7 @@
       <c r="Y115" s="8"/>
       <c r="Z115" s="8"/>
     </row>
-    <row r="116" ht="18.0" customHeight="1">
+    <row r="116" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -3728,7 +3663,7 @@
       <c r="Y116" s="8"/>
       <c r="Z116" s="8"/>
     </row>
-    <row r="117" ht="18.0" customHeight="1">
+    <row r="117" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -3756,7 +3691,7 @@
       <c r="Y117" s="8"/>
       <c r="Z117" s="8"/>
     </row>
-    <row r="118" ht="18.0" customHeight="1">
+    <row r="118" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -3784,7 +3719,7 @@
       <c r="Y118" s="8"/>
       <c r="Z118" s="8"/>
     </row>
-    <row r="119" ht="18.0" customHeight="1">
+    <row r="119" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -3812,7 +3747,7 @@
       <c r="Y119" s="8"/>
       <c r="Z119" s="8"/>
     </row>
-    <row r="120" ht="18.0" customHeight="1">
+    <row r="120" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -3840,7 +3775,7 @@
       <c r="Y120" s="8"/>
       <c r="Z120" s="8"/>
     </row>
-    <row r="121" ht="18.0" customHeight="1">
+    <row r="121" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -3868,7 +3803,7 @@
       <c r="Y121" s="8"/>
       <c r="Z121" s="8"/>
     </row>
-    <row r="122" ht="18.0" customHeight="1">
+    <row r="122" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -3896,7 +3831,7 @@
       <c r="Y122" s="8"/>
       <c r="Z122" s="8"/>
     </row>
-    <row r="123" ht="18.0" customHeight="1">
+    <row r="123" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -3924,7 +3859,7 @@
       <c r="Y123" s="8"/>
       <c r="Z123" s="8"/>
     </row>
-    <row r="124" ht="18.0" customHeight="1">
+    <row r="124" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -3952,7 +3887,7 @@
       <c r="Y124" s="8"/>
       <c r="Z124" s="8"/>
     </row>
-    <row r="125" ht="18.0" customHeight="1">
+    <row r="125" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -3980,7 +3915,7 @@
       <c r="Y125" s="8"/>
       <c r="Z125" s="8"/>
     </row>
-    <row r="126" ht="18.0" customHeight="1">
+    <row r="126" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -4008,7 +3943,7 @@
       <c r="Y126" s="8"/>
       <c r="Z126" s="8"/>
     </row>
-    <row r="127" ht="18.0" customHeight="1">
+    <row r="127" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -4036,7 +3971,7 @@
       <c r="Y127" s="8"/>
       <c r="Z127" s="8"/>
     </row>
-    <row r="128" ht="18.0" customHeight="1">
+    <row r="128" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -4064,7 +3999,7 @@
       <c r="Y128" s="8"/>
       <c r="Z128" s="8"/>
     </row>
-    <row r="129" ht="18.0" customHeight="1">
+    <row r="129" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -4092,7 +4027,7 @@
       <c r="Y129" s="8"/>
       <c r="Z129" s="8"/>
     </row>
-    <row r="130" ht="18.0" customHeight="1">
+    <row r="130" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -4120,7 +4055,7 @@
       <c r="Y130" s="8"/>
       <c r="Z130" s="8"/>
     </row>
-    <row r="131" ht="18.0" customHeight="1">
+    <row r="131" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -4148,7 +4083,7 @@
       <c r="Y131" s="8"/>
       <c r="Z131" s="8"/>
     </row>
-    <row r="132" ht="18.0" customHeight="1">
+    <row r="132" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -4176,7 +4111,7 @@
       <c r="Y132" s="8"/>
       <c r="Z132" s="8"/>
     </row>
-    <row r="133" ht="18.0" customHeight="1">
+    <row r="133" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -4204,7 +4139,7 @@
       <c r="Y133" s="8"/>
       <c r="Z133" s="8"/>
     </row>
-    <row r="134" ht="18.0" customHeight="1">
+    <row r="134" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -4232,7 +4167,7 @@
       <c r="Y134" s="8"/>
       <c r="Z134" s="8"/>
     </row>
-    <row r="135" ht="18.0" customHeight="1">
+    <row r="135" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -4260,7 +4195,7 @@
       <c r="Y135" s="8"/>
       <c r="Z135" s="8"/>
     </row>
-    <row r="136" ht="18.0" customHeight="1">
+    <row r="136" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -4288,7 +4223,7 @@
       <c r="Y136" s="8"/>
       <c r="Z136" s="8"/>
     </row>
-    <row r="137" ht="18.0" customHeight="1">
+    <row r="137" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -4316,7 +4251,7 @@
       <c r="Y137" s="8"/>
       <c r="Z137" s="8"/>
     </row>
-    <row r="138" ht="18.0" customHeight="1">
+    <row r="138" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -4344,7 +4279,7 @@
       <c r="Y138" s="8"/>
       <c r="Z138" s="8"/>
     </row>
-    <row r="139" ht="18.0" customHeight="1">
+    <row r="139" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -4372,7 +4307,7 @@
       <c r="Y139" s="8"/>
       <c r="Z139" s="8"/>
     </row>
-    <row r="140" ht="18.0" customHeight="1">
+    <row r="140" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -4400,7 +4335,7 @@
       <c r="Y140" s="8"/>
       <c r="Z140" s="8"/>
     </row>
-    <row r="141" ht="18.0" customHeight="1">
+    <row r="141" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -4428,7 +4363,7 @@
       <c r="Y141" s="8"/>
       <c r="Z141" s="8"/>
     </row>
-    <row r="142" ht="18.0" customHeight="1">
+    <row r="142" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -4456,7 +4391,7 @@
       <c r="Y142" s="8"/>
       <c r="Z142" s="8"/>
     </row>
-    <row r="143" ht="18.0" customHeight="1">
+    <row r="143" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -4484,7 +4419,7 @@
       <c r="Y143" s="8"/>
       <c r="Z143" s="8"/>
     </row>
-    <row r="144" ht="18.0" customHeight="1">
+    <row r="144" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -4512,7 +4447,7 @@
       <c r="Y144" s="8"/>
       <c r="Z144" s="8"/>
     </row>
-    <row r="145" ht="18.0" customHeight="1">
+    <row r="145" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -4540,7 +4475,7 @@
       <c r="Y145" s="8"/>
       <c r="Z145" s="8"/>
     </row>
-    <row r="146" ht="18.0" customHeight="1">
+    <row r="146" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -4568,7 +4503,7 @@
       <c r="Y146" s="8"/>
       <c r="Z146" s="8"/>
     </row>
-    <row r="147" ht="18.0" customHeight="1">
+    <row r="147" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -4596,7 +4531,7 @@
       <c r="Y147" s="8"/>
       <c r="Z147" s="8"/>
     </row>
-    <row r="148" ht="18.0" customHeight="1">
+    <row r="148" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -4624,7 +4559,7 @@
       <c r="Y148" s="8"/>
       <c r="Z148" s="8"/>
     </row>
-    <row r="149" ht="18.0" customHeight="1">
+    <row r="149" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -4652,7 +4587,7 @@
       <c r="Y149" s="8"/>
       <c r="Z149" s="8"/>
     </row>
-    <row r="150" ht="18.0" customHeight="1">
+    <row r="150" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -4680,7 +4615,7 @@
       <c r="Y150" s="8"/>
       <c r="Z150" s="8"/>
     </row>
-    <row r="151" ht="18.0" customHeight="1">
+    <row r="151" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -4708,7 +4643,7 @@
       <c r="Y151" s="8"/>
       <c r="Z151" s="8"/>
     </row>
-    <row r="152" ht="18.0" customHeight="1">
+    <row r="152" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -4736,7 +4671,7 @@
       <c r="Y152" s="8"/>
       <c r="Z152" s="8"/>
     </row>
-    <row r="153" ht="18.0" customHeight="1">
+    <row r="153" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -4764,7 +4699,7 @@
       <c r="Y153" s="8"/>
       <c r="Z153" s="8"/>
     </row>
-    <row r="154" ht="18.0" customHeight="1">
+    <row r="154" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -4792,7 +4727,7 @@
       <c r="Y154" s="8"/>
       <c r="Z154" s="8"/>
     </row>
-    <row r="155" ht="18.0" customHeight="1">
+    <row r="155" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -4820,7 +4755,7 @@
       <c r="Y155" s="8"/>
       <c r="Z155" s="8"/>
     </row>
-    <row r="156" ht="18.0" customHeight="1">
+    <row r="156" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -4848,7 +4783,7 @@
       <c r="Y156" s="8"/>
       <c r="Z156" s="8"/>
     </row>
-    <row r="157" ht="18.0" customHeight="1">
+    <row r="157" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -4876,7 +4811,7 @@
       <c r="Y157" s="8"/>
       <c r="Z157" s="8"/>
     </row>
-    <row r="158" ht="18.0" customHeight="1">
+    <row r="158" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -4904,7 +4839,7 @@
       <c r="Y158" s="8"/>
       <c r="Z158" s="8"/>
     </row>
-    <row r="159" ht="18.0" customHeight="1">
+    <row r="159" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -4932,7 +4867,7 @@
       <c r="Y159" s="8"/>
       <c r="Z159" s="8"/>
     </row>
-    <row r="160" ht="18.0" customHeight="1">
+    <row r="160" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -4960,7 +4895,7 @@
       <c r="Y160" s="8"/>
       <c r="Z160" s="8"/>
     </row>
-    <row r="161" ht="18.0" customHeight="1">
+    <row r="161" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -4988,7 +4923,7 @@
       <c r="Y161" s="8"/>
       <c r="Z161" s="8"/>
     </row>
-    <row r="162" ht="18.0" customHeight="1">
+    <row r="162" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -5016,7 +4951,7 @@
       <c r="Y162" s="8"/>
       <c r="Z162" s="8"/>
     </row>
-    <row r="163" ht="18.0" customHeight="1">
+    <row r="163" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -5044,7 +4979,7 @@
       <c r="Y163" s="8"/>
       <c r="Z163" s="8"/>
     </row>
-    <row r="164" ht="18.0" customHeight="1">
+    <row r="164" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -5072,7 +5007,7 @@
       <c r="Y164" s="8"/>
       <c r="Z164" s="8"/>
     </row>
-    <row r="165" ht="18.0" customHeight="1">
+    <row r="165" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -5100,7 +5035,7 @@
       <c r="Y165" s="8"/>
       <c r="Z165" s="8"/>
     </row>
-    <row r="166" ht="18.0" customHeight="1">
+    <row r="166" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -5128,7 +5063,7 @@
       <c r="Y166" s="8"/>
       <c r="Z166" s="8"/>
     </row>
-    <row r="167" ht="18.0" customHeight="1">
+    <row r="167" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -5156,7 +5091,7 @@
       <c r="Y167" s="8"/>
       <c r="Z167" s="8"/>
     </row>
-    <row r="168" ht="18.0" customHeight="1">
+    <row r="168" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -5184,7 +5119,7 @@
       <c r="Y168" s="8"/>
       <c r="Z168" s="8"/>
     </row>
-    <row r="169" ht="18.0" customHeight="1">
+    <row r="169" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -5212,7 +5147,7 @@
       <c r="Y169" s="8"/>
       <c r="Z169" s="8"/>
     </row>
-    <row r="170" ht="18.0" customHeight="1">
+    <row r="170" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -5240,7 +5175,7 @@
       <c r="Y170" s="8"/>
       <c r="Z170" s="8"/>
     </row>
-    <row r="171" ht="18.0" customHeight="1">
+    <row r="171" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -5268,7 +5203,7 @@
       <c r="Y171" s="8"/>
       <c r="Z171" s="8"/>
     </row>
-    <row r="172" ht="18.0" customHeight="1">
+    <row r="172" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -5296,7 +5231,7 @@
       <c r="Y172" s="8"/>
       <c r="Z172" s="8"/>
     </row>
-    <row r="173" ht="18.0" customHeight="1">
+    <row r="173" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -5324,7 +5259,7 @@
       <c r="Y173" s="8"/>
       <c r="Z173" s="8"/>
     </row>
-    <row r="174" ht="18.0" customHeight="1">
+    <row r="174" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -5352,7 +5287,7 @@
       <c r="Y174" s="8"/>
       <c r="Z174" s="8"/>
     </row>
-    <row r="175" ht="18.0" customHeight="1">
+    <row r="175" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -5380,7 +5315,7 @@
       <c r="Y175" s="8"/>
       <c r="Z175" s="8"/>
     </row>
-    <row r="176" ht="18.0" customHeight="1">
+    <row r="176" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -5408,7 +5343,7 @@
       <c r="Y176" s="8"/>
       <c r="Z176" s="8"/>
     </row>
-    <row r="177" ht="18.0" customHeight="1">
+    <row r="177" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -5436,7 +5371,7 @@
       <c r="Y177" s="8"/>
       <c r="Z177" s="8"/>
     </row>
-    <row r="178" ht="18.0" customHeight="1">
+    <row r="178" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -5464,7 +5399,7 @@
       <c r="Y178" s="8"/>
       <c r="Z178" s="8"/>
     </row>
-    <row r="179" ht="18.0" customHeight="1">
+    <row r="179" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -5492,7 +5427,7 @@
       <c r="Y179" s="8"/>
       <c r="Z179" s="8"/>
     </row>
-    <row r="180" ht="18.0" customHeight="1">
+    <row r="180" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -5520,7 +5455,7 @@
       <c r="Y180" s="8"/>
       <c r="Z180" s="8"/>
     </row>
-    <row r="181" ht="18.0" customHeight="1">
+    <row r="181" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -5548,7 +5483,7 @@
       <c r="Y181" s="8"/>
       <c r="Z181" s="8"/>
     </row>
-    <row r="182" ht="18.0" customHeight="1">
+    <row r="182" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -5576,7 +5511,7 @@
       <c r="Y182" s="8"/>
       <c r="Z182" s="8"/>
     </row>
-    <row r="183" ht="18.0" customHeight="1">
+    <row r="183" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -5604,7 +5539,7 @@
       <c r="Y183" s="8"/>
       <c r="Z183" s="8"/>
     </row>
-    <row r="184" ht="18.0" customHeight="1">
+    <row r="184" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -5632,7 +5567,7 @@
       <c r="Y184" s="8"/>
       <c r="Z184" s="8"/>
     </row>
-    <row r="185" ht="18.0" customHeight="1">
+    <row r="185" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -5660,7 +5595,7 @@
       <c r="Y185" s="8"/>
       <c r="Z185" s="8"/>
     </row>
-    <row r="186" ht="18.0" customHeight="1">
+    <row r="186" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -5688,7 +5623,7 @@
       <c r="Y186" s="8"/>
       <c r="Z186" s="8"/>
     </row>
-    <row r="187" ht="18.0" customHeight="1">
+    <row r="187" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -5716,7 +5651,7 @@
       <c r="Y187" s="8"/>
       <c r="Z187" s="8"/>
     </row>
-    <row r="188" ht="18.0" customHeight="1">
+    <row r="188" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -5744,7 +5679,7 @@
       <c r="Y188" s="8"/>
       <c r="Z188" s="8"/>
     </row>
-    <row r="189" ht="18.0" customHeight="1">
+    <row r="189" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -5772,7 +5707,7 @@
       <c r="Y189" s="8"/>
       <c r="Z189" s="8"/>
     </row>
-    <row r="190" ht="18.0" customHeight="1">
+    <row r="190" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -5800,7 +5735,7 @@
       <c r="Y190" s="8"/>
       <c r="Z190" s="8"/>
     </row>
-    <row r="191" ht="18.0" customHeight="1">
+    <row r="191" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -5828,7 +5763,7 @@
       <c r="Y191" s="8"/>
       <c r="Z191" s="8"/>
     </row>
-    <row r="192" ht="18.0" customHeight="1">
+    <row r="192" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -5856,7 +5791,7 @@
       <c r="Y192" s="8"/>
       <c r="Z192" s="8"/>
     </row>
-    <row r="193" ht="18.0" customHeight="1">
+    <row r="193" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -5884,7 +5819,7 @@
       <c r="Y193" s="8"/>
       <c r="Z193" s="8"/>
     </row>
-    <row r="194" ht="18.0" customHeight="1">
+    <row r="194" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -5912,7 +5847,7 @@
       <c r="Y194" s="8"/>
       <c r="Z194" s="8"/>
     </row>
-    <row r="195" ht="18.0" customHeight="1">
+    <row r="195" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -5940,7 +5875,7 @@
       <c r="Y195" s="8"/>
       <c r="Z195" s="8"/>
     </row>
-    <row r="196" ht="18.0" customHeight="1">
+    <row r="196" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -5968,7 +5903,7 @@
       <c r="Y196" s="8"/>
       <c r="Z196" s="8"/>
     </row>
-    <row r="197" ht="18.0" customHeight="1">
+    <row r="197" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -5996,7 +5931,7 @@
       <c r="Y197" s="8"/>
       <c r="Z197" s="8"/>
     </row>
-    <row r="198" ht="18.0" customHeight="1">
+    <row r="198" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -6024,7 +5959,7 @@
       <c r="Y198" s="8"/>
       <c r="Z198" s="8"/>
     </row>
-    <row r="199" ht="18.0" customHeight="1">
+    <row r="199" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -6052,7 +5987,7 @@
       <c r="Y199" s="8"/>
       <c r="Z199" s="8"/>
     </row>
-    <row r="200" ht="18.0" customHeight="1">
+    <row r="200" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -6080,7 +6015,7 @@
       <c r="Y200" s="8"/>
       <c r="Z200" s="8"/>
     </row>
-    <row r="201" ht="18.0" customHeight="1">
+    <row r="201" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -6108,7 +6043,7 @@
       <c r="Y201" s="8"/>
       <c r="Z201" s="8"/>
     </row>
-    <row r="202" ht="18.0" customHeight="1">
+    <row r="202" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
@@ -6136,7 +6071,7 @@
       <c r="Y202" s="8"/>
       <c r="Z202" s="8"/>
     </row>
-    <row r="203" ht="18.0" customHeight="1">
+    <row r="203" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
@@ -6164,7 +6099,7 @@
       <c r="Y203" s="8"/>
       <c r="Z203" s="8"/>
     </row>
-    <row r="204" ht="18.0" customHeight="1">
+    <row r="204" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="8"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
@@ -6192,7 +6127,7 @@
       <c r="Y204" s="8"/>
       <c r="Z204" s="8"/>
     </row>
-    <row r="205" ht="18.0" customHeight="1">
+    <row r="205" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
@@ -6220,7 +6155,7 @@
       <c r="Y205" s="8"/>
       <c r="Z205" s="8"/>
     </row>
-    <row r="206" ht="18.0" customHeight="1">
+    <row r="206" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
@@ -6248,7 +6183,7 @@
       <c r="Y206" s="8"/>
       <c r="Z206" s="8"/>
     </row>
-    <row r="207" ht="18.0" customHeight="1">
+    <row r="207" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="8"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
@@ -6276,7 +6211,7 @@
       <c r="Y207" s="8"/>
       <c r="Z207" s="8"/>
     </row>
-    <row r="208" ht="18.0" customHeight="1">
+    <row r="208" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="8"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
@@ -6304,7 +6239,7 @@
       <c r="Y208" s="8"/>
       <c r="Z208" s="8"/>
     </row>
-    <row r="209" ht="18.0" customHeight="1">
+    <row r="209" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="8"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
@@ -6332,7 +6267,7 @@
       <c r="Y209" s="8"/>
       <c r="Z209" s="8"/>
     </row>
-    <row r="210" ht="18.0" customHeight="1">
+    <row r="210" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="8"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
@@ -6360,7 +6295,7 @@
       <c r="Y210" s="8"/>
       <c r="Z210" s="8"/>
     </row>
-    <row r="211" ht="18.0" customHeight="1">
+    <row r="211" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="8"/>
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
@@ -6388,7 +6323,7 @@
       <c r="Y211" s="8"/>
       <c r="Z211" s="8"/>
     </row>
-    <row r="212" ht="18.0" customHeight="1">
+    <row r="212" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="8"/>
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
@@ -6416,7 +6351,7 @@
       <c r="Y212" s="8"/>
       <c r="Z212" s="8"/>
     </row>
-    <row r="213" ht="18.0" customHeight="1">
+    <row r="213" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="8"/>
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
@@ -6444,7 +6379,7 @@
       <c r="Y213" s="8"/>
       <c r="Z213" s="8"/>
     </row>
-    <row r="214" ht="18.0" customHeight="1">
+    <row r="214" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="8"/>
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
@@ -6472,7 +6407,7 @@
       <c r="Y214" s="8"/>
       <c r="Z214" s="8"/>
     </row>
-    <row r="215" ht="18.0" customHeight="1">
+    <row r="215" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="8"/>
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
@@ -6500,7 +6435,7 @@
       <c r="Y215" s="8"/>
       <c r="Z215" s="8"/>
     </row>
-    <row r="216" ht="18.0" customHeight="1">
+    <row r="216" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="8"/>
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
@@ -6528,7 +6463,7 @@
       <c r="Y216" s="8"/>
       <c r="Z216" s="8"/>
     </row>
-    <row r="217" ht="18.0" customHeight="1">
+    <row r="217" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="8"/>
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
@@ -6556,7 +6491,7 @@
       <c r="Y217" s="8"/>
       <c r="Z217" s="8"/>
     </row>
-    <row r="218" ht="18.0" customHeight="1">
+    <row r="218" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="8"/>
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
@@ -6584,7 +6519,7 @@
       <c r="Y218" s="8"/>
       <c r="Z218" s="8"/>
     </row>
-    <row r="219" ht="18.0" customHeight="1">
+    <row r="219" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="8"/>
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
@@ -6612,7 +6547,7 @@
       <c r="Y219" s="8"/>
       <c r="Z219" s="8"/>
     </row>
-    <row r="220" ht="18.0" customHeight="1">
+    <row r="220" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="8"/>
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
@@ -6640,7 +6575,7 @@
       <c r="Y220" s="8"/>
       <c r="Z220" s="8"/>
     </row>
-    <row r="221" ht="18.0" customHeight="1">
+    <row r="221" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="8"/>
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
@@ -6668,7 +6603,7 @@
       <c r="Y221" s="8"/>
       <c r="Z221" s="8"/>
     </row>
-    <row r="222" ht="18.0" customHeight="1">
+    <row r="222" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="8"/>
       <c r="B222" s="8"/>
       <c r="C222" s="8"/>
@@ -6696,7 +6631,7 @@
       <c r="Y222" s="8"/>
       <c r="Z222" s="8"/>
     </row>
-    <row r="223" ht="18.0" customHeight="1">
+    <row r="223" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="8"/>
       <c r="B223" s="8"/>
       <c r="C223" s="8"/>
@@ -6724,7 +6659,7 @@
       <c r="Y223" s="8"/>
       <c r="Z223" s="8"/>
     </row>
-    <row r="224" ht="18.0" customHeight="1">
+    <row r="224" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="8"/>
       <c r="B224" s="8"/>
       <c r="C224" s="8"/>
@@ -6752,7 +6687,7 @@
       <c r="Y224" s="8"/>
       <c r="Z224" s="8"/>
     </row>
-    <row r="225" ht="18.0" customHeight="1">
+    <row r="225" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="8"/>
       <c r="B225" s="8"/>
       <c r="C225" s="8"/>
@@ -6780,7 +6715,7 @@
       <c r="Y225" s="8"/>
       <c r="Z225" s="8"/>
     </row>
-    <row r="226" ht="18.0" customHeight="1">
+    <row r="226" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="8"/>
       <c r="B226" s="8"/>
       <c r="C226" s="8"/>
@@ -6808,7 +6743,7 @@
       <c r="Y226" s="8"/>
       <c r="Z226" s="8"/>
     </row>
-    <row r="227" ht="18.0" customHeight="1">
+    <row r="227" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="8"/>
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
@@ -6836,7 +6771,7 @@
       <c r="Y227" s="8"/>
       <c r="Z227" s="8"/>
     </row>
-    <row r="228" ht="18.0" customHeight="1">
+    <row r="228" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="8"/>
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
@@ -6864,7 +6799,7 @@
       <c r="Y228" s="8"/>
       <c r="Z228" s="8"/>
     </row>
-    <row r="229" ht="18.0" customHeight="1">
+    <row r="229" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="8"/>
       <c r="B229" s="8"/>
       <c r="C229" s="8"/>
@@ -6892,7 +6827,7 @@
       <c r="Y229" s="8"/>
       <c r="Z229" s="8"/>
     </row>
-    <row r="230" ht="18.0" customHeight="1">
+    <row r="230" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="8"/>
       <c r="B230" s="8"/>
       <c r="C230" s="8"/>
@@ -6920,7 +6855,7 @@
       <c r="Y230" s="8"/>
       <c r="Z230" s="8"/>
     </row>
-    <row r="231" ht="18.0" customHeight="1">
+    <row r="231" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="8"/>
       <c r="B231" s="8"/>
       <c r="C231" s="8"/>
@@ -6948,7 +6883,7 @@
       <c r="Y231" s="8"/>
       <c r="Z231" s="8"/>
     </row>
-    <row r="232" ht="18.0" customHeight="1">
+    <row r="232" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="8"/>
       <c r="B232" s="8"/>
       <c r="C232" s="8"/>
@@ -6976,7 +6911,7 @@
       <c r="Y232" s="8"/>
       <c r="Z232" s="8"/>
     </row>
-    <row r="233" ht="18.0" customHeight="1">
+    <row r="233" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="8"/>
       <c r="B233" s="8"/>
       <c r="C233" s="8"/>
@@ -7004,7 +6939,7 @@
       <c r="Y233" s="8"/>
       <c r="Z233" s="8"/>
     </row>
-    <row r="234" ht="18.0" customHeight="1">
+    <row r="234" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="8"/>
       <c r="B234" s="8"/>
       <c r="C234" s="8"/>
@@ -7032,7 +6967,7 @@
       <c r="Y234" s="8"/>
       <c r="Z234" s="8"/>
     </row>
-    <row r="235" ht="18.0" customHeight="1">
+    <row r="235" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="8"/>
       <c r="B235" s="8"/>
       <c r="C235" s="8"/>
@@ -7060,7 +6995,7 @@
       <c r="Y235" s="8"/>
       <c r="Z235" s="8"/>
     </row>
-    <row r="236" ht="18.0" customHeight="1">
+    <row r="236" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="8"/>
       <c r="B236" s="8"/>
       <c r="C236" s="8"/>
@@ -7088,7 +7023,7 @@
       <c r="Y236" s="8"/>
       <c r="Z236" s="8"/>
     </row>
-    <row r="237" ht="18.0" customHeight="1">
+    <row r="237" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="8"/>
       <c r="B237" s="8"/>
       <c r="C237" s="8"/>
@@ -7116,7 +7051,7 @@
       <c r="Y237" s="8"/>
       <c r="Z237" s="8"/>
     </row>
-    <row r="238" ht="18.0" customHeight="1">
+    <row r="238" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="8"/>
       <c r="B238" s="8"/>
       <c r="C238" s="8"/>
@@ -7144,7 +7079,7 @@
       <c r="Y238" s="8"/>
       <c r="Z238" s="8"/>
     </row>
-    <row r="239" ht="18.0" customHeight="1">
+    <row r="239" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="8"/>
       <c r="B239" s="8"/>
       <c r="C239" s="8"/>
@@ -7172,7 +7107,7 @@
       <c r="Y239" s="8"/>
       <c r="Z239" s="8"/>
     </row>
-    <row r="240" ht="18.0" customHeight="1">
+    <row r="240" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="8"/>
       <c r="B240" s="8"/>
       <c r="C240" s="8"/>
@@ -7200,7 +7135,7 @@
       <c r="Y240" s="8"/>
       <c r="Z240" s="8"/>
     </row>
-    <row r="241" ht="18.0" customHeight="1">
+    <row r="241" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="8"/>
       <c r="B241" s="8"/>
       <c r="C241" s="8"/>
@@ -7228,7 +7163,7 @@
       <c r="Y241" s="8"/>
       <c r="Z241" s="8"/>
     </row>
-    <row r="242" ht="18.0" customHeight="1">
+    <row r="242" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="8"/>
       <c r="B242" s="8"/>
       <c r="C242" s="8"/>
@@ -7256,7 +7191,7 @@
       <c r="Y242" s="8"/>
       <c r="Z242" s="8"/>
     </row>
-    <row r="243" ht="18.0" customHeight="1">
+    <row r="243" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="8"/>
       <c r="B243" s="8"/>
       <c r="C243" s="8"/>
@@ -7284,7 +7219,7 @@
       <c r="Y243" s="8"/>
       <c r="Z243" s="8"/>
     </row>
-    <row r="244" ht="18.0" customHeight="1">
+    <row r="244" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="8"/>
       <c r="B244" s="8"/>
       <c r="C244" s="8"/>
@@ -7312,7 +7247,7 @@
       <c r="Y244" s="8"/>
       <c r="Z244" s="8"/>
     </row>
-    <row r="245" ht="18.0" customHeight="1">
+    <row r="245" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="8"/>
       <c r="B245" s="8"/>
       <c r="C245" s="8"/>
@@ -7340,7 +7275,7 @@
       <c r="Y245" s="8"/>
       <c r="Z245" s="8"/>
     </row>
-    <row r="246" ht="18.0" customHeight="1">
+    <row r="246" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="8"/>
       <c r="B246" s="8"/>
       <c r="C246" s="8"/>
@@ -7368,7 +7303,7 @@
       <c r="Y246" s="8"/>
       <c r="Z246" s="8"/>
     </row>
-    <row r="247" ht="18.0" customHeight="1">
+    <row r="247" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="8"/>
       <c r="B247" s="8"/>
       <c r="C247" s="8"/>
@@ -7396,7 +7331,7 @@
       <c r="Y247" s="8"/>
       <c r="Z247" s="8"/>
     </row>
-    <row r="248" ht="18.0" customHeight="1">
+    <row r="248" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="8"/>
       <c r="B248" s="8"/>
       <c r="C248" s="8"/>
@@ -7424,7 +7359,7 @@
       <c r="Y248" s="8"/>
       <c r="Z248" s="8"/>
     </row>
-    <row r="249" ht="18.0" customHeight="1">
+    <row r="249" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="8"/>
       <c r="B249" s="8"/>
       <c r="C249" s="8"/>
@@ -7452,7 +7387,7 @@
       <c r="Y249" s="8"/>
       <c r="Z249" s="8"/>
     </row>
-    <row r="250" ht="18.0" customHeight="1">
+    <row r="250" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="8"/>
       <c r="B250" s="8"/>
       <c r="C250" s="8"/>
@@ -7480,7 +7415,7 @@
       <c r="Y250" s="8"/>
       <c r="Z250" s="8"/>
     </row>
-    <row r="251" ht="18.0" customHeight="1">
+    <row r="251" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="8"/>
       <c r="B251" s="8"/>
       <c r="C251" s="8"/>
@@ -7508,7 +7443,7 @@
       <c r="Y251" s="8"/>
       <c r="Z251" s="8"/>
     </row>
-    <row r="252" ht="18.0" customHeight="1">
+    <row r="252" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="8"/>
       <c r="B252" s="8"/>
       <c r="C252" s="8"/>
@@ -7536,7 +7471,7 @@
       <c r="Y252" s="8"/>
       <c r="Z252" s="8"/>
     </row>
-    <row r="253" ht="18.0" customHeight="1">
+    <row r="253" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="8"/>
       <c r="B253" s="8"/>
       <c r="C253" s="8"/>
@@ -7564,7 +7499,7 @@
       <c r="Y253" s="8"/>
       <c r="Z253" s="8"/>
     </row>
-    <row r="254" ht="18.0" customHeight="1">
+    <row r="254" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="8"/>
       <c r="B254" s="8"/>
       <c r="C254" s="8"/>
@@ -7592,7 +7527,7 @@
       <c r="Y254" s="8"/>
       <c r="Z254" s="8"/>
     </row>
-    <row r="255" ht="18.0" customHeight="1">
+    <row r="255" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="8"/>
       <c r="B255" s="8"/>
       <c r="C255" s="8"/>
@@ -7620,7 +7555,7 @@
       <c r="Y255" s="8"/>
       <c r="Z255" s="8"/>
     </row>
-    <row r="256" ht="18.0" customHeight="1">
+    <row r="256" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="8"/>
       <c r="B256" s="8"/>
       <c r="C256" s="8"/>
@@ -7648,7 +7583,7 @@
       <c r="Y256" s="8"/>
       <c r="Z256" s="8"/>
     </row>
-    <row r="257" ht="18.0" customHeight="1">
+    <row r="257" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="8"/>
       <c r="B257" s="8"/>
       <c r="C257" s="8"/>
@@ -7676,7 +7611,7 @@
       <c r="Y257" s="8"/>
       <c r="Z257" s="8"/>
     </row>
-    <row r="258" ht="18.0" customHeight="1">
+    <row r="258" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="8"/>
       <c r="B258" s="8"/>
       <c r="C258" s="8"/>
@@ -7704,7 +7639,7 @@
       <c r="Y258" s="8"/>
       <c r="Z258" s="8"/>
     </row>
-    <row r="259" ht="18.0" customHeight="1">
+    <row r="259" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="8"/>
       <c r="B259" s="8"/>
       <c r="C259" s="8"/>
@@ -7732,7 +7667,7 @@
       <c r="Y259" s="8"/>
       <c r="Z259" s="8"/>
     </row>
-    <row r="260" ht="18.0" customHeight="1">
+    <row r="260" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="8"/>
       <c r="B260" s="8"/>
       <c r="C260" s="8"/>
@@ -7760,7 +7695,7 @@
       <c r="Y260" s="8"/>
       <c r="Z260" s="8"/>
     </row>
-    <row r="261" ht="18.0" customHeight="1">
+    <row r="261" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="8"/>
       <c r="B261" s="8"/>
       <c r="C261" s="8"/>
@@ -7788,7 +7723,7 @@
       <c r="Y261" s="8"/>
       <c r="Z261" s="8"/>
     </row>
-    <row r="262" ht="18.0" customHeight="1">
+    <row r="262" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="8"/>
       <c r="B262" s="8"/>
       <c r="C262" s="8"/>
@@ -7816,7 +7751,7 @@
       <c r="Y262" s="8"/>
       <c r="Z262" s="8"/>
     </row>
-    <row r="263" ht="18.0" customHeight="1">
+    <row r="263" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="8"/>
       <c r="B263" s="8"/>
       <c r="C263" s="8"/>
@@ -7844,7 +7779,7 @@
       <c r="Y263" s="8"/>
       <c r="Z263" s="8"/>
     </row>
-    <row r="264" ht="18.0" customHeight="1">
+    <row r="264" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="8"/>
       <c r="B264" s="8"/>
       <c r="C264" s="8"/>
@@ -7872,7 +7807,7 @@
       <c r="Y264" s="8"/>
       <c r="Z264" s="8"/>
     </row>
-    <row r="265" ht="18.0" customHeight="1">
+    <row r="265" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="8"/>
       <c r="B265" s="8"/>
       <c r="C265" s="8"/>
@@ -7900,7 +7835,7 @@
       <c r="Y265" s="8"/>
       <c r="Z265" s="8"/>
     </row>
-    <row r="266" ht="18.0" customHeight="1">
+    <row r="266" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="8"/>
       <c r="B266" s="8"/>
       <c r="C266" s="8"/>
@@ -7928,7 +7863,7 @@
       <c r="Y266" s="8"/>
       <c r="Z266" s="8"/>
     </row>
-    <row r="267" ht="18.0" customHeight="1">
+    <row r="267" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="8"/>
       <c r="B267" s="8"/>
       <c r="C267" s="8"/>
@@ -7956,7 +7891,7 @@
       <c r="Y267" s="8"/>
       <c r="Z267" s="8"/>
     </row>
-    <row r="268" ht="18.0" customHeight="1">
+    <row r="268" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="8"/>
       <c r="B268" s="8"/>
       <c r="C268" s="8"/>
@@ -7984,7 +7919,7 @@
       <c r="Y268" s="8"/>
       <c r="Z268" s="8"/>
     </row>
-    <row r="269" ht="18.0" customHeight="1">
+    <row r="269" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="8"/>
       <c r="B269" s="8"/>
       <c r="C269" s="8"/>
@@ -8012,7 +7947,7 @@
       <c r="Y269" s="8"/>
       <c r="Z269" s="8"/>
     </row>
-    <row r="270" ht="18.0" customHeight="1">
+    <row r="270" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="8"/>
       <c r="B270" s="8"/>
       <c r="C270" s="8"/>
@@ -8040,7 +7975,7 @@
       <c r="Y270" s="8"/>
       <c r="Z270" s="8"/>
     </row>
-    <row r="271" ht="18.0" customHeight="1">
+    <row r="271" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="8"/>
       <c r="B271" s="8"/>
       <c r="C271" s="8"/>
@@ -8068,7 +8003,7 @@
       <c r="Y271" s="8"/>
       <c r="Z271" s="8"/>
     </row>
-    <row r="272" ht="18.0" customHeight="1">
+    <row r="272" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="8"/>
       <c r="B272" s="8"/>
       <c r="C272" s="8"/>
@@ -8096,7 +8031,7 @@
       <c r="Y272" s="8"/>
       <c r="Z272" s="8"/>
     </row>
-    <row r="273" ht="18.0" customHeight="1">
+    <row r="273" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="8"/>
       <c r="B273" s="8"/>
       <c r="C273" s="8"/>
@@ -8124,7 +8059,7 @@
       <c r="Y273" s="8"/>
       <c r="Z273" s="8"/>
     </row>
-    <row r="274" ht="18.0" customHeight="1">
+    <row r="274" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="8"/>
       <c r="B274" s="8"/>
       <c r="C274" s="8"/>
@@ -8152,7 +8087,7 @@
       <c r="Y274" s="8"/>
       <c r="Z274" s="8"/>
     </row>
-    <row r="275" ht="18.0" customHeight="1">
+    <row r="275" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="8"/>
       <c r="B275" s="8"/>
       <c r="C275" s="8"/>
@@ -8180,7 +8115,7 @@
       <c r="Y275" s="8"/>
       <c r="Z275" s="8"/>
     </row>
-    <row r="276" ht="18.0" customHeight="1">
+    <row r="276" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="8"/>
       <c r="B276" s="8"/>
       <c r="C276" s="8"/>
@@ -8208,7 +8143,7 @@
       <c r="Y276" s="8"/>
       <c r="Z276" s="8"/>
     </row>
-    <row r="277" ht="18.0" customHeight="1">
+    <row r="277" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="8"/>
       <c r="B277" s="8"/>
       <c r="C277" s="8"/>
@@ -8236,7 +8171,7 @@
       <c r="Y277" s="8"/>
       <c r="Z277" s="8"/>
     </row>
-    <row r="278" ht="18.0" customHeight="1">
+    <row r="278" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="8"/>
       <c r="B278" s="8"/>
       <c r="C278" s="8"/>
@@ -8264,7 +8199,7 @@
       <c r="Y278" s="8"/>
       <c r="Z278" s="8"/>
     </row>
-    <row r="279" ht="18.0" customHeight="1">
+    <row r="279" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="8"/>
       <c r="B279" s="8"/>
       <c r="C279" s="8"/>
@@ -8292,7 +8227,7 @@
       <c r="Y279" s="8"/>
       <c r="Z279" s="8"/>
     </row>
-    <row r="280" ht="18.0" customHeight="1">
+    <row r="280" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="8"/>
       <c r="B280" s="8"/>
       <c r="C280" s="8"/>
@@ -8320,7 +8255,7 @@
       <c r="Y280" s="8"/>
       <c r="Z280" s="8"/>
     </row>
-    <row r="281" ht="18.0" customHeight="1">
+    <row r="281" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="8"/>
       <c r="B281" s="8"/>
       <c r="C281" s="8"/>
@@ -8348,7 +8283,7 @@
       <c r="Y281" s="8"/>
       <c r="Z281" s="8"/>
     </row>
-    <row r="282" ht="18.0" customHeight="1">
+    <row r="282" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="8"/>
       <c r="B282" s="8"/>
       <c r="C282" s="8"/>
@@ -8376,7 +8311,7 @@
       <c r="Y282" s="8"/>
       <c r="Z282" s="8"/>
     </row>
-    <row r="283" ht="18.0" customHeight="1">
+    <row r="283" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="8"/>
       <c r="B283" s="8"/>
       <c r="C283" s="8"/>
@@ -8404,7 +8339,7 @@
       <c r="Y283" s="8"/>
       <c r="Z283" s="8"/>
     </row>
-    <row r="284" ht="18.0" customHeight="1">
+    <row r="284" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="8"/>
       <c r="B284" s="8"/>
       <c r="C284" s="8"/>
@@ -8432,7 +8367,7 @@
       <c r="Y284" s="8"/>
       <c r="Z284" s="8"/>
     </row>
-    <row r="285" ht="18.0" customHeight="1">
+    <row r="285" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="8"/>
       <c r="B285" s="8"/>
       <c r="C285" s="8"/>
@@ -8460,7 +8395,7 @@
       <c r="Y285" s="8"/>
       <c r="Z285" s="8"/>
     </row>
-    <row r="286" ht="18.0" customHeight="1">
+    <row r="286" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="8"/>
       <c r="B286" s="8"/>
       <c r="C286" s="8"/>
@@ -8488,7 +8423,7 @@
       <c r="Y286" s="8"/>
       <c r="Z286" s="8"/>
     </row>
-    <row r="287" ht="18.0" customHeight="1">
+    <row r="287" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="8"/>
       <c r="B287" s="8"/>
       <c r="C287" s="8"/>
@@ -8516,7 +8451,7 @@
       <c r="Y287" s="8"/>
       <c r="Z287" s="8"/>
     </row>
-    <row r="288" ht="18.0" customHeight="1">
+    <row r="288" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="8"/>
       <c r="B288" s="8"/>
       <c r="C288" s="8"/>
@@ -8544,7 +8479,7 @@
       <c r="Y288" s="8"/>
       <c r="Z288" s="8"/>
     </row>
-    <row r="289" ht="18.0" customHeight="1">
+    <row r="289" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="8"/>
       <c r="B289" s="8"/>
       <c r="C289" s="8"/>
@@ -8572,7 +8507,7 @@
       <c r="Y289" s="8"/>
       <c r="Z289" s="8"/>
     </row>
-    <row r="290" ht="18.0" customHeight="1">
+    <row r="290" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="8"/>
       <c r="B290" s="8"/>
       <c r="C290" s="8"/>
@@ -8600,7 +8535,7 @@
       <c r="Y290" s="8"/>
       <c r="Z290" s="8"/>
     </row>
-    <row r="291" ht="18.0" customHeight="1">
+    <row r="291" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="8"/>
       <c r="B291" s="8"/>
       <c r="C291" s="8"/>
@@ -8628,7 +8563,7 @@
       <c r="Y291" s="8"/>
       <c r="Z291" s="8"/>
     </row>
-    <row r="292" ht="18.0" customHeight="1">
+    <row r="292" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="8"/>
       <c r="B292" s="8"/>
       <c r="C292" s="8"/>
@@ -8656,7 +8591,7 @@
       <c r="Y292" s="8"/>
       <c r="Z292" s="8"/>
     </row>
-    <row r="293" ht="18.0" customHeight="1">
+    <row r="293" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="8"/>
       <c r="B293" s="8"/>
       <c r="C293" s="8"/>
@@ -8684,7 +8619,7 @@
       <c r="Y293" s="8"/>
       <c r="Z293" s="8"/>
     </row>
-    <row r="294" ht="18.0" customHeight="1">
+    <row r="294" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="8"/>
       <c r="B294" s="8"/>
       <c r="C294" s="8"/>
@@ -8712,7 +8647,7 @@
       <c r="Y294" s="8"/>
       <c r="Z294" s="8"/>
     </row>
-    <row r="295" ht="18.0" customHeight="1">
+    <row r="295" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="8"/>
       <c r="B295" s="8"/>
       <c r="C295" s="8"/>
@@ -8740,7 +8675,7 @@
       <c r="Y295" s="8"/>
       <c r="Z295" s="8"/>
     </row>
-    <row r="296" ht="18.0" customHeight="1">
+    <row r="296" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="8"/>
       <c r="B296" s="8"/>
       <c r="C296" s="8"/>
@@ -8768,7 +8703,7 @@
       <c r="Y296" s="8"/>
       <c r="Z296" s="8"/>
     </row>
-    <row r="297" ht="18.0" customHeight="1">
+    <row r="297" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="8"/>
       <c r="B297" s="8"/>
       <c r="C297" s="8"/>
@@ -8796,7 +8731,7 @@
       <c r="Y297" s="8"/>
       <c r="Z297" s="8"/>
     </row>
-    <row r="298" ht="18.0" customHeight="1">
+    <row r="298" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="8"/>
       <c r="B298" s="8"/>
       <c r="C298" s="8"/>
@@ -8824,7 +8759,7 @@
       <c r="Y298" s="8"/>
       <c r="Z298" s="8"/>
     </row>
-    <row r="299" ht="18.0" customHeight="1">
+    <row r="299" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="8"/>
       <c r="B299" s="8"/>
       <c r="C299" s="8"/>
@@ -8852,7 +8787,7 @@
       <c r="Y299" s="8"/>
       <c r="Z299" s="8"/>
     </row>
-    <row r="300" ht="18.0" customHeight="1">
+    <row r="300" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="8"/>
       <c r="B300" s="8"/>
       <c r="C300" s="8"/>
@@ -8880,7 +8815,7 @@
       <c r="Y300" s="8"/>
       <c r="Z300" s="8"/>
     </row>
-    <row r="301" ht="18.0" customHeight="1">
+    <row r="301" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="8"/>
       <c r="B301" s="8"/>
       <c r="C301" s="8"/>
@@ -8908,7 +8843,7 @@
       <c r="Y301" s="8"/>
       <c r="Z301" s="8"/>
     </row>
-    <row r="302" ht="18.0" customHeight="1">
+    <row r="302" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="8"/>
       <c r="B302" s="8"/>
       <c r="C302" s="8"/>
@@ -8936,7 +8871,7 @@
       <c r="Y302" s="8"/>
       <c r="Z302" s="8"/>
     </row>
-    <row r="303" ht="18.0" customHeight="1">
+    <row r="303" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="8"/>
       <c r="B303" s="8"/>
       <c r="C303" s="8"/>
@@ -8964,7 +8899,7 @@
       <c r="Y303" s="8"/>
       <c r="Z303" s="8"/>
     </row>
-    <row r="304" ht="18.0" customHeight="1">
+    <row r="304" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="8"/>
       <c r="B304" s="8"/>
       <c r="C304" s="8"/>
@@ -8992,7 +8927,7 @@
       <c r="Y304" s="8"/>
       <c r="Z304" s="8"/>
     </row>
-    <row r="305" ht="18.0" customHeight="1">
+    <row r="305" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="8"/>
       <c r="B305" s="8"/>
       <c r="C305" s="8"/>
@@ -9020,7 +8955,7 @@
       <c r="Y305" s="8"/>
       <c r="Z305" s="8"/>
     </row>
-    <row r="306" ht="18.0" customHeight="1">
+    <row r="306" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="8"/>
       <c r="B306" s="8"/>
       <c r="C306" s="8"/>
@@ -9048,7 +8983,7 @@
       <c r="Y306" s="8"/>
       <c r="Z306" s="8"/>
     </row>
-    <row r="307" ht="18.0" customHeight="1">
+    <row r="307" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="8"/>
       <c r="B307" s="8"/>
       <c r="C307" s="8"/>
@@ -9076,7 +9011,7 @@
       <c r="Y307" s="8"/>
       <c r="Z307" s="8"/>
     </row>
-    <row r="308" ht="18.0" customHeight="1">
+    <row r="308" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="8"/>
       <c r="B308" s="8"/>
       <c r="C308" s="8"/>
@@ -9104,7 +9039,7 @@
       <c r="Y308" s="8"/>
       <c r="Z308" s="8"/>
     </row>
-    <row r="309" ht="18.0" customHeight="1">
+    <row r="309" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="8"/>
       <c r="B309" s="8"/>
       <c r="C309" s="8"/>
@@ -9132,7 +9067,7 @@
       <c r="Y309" s="8"/>
       <c r="Z309" s="8"/>
     </row>
-    <row r="310" ht="18.0" customHeight="1">
+    <row r="310" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="8"/>
       <c r="B310" s="8"/>
       <c r="C310" s="8"/>
@@ -9160,7 +9095,7 @@
       <c r="Y310" s="8"/>
       <c r="Z310" s="8"/>
     </row>
-    <row r="311" ht="18.0" customHeight="1">
+    <row r="311" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="8"/>
       <c r="B311" s="8"/>
       <c r="C311" s="8"/>
@@ -9188,7 +9123,7 @@
       <c r="Y311" s="8"/>
       <c r="Z311" s="8"/>
     </row>
-    <row r="312" ht="18.0" customHeight="1">
+    <row r="312" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="8"/>
       <c r="B312" s="8"/>
       <c r="C312" s="8"/>
@@ -9216,7 +9151,7 @@
       <c r="Y312" s="8"/>
       <c r="Z312" s="8"/>
     </row>
-    <row r="313" ht="18.0" customHeight="1">
+    <row r="313" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="8"/>
       <c r="B313" s="8"/>
       <c r="C313" s="8"/>
@@ -9244,7 +9179,7 @@
       <c r="Y313" s="8"/>
       <c r="Z313" s="8"/>
     </row>
-    <row r="314" ht="18.0" customHeight="1">
+    <row r="314" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="8"/>
       <c r="B314" s="8"/>
       <c r="C314" s="8"/>
@@ -9272,7 +9207,7 @@
       <c r="Y314" s="8"/>
       <c r="Z314" s="8"/>
     </row>
-    <row r="315" ht="18.0" customHeight="1">
+    <row r="315" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="8"/>
       <c r="B315" s="8"/>
       <c r="C315" s="8"/>
@@ -9300,7 +9235,7 @@
       <c r="Y315" s="8"/>
       <c r="Z315" s="8"/>
     </row>
-    <row r="316" ht="18.0" customHeight="1">
+    <row r="316" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="8"/>
       <c r="B316" s="8"/>
       <c r="C316" s="8"/>
@@ -9328,7 +9263,7 @@
       <c r="Y316" s="8"/>
       <c r="Z316" s="8"/>
     </row>
-    <row r="317" ht="18.0" customHeight="1">
+    <row r="317" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="8"/>
       <c r="B317" s="8"/>
       <c r="C317" s="8"/>
@@ -9356,7 +9291,7 @@
       <c r="Y317" s="8"/>
       <c r="Z317" s="8"/>
     </row>
-    <row r="318" ht="18.0" customHeight="1">
+    <row r="318" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="8"/>
       <c r="B318" s="8"/>
       <c r="C318" s="8"/>
@@ -9384,7 +9319,7 @@
       <c r="Y318" s="8"/>
       <c r="Z318" s="8"/>
     </row>
-    <row r="319" ht="18.0" customHeight="1">
+    <row r="319" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="8"/>
       <c r="B319" s="8"/>
       <c r="C319" s="8"/>
@@ -9412,7 +9347,7 @@
       <c r="Y319" s="8"/>
       <c r="Z319" s="8"/>
     </row>
-    <row r="320" ht="18.0" customHeight="1">
+    <row r="320" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="8"/>
       <c r="B320" s="8"/>
       <c r="C320" s="8"/>
@@ -9440,7 +9375,7 @@
       <c r="Y320" s="8"/>
       <c r="Z320" s="8"/>
     </row>
-    <row r="321" ht="18.0" customHeight="1">
+    <row r="321" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="8"/>
       <c r="B321" s="8"/>
       <c r="C321" s="8"/>
@@ -9468,7 +9403,7 @@
       <c r="Y321" s="8"/>
       <c r="Z321" s="8"/>
     </row>
-    <row r="322" ht="18.0" customHeight="1">
+    <row r="322" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="8"/>
       <c r="B322" s="8"/>
       <c r="C322" s="8"/>
@@ -9496,7 +9431,7 @@
       <c r="Y322" s="8"/>
       <c r="Z322" s="8"/>
     </row>
-    <row r="323" ht="18.0" customHeight="1">
+    <row r="323" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="8"/>
       <c r="B323" s="8"/>
       <c r="C323" s="8"/>
@@ -9524,7 +9459,7 @@
       <c r="Y323" s="8"/>
       <c r="Z323" s="8"/>
     </row>
-    <row r="324" ht="18.0" customHeight="1">
+    <row r="324" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="8"/>
       <c r="B324" s="8"/>
       <c r="C324" s="8"/>
@@ -9552,7 +9487,7 @@
       <c r="Y324" s="8"/>
       <c r="Z324" s="8"/>
     </row>
-    <row r="325" ht="18.0" customHeight="1">
+    <row r="325" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="8"/>
       <c r="B325" s="8"/>
       <c r="C325" s="8"/>
@@ -9580,7 +9515,7 @@
       <c r="Y325" s="8"/>
       <c r="Z325" s="8"/>
     </row>
-    <row r="326" ht="18.0" customHeight="1">
+    <row r="326" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="8"/>
       <c r="B326" s="8"/>
       <c r="C326" s="8"/>
@@ -9608,7 +9543,7 @@
       <c r="Y326" s="8"/>
       <c r="Z326" s="8"/>
     </row>
-    <row r="327" ht="18.0" customHeight="1">
+    <row r="327" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="8"/>
       <c r="B327" s="8"/>
       <c r="C327" s="8"/>
@@ -9636,7 +9571,7 @@
       <c r="Y327" s="8"/>
       <c r="Z327" s="8"/>
     </row>
-    <row r="328" ht="18.0" customHeight="1">
+    <row r="328" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="8"/>
       <c r="B328" s="8"/>
       <c r="C328" s="8"/>
@@ -9664,7 +9599,7 @@
       <c r="Y328" s="8"/>
       <c r="Z328" s="8"/>
     </row>
-    <row r="329" ht="18.0" customHeight="1">
+    <row r="329" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="8"/>
       <c r="B329" s="8"/>
       <c r="C329" s="8"/>
@@ -9692,7 +9627,7 @@
       <c r="Y329" s="8"/>
       <c r="Z329" s="8"/>
     </row>
-    <row r="330" ht="18.0" customHeight="1">
+    <row r="330" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="8"/>
       <c r="B330" s="8"/>
       <c r="C330" s="8"/>
@@ -9720,7 +9655,7 @@
       <c r="Y330" s="8"/>
       <c r="Z330" s="8"/>
     </row>
-    <row r="331" ht="18.0" customHeight="1">
+    <row r="331" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="8"/>
       <c r="B331" s="8"/>
       <c r="C331" s="8"/>
@@ -9748,7 +9683,7 @@
       <c r="Y331" s="8"/>
       <c r="Z331" s="8"/>
     </row>
-    <row r="332" ht="18.0" customHeight="1">
+    <row r="332" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="8"/>
       <c r="B332" s="8"/>
       <c r="C332" s="8"/>
@@ -9776,7 +9711,7 @@
       <c r="Y332" s="8"/>
       <c r="Z332" s="8"/>
     </row>
-    <row r="333" ht="18.0" customHeight="1">
+    <row r="333" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="8"/>
       <c r="B333" s="8"/>
       <c r="C333" s="8"/>
@@ -9804,7 +9739,7 @@
       <c r="Y333" s="8"/>
       <c r="Z333" s="8"/>
     </row>
-    <row r="334" ht="18.0" customHeight="1">
+    <row r="334" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="8"/>
       <c r="B334" s="8"/>
       <c r="C334" s="8"/>
@@ -9832,7 +9767,7 @@
       <c r="Y334" s="8"/>
       <c r="Z334" s="8"/>
     </row>
-    <row r="335" ht="18.0" customHeight="1">
+    <row r="335" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="8"/>
       <c r="B335" s="8"/>
       <c r="C335" s="8"/>
@@ -9860,7 +9795,7 @@
       <c r="Y335" s="8"/>
       <c r="Z335" s="8"/>
     </row>
-    <row r="336" ht="18.0" customHeight="1">
+    <row r="336" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="8"/>
       <c r="B336" s="8"/>
       <c r="C336" s="8"/>
@@ -9888,7 +9823,7 @@
       <c r="Y336" s="8"/>
       <c r="Z336" s="8"/>
     </row>
-    <row r="337" ht="18.0" customHeight="1">
+    <row r="337" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="8"/>
       <c r="B337" s="8"/>
       <c r="C337" s="8"/>
@@ -9916,7 +9851,7 @@
       <c r="Y337" s="8"/>
       <c r="Z337" s="8"/>
     </row>
-    <row r="338" ht="18.0" customHeight="1">
+    <row r="338" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="8"/>
       <c r="B338" s="8"/>
       <c r="C338" s="8"/>
@@ -9944,7 +9879,7 @@
       <c r="Y338" s="8"/>
       <c r="Z338" s="8"/>
     </row>
-    <row r="339" ht="18.0" customHeight="1">
+    <row r="339" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="8"/>
       <c r="B339" s="8"/>
       <c r="C339" s="8"/>
@@ -9972,7 +9907,7 @@
       <c r="Y339" s="8"/>
       <c r="Z339" s="8"/>
     </row>
-    <row r="340" ht="18.0" customHeight="1">
+    <row r="340" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="8"/>
       <c r="B340" s="8"/>
       <c r="C340" s="8"/>
@@ -10000,7 +9935,7 @@
       <c r="Y340" s="8"/>
       <c r="Z340" s="8"/>
     </row>
-    <row r="341" ht="18.0" customHeight="1">
+    <row r="341" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="8"/>
       <c r="B341" s="8"/>
       <c r="C341" s="8"/>
@@ -10028,7 +9963,7 @@
       <c r="Y341" s="8"/>
       <c r="Z341" s="8"/>
     </row>
-    <row r="342" ht="18.0" customHeight="1">
+    <row r="342" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="8"/>
       <c r="B342" s="8"/>
       <c r="C342" s="8"/>
@@ -10056,7 +9991,7 @@
       <c r="Y342" s="8"/>
       <c r="Z342" s="8"/>
     </row>
-    <row r="343" ht="18.0" customHeight="1">
+    <row r="343" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="8"/>
       <c r="B343" s="8"/>
       <c r="C343" s="8"/>
@@ -10084,7 +10019,7 @@
       <c r="Y343" s="8"/>
       <c r="Z343" s="8"/>
     </row>
-    <row r="344" ht="18.0" customHeight="1">
+    <row r="344" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="8"/>
       <c r="B344" s="8"/>
       <c r="C344" s="8"/>
@@ -10112,7 +10047,7 @@
       <c r="Y344" s="8"/>
       <c r="Z344" s="8"/>
     </row>
-    <row r="345" ht="18.0" customHeight="1">
+    <row r="345" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="8"/>
       <c r="B345" s="8"/>
       <c r="C345" s="8"/>
@@ -10140,7 +10075,7 @@
       <c r="Y345" s="8"/>
       <c r="Z345" s="8"/>
     </row>
-    <row r="346" ht="18.0" customHeight="1">
+    <row r="346" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="8"/>
       <c r="B346" s="8"/>
       <c r="C346" s="8"/>
@@ -10168,7 +10103,7 @@
       <c r="Y346" s="8"/>
       <c r="Z346" s="8"/>
     </row>
-    <row r="347" ht="18.0" customHeight="1">
+    <row r="347" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="8"/>
       <c r="B347" s="8"/>
       <c r="C347" s="8"/>
@@ -10196,7 +10131,7 @@
       <c r="Y347" s="8"/>
       <c r="Z347" s="8"/>
     </row>
-    <row r="348" ht="18.0" customHeight="1">
+    <row r="348" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="8"/>
       <c r="B348" s="8"/>
       <c r="C348" s="8"/>
@@ -10224,7 +10159,7 @@
       <c r="Y348" s="8"/>
       <c r="Z348" s="8"/>
     </row>
-    <row r="349" ht="18.0" customHeight="1">
+    <row r="349" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="8"/>
       <c r="B349" s="8"/>
       <c r="C349" s="8"/>
@@ -10252,7 +10187,7 @@
       <c r="Y349" s="8"/>
       <c r="Z349" s="8"/>
     </row>
-    <row r="350" ht="18.0" customHeight="1">
+    <row r="350" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="8"/>
       <c r="B350" s="8"/>
       <c r="C350" s="8"/>
@@ -10280,7 +10215,7 @@
       <c r="Y350" s="8"/>
       <c r="Z350" s="8"/>
     </row>
-    <row r="351" ht="18.0" customHeight="1">
+    <row r="351" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="8"/>
       <c r="B351" s="8"/>
       <c r="C351" s="8"/>
@@ -10308,7 +10243,7 @@
       <c r="Y351" s="8"/>
       <c r="Z351" s="8"/>
     </row>
-    <row r="352" ht="18.0" customHeight="1">
+    <row r="352" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="8"/>
       <c r="B352" s="8"/>
       <c r="C352" s="8"/>
@@ -10336,7 +10271,7 @@
       <c r="Y352" s="8"/>
       <c r="Z352" s="8"/>
     </row>
-    <row r="353" ht="18.0" customHeight="1">
+    <row r="353" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="8"/>
       <c r="B353" s="8"/>
       <c r="C353" s="8"/>
@@ -10364,7 +10299,7 @@
       <c r="Y353" s="8"/>
       <c r="Z353" s="8"/>
     </row>
-    <row r="354" ht="18.0" customHeight="1">
+    <row r="354" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="8"/>
       <c r="B354" s="8"/>
       <c r="C354" s="8"/>
@@ -10392,7 +10327,7 @@
       <c r="Y354" s="8"/>
       <c r="Z354" s="8"/>
     </row>
-    <row r="355" ht="18.0" customHeight="1">
+    <row r="355" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="8"/>
       <c r="B355" s="8"/>
       <c r="C355" s="8"/>
@@ -10420,7 +10355,7 @@
       <c r="Y355" s="8"/>
       <c r="Z355" s="8"/>
     </row>
-    <row r="356" ht="18.0" customHeight="1">
+    <row r="356" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="8"/>
       <c r="B356" s="8"/>
       <c r="C356" s="8"/>
@@ -10448,7 +10383,7 @@
       <c r="Y356" s="8"/>
       <c r="Z356" s="8"/>
     </row>
-    <row r="357" ht="18.0" customHeight="1">
+    <row r="357" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="8"/>
       <c r="B357" s="8"/>
       <c r="C357" s="8"/>
@@ -10476,7 +10411,7 @@
       <c r="Y357" s="8"/>
       <c r="Z357" s="8"/>
     </row>
-    <row r="358" ht="18.0" customHeight="1">
+    <row r="358" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="8"/>
       <c r="B358" s="8"/>
       <c r="C358" s="8"/>
@@ -10504,7 +10439,7 @@
       <c r="Y358" s="8"/>
       <c r="Z358" s="8"/>
     </row>
-    <row r="359" ht="18.0" customHeight="1">
+    <row r="359" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="8"/>
       <c r="B359" s="8"/>
       <c r="C359" s="8"/>
@@ -10532,7 +10467,7 @@
       <c r="Y359" s="8"/>
       <c r="Z359" s="8"/>
     </row>
-    <row r="360" ht="18.0" customHeight="1">
+    <row r="360" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="8"/>
       <c r="B360" s="8"/>
       <c r="C360" s="8"/>
@@ -10560,7 +10495,7 @@
       <c r="Y360" s="8"/>
       <c r="Z360" s="8"/>
     </row>
-    <row r="361" ht="18.0" customHeight="1">
+    <row r="361" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="8"/>
       <c r="B361" s="8"/>
       <c r="C361" s="8"/>
@@ -10588,7 +10523,7 @@
       <c r="Y361" s="8"/>
       <c r="Z361" s="8"/>
     </row>
-    <row r="362" ht="18.0" customHeight="1">
+    <row r="362" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="8"/>
       <c r="B362" s="8"/>
       <c r="C362" s="8"/>
@@ -10616,7 +10551,7 @@
       <c r="Y362" s="8"/>
       <c r="Z362" s="8"/>
     </row>
-    <row r="363" ht="18.0" customHeight="1">
+    <row r="363" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="8"/>
       <c r="B363" s="8"/>
       <c r="C363" s="8"/>
@@ -10644,7 +10579,7 @@
       <c r="Y363" s="8"/>
       <c r="Z363" s="8"/>
     </row>
-    <row r="364" ht="18.0" customHeight="1">
+    <row r="364" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="8"/>
       <c r="B364" s="8"/>
       <c r="C364" s="8"/>
@@ -10672,7 +10607,7 @@
       <c r="Y364" s="8"/>
       <c r="Z364" s="8"/>
     </row>
-    <row r="365" ht="18.0" customHeight="1">
+    <row r="365" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="8"/>
       <c r="B365" s="8"/>
       <c r="C365" s="8"/>
@@ -10700,7 +10635,7 @@
       <c r="Y365" s="8"/>
       <c r="Z365" s="8"/>
     </row>
-    <row r="366" ht="18.0" customHeight="1">
+    <row r="366" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="8"/>
       <c r="B366" s="8"/>
       <c r="C366" s="8"/>
@@ -10728,7 +10663,7 @@
       <c r="Y366" s="8"/>
       <c r="Z366" s="8"/>
     </row>
-    <row r="367" ht="18.0" customHeight="1">
+    <row r="367" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="8"/>
       <c r="B367" s="8"/>
       <c r="C367" s="8"/>
@@ -10756,7 +10691,7 @@
       <c r="Y367" s="8"/>
       <c r="Z367" s="8"/>
     </row>
-    <row r="368" ht="18.0" customHeight="1">
+    <row r="368" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="8"/>
       <c r="B368" s="8"/>
       <c r="C368" s="8"/>
@@ -10784,7 +10719,7 @@
       <c r="Y368" s="8"/>
       <c r="Z368" s="8"/>
     </row>
-    <row r="369" ht="18.0" customHeight="1">
+    <row r="369" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="8"/>
       <c r="B369" s="8"/>
       <c r="C369" s="8"/>
@@ -10812,7 +10747,7 @@
       <c r="Y369" s="8"/>
       <c r="Z369" s="8"/>
     </row>
-    <row r="370" ht="18.0" customHeight="1">
+    <row r="370" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="8"/>
       <c r="B370" s="8"/>
       <c r="C370" s="8"/>
@@ -10840,7 +10775,7 @@
       <c r="Y370" s="8"/>
       <c r="Z370" s="8"/>
     </row>
-    <row r="371" ht="18.0" customHeight="1">
+    <row r="371" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="8"/>
       <c r="B371" s="8"/>
       <c r="C371" s="8"/>
@@ -10868,7 +10803,7 @@
       <c r="Y371" s="8"/>
       <c r="Z371" s="8"/>
     </row>
-    <row r="372" ht="18.0" customHeight="1">
+    <row r="372" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="8"/>
       <c r="B372" s="8"/>
       <c r="C372" s="8"/>
@@ -10896,7 +10831,7 @@
       <c r="Y372" s="8"/>
       <c r="Z372" s="8"/>
     </row>
-    <row r="373" ht="18.0" customHeight="1">
+    <row r="373" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="8"/>
       <c r="B373" s="8"/>
       <c r="C373" s="8"/>
@@ -10924,7 +10859,7 @@
       <c r="Y373" s="8"/>
       <c r="Z373" s="8"/>
     </row>
-    <row r="374" ht="18.0" customHeight="1">
+    <row r="374" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="8"/>
       <c r="B374" s="8"/>
       <c r="C374" s="8"/>
@@ -10952,7 +10887,7 @@
       <c r="Y374" s="8"/>
       <c r="Z374" s="8"/>
     </row>
-    <row r="375" ht="18.0" customHeight="1">
+    <row r="375" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="8"/>
       <c r="B375" s="8"/>
       <c r="C375" s="8"/>
@@ -10980,7 +10915,7 @@
       <c r="Y375" s="8"/>
       <c r="Z375" s="8"/>
     </row>
-    <row r="376" ht="18.0" customHeight="1">
+    <row r="376" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="8"/>
       <c r="B376" s="8"/>
       <c r="C376" s="8"/>
@@ -11008,7 +10943,7 @@
       <c r="Y376" s="8"/>
       <c r="Z376" s="8"/>
     </row>
-    <row r="377" ht="18.0" customHeight="1">
+    <row r="377" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="8"/>
       <c r="B377" s="8"/>
       <c r="C377" s="8"/>
@@ -11036,7 +10971,7 @@
       <c r="Y377" s="8"/>
       <c r="Z377" s="8"/>
     </row>
-    <row r="378" ht="18.0" customHeight="1">
+    <row r="378" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="8"/>
       <c r="B378" s="8"/>
       <c r="C378" s="8"/>
@@ -11064,7 +10999,7 @@
       <c r="Y378" s="8"/>
       <c r="Z378" s="8"/>
     </row>
-    <row r="379" ht="18.0" customHeight="1">
+    <row r="379" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="8"/>
       <c r="B379" s="8"/>
       <c r="C379" s="8"/>
@@ -11092,7 +11027,7 @@
       <c r="Y379" s="8"/>
       <c r="Z379" s="8"/>
     </row>
-    <row r="380" ht="18.0" customHeight="1">
+    <row r="380" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="8"/>
       <c r="B380" s="8"/>
       <c r="C380" s="8"/>
@@ -11120,7 +11055,7 @@
       <c r="Y380" s="8"/>
       <c r="Z380" s="8"/>
     </row>
-    <row r="381" ht="18.0" customHeight="1">
+    <row r="381" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="8"/>
       <c r="B381" s="8"/>
       <c r="C381" s="8"/>
@@ -11148,7 +11083,7 @@
       <c r="Y381" s="8"/>
       <c r="Z381" s="8"/>
     </row>
-    <row r="382" ht="18.0" customHeight="1">
+    <row r="382" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="8"/>
       <c r="B382" s="8"/>
       <c r="C382" s="8"/>
@@ -11176,7 +11111,7 @@
       <c r="Y382" s="8"/>
       <c r="Z382" s="8"/>
     </row>
-    <row r="383" ht="18.0" customHeight="1">
+    <row r="383" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="8"/>
       <c r="B383" s="8"/>
       <c r="C383" s="8"/>
@@ -11204,7 +11139,7 @@
       <c r="Y383" s="8"/>
       <c r="Z383" s="8"/>
     </row>
-    <row r="384" ht="18.0" customHeight="1">
+    <row r="384" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="8"/>
       <c r="B384" s="8"/>
       <c r="C384" s="8"/>
@@ -11232,7 +11167,7 @@
       <c r="Y384" s="8"/>
       <c r="Z384" s="8"/>
     </row>
-    <row r="385" ht="18.0" customHeight="1">
+    <row r="385" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="8"/>
       <c r="B385" s="8"/>
       <c r="C385" s="8"/>
@@ -11260,7 +11195,7 @@
       <c r="Y385" s="8"/>
       <c r="Z385" s="8"/>
     </row>
-    <row r="386" ht="18.0" customHeight="1">
+    <row r="386" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="8"/>
       <c r="B386" s="8"/>
       <c r="C386" s="8"/>
@@ -11288,7 +11223,7 @@
       <c r="Y386" s="8"/>
       <c r="Z386" s="8"/>
     </row>
-    <row r="387" ht="18.0" customHeight="1">
+    <row r="387" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="8"/>
       <c r="B387" s="8"/>
       <c r="C387" s="8"/>
@@ -11316,7 +11251,7 @@
       <c r="Y387" s="8"/>
       <c r="Z387" s="8"/>
     </row>
-    <row r="388" ht="18.0" customHeight="1">
+    <row r="388" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="8"/>
       <c r="B388" s="8"/>
       <c r="C388" s="8"/>
@@ -11344,7 +11279,7 @@
       <c r="Y388" s="8"/>
       <c r="Z388" s="8"/>
     </row>
-    <row r="389" ht="18.0" customHeight="1">
+    <row r="389" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="8"/>
       <c r="B389" s="8"/>
       <c r="C389" s="8"/>
@@ -11372,7 +11307,7 @@
       <c r="Y389" s="8"/>
       <c r="Z389" s="8"/>
     </row>
-    <row r="390" ht="18.0" customHeight="1">
+    <row r="390" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="8"/>
       <c r="B390" s="8"/>
       <c r="C390" s="8"/>
@@ -11400,7 +11335,7 @@
       <c r="Y390" s="8"/>
       <c r="Z390" s="8"/>
     </row>
-    <row r="391" ht="18.0" customHeight="1">
+    <row r="391" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="8"/>
       <c r="B391" s="8"/>
       <c r="C391" s="8"/>
@@ -11428,7 +11363,7 @@
       <c r="Y391" s="8"/>
       <c r="Z391" s="8"/>
     </row>
-    <row r="392" ht="18.0" customHeight="1">
+    <row r="392" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="8"/>
       <c r="B392" s="8"/>
       <c r="C392" s="8"/>
@@ -11456,7 +11391,7 @@
       <c r="Y392" s="8"/>
       <c r="Z392" s="8"/>
     </row>
-    <row r="393" ht="18.0" customHeight="1">
+    <row r="393" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="8"/>
       <c r="B393" s="8"/>
       <c r="C393" s="8"/>
@@ -11484,7 +11419,7 @@
       <c r="Y393" s="8"/>
       <c r="Z393" s="8"/>
     </row>
-    <row r="394" ht="18.0" customHeight="1">
+    <row r="394" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="8"/>
       <c r="B394" s="8"/>
       <c r="C394" s="8"/>
@@ -11512,7 +11447,7 @@
       <c r="Y394" s="8"/>
       <c r="Z394" s="8"/>
     </row>
-    <row r="395" ht="18.0" customHeight="1">
+    <row r="395" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="8"/>
       <c r="B395" s="8"/>
       <c r="C395" s="8"/>
@@ -11540,7 +11475,7 @@
       <c r="Y395" s="8"/>
       <c r="Z395" s="8"/>
     </row>
-    <row r="396" ht="18.0" customHeight="1">
+    <row r="396" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="8"/>
       <c r="B396" s="8"/>
       <c r="C396" s="8"/>
@@ -11568,7 +11503,7 @@
       <c r="Y396" s="8"/>
       <c r="Z396" s="8"/>
     </row>
-    <row r="397" ht="18.0" customHeight="1">
+    <row r="397" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="8"/>
       <c r="B397" s="8"/>
       <c r="C397" s="8"/>
@@ -11596,7 +11531,7 @@
       <c r="Y397" s="8"/>
       <c r="Z397" s="8"/>
     </row>
-    <row r="398" ht="18.0" customHeight="1">
+    <row r="398" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="8"/>
       <c r="B398" s="8"/>
       <c r="C398" s="8"/>
@@ -11624,7 +11559,7 @@
       <c r="Y398" s="8"/>
       <c r="Z398" s="8"/>
     </row>
-    <row r="399" ht="18.0" customHeight="1">
+    <row r="399" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="8"/>
       <c r="B399" s="8"/>
       <c r="C399" s="8"/>
@@ -11652,7 +11587,7 @@
       <c r="Y399" s="8"/>
       <c r="Z399" s="8"/>
     </row>
-    <row r="400" ht="18.0" customHeight="1">
+    <row r="400" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="8"/>
       <c r="B400" s="8"/>
       <c r="C400" s="8"/>
@@ -11680,7 +11615,7 @@
       <c r="Y400" s="8"/>
       <c r="Z400" s="8"/>
     </row>
-    <row r="401" ht="18.0" customHeight="1">
+    <row r="401" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="8"/>
       <c r="B401" s="8"/>
       <c r="C401" s="8"/>
@@ -11708,7 +11643,7 @@
       <c r="Y401" s="8"/>
       <c r="Z401" s="8"/>
     </row>
-    <row r="402" ht="18.0" customHeight="1">
+    <row r="402" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="8"/>
       <c r="B402" s="8"/>
       <c r="C402" s="8"/>
@@ -11736,7 +11671,7 @@
       <c r="Y402" s="8"/>
       <c r="Z402" s="8"/>
     </row>
-    <row r="403" ht="18.0" customHeight="1">
+    <row r="403" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="8"/>
       <c r="B403" s="8"/>
       <c r="C403" s="8"/>
@@ -11764,7 +11699,7 @@
       <c r="Y403" s="8"/>
       <c r="Z403" s="8"/>
     </row>
-    <row r="404" ht="18.0" customHeight="1">
+    <row r="404" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="8"/>
       <c r="B404" s="8"/>
       <c r="C404" s="8"/>
@@ -11792,7 +11727,7 @@
       <c r="Y404" s="8"/>
       <c r="Z404" s="8"/>
     </row>
-    <row r="405" ht="18.0" customHeight="1">
+    <row r="405" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="8"/>
       <c r="B405" s="8"/>
       <c r="C405" s="8"/>
@@ -11820,7 +11755,7 @@
       <c r="Y405" s="8"/>
       <c r="Z405" s="8"/>
     </row>
-    <row r="406" ht="18.0" customHeight="1">
+    <row r="406" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="8"/>
       <c r="B406" s="8"/>
       <c r="C406" s="8"/>
@@ -11848,7 +11783,7 @@
       <c r="Y406" s="8"/>
       <c r="Z406" s="8"/>
     </row>
-    <row r="407" ht="18.0" customHeight="1">
+    <row r="407" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="8"/>
       <c r="B407" s="8"/>
       <c r="C407" s="8"/>
@@ -11876,7 +11811,7 @@
       <c r="Y407" s="8"/>
       <c r="Z407" s="8"/>
     </row>
-    <row r="408" ht="18.0" customHeight="1">
+    <row r="408" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="8"/>
       <c r="B408" s="8"/>
       <c r="C408" s="8"/>
@@ -11904,7 +11839,7 @@
       <c r="Y408" s="8"/>
       <c r="Z408" s="8"/>
     </row>
-    <row r="409" ht="18.0" customHeight="1">
+    <row r="409" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="8"/>
       <c r="B409" s="8"/>
       <c r="C409" s="8"/>
@@ -11932,7 +11867,7 @@
       <c r="Y409" s="8"/>
       <c r="Z409" s="8"/>
     </row>
-    <row r="410" ht="18.0" customHeight="1">
+    <row r="410" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="8"/>
       <c r="B410" s="8"/>
       <c r="C410" s="8"/>
@@ -11960,7 +11895,7 @@
       <c r="Y410" s="8"/>
       <c r="Z410" s="8"/>
     </row>
-    <row r="411" ht="18.0" customHeight="1">
+    <row r="411" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="8"/>
       <c r="B411" s="8"/>
       <c r="C411" s="8"/>
@@ -11988,7 +11923,7 @@
       <c r="Y411" s="8"/>
       <c r="Z411" s="8"/>
     </row>
-    <row r="412" ht="18.0" customHeight="1">
+    <row r="412" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="8"/>
       <c r="B412" s="8"/>
       <c r="C412" s="8"/>
@@ -12016,7 +11951,7 @@
       <c r="Y412" s="8"/>
       <c r="Z412" s="8"/>
     </row>
-    <row r="413" ht="18.0" customHeight="1">
+    <row r="413" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="8"/>
       <c r="B413" s="8"/>
       <c r="C413" s="8"/>
@@ -12044,7 +11979,7 @@
       <c r="Y413" s="8"/>
       <c r="Z413" s="8"/>
     </row>
-    <row r="414" ht="18.0" customHeight="1">
+    <row r="414" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="8"/>
       <c r="B414" s="8"/>
       <c r="C414" s="8"/>
@@ -12072,7 +12007,7 @@
       <c r="Y414" s="8"/>
       <c r="Z414" s="8"/>
     </row>
-    <row r="415" ht="18.0" customHeight="1">
+    <row r="415" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="8"/>
       <c r="B415" s="8"/>
       <c r="C415" s="8"/>
@@ -12100,7 +12035,7 @@
       <c r="Y415" s="8"/>
       <c r="Z415" s="8"/>
     </row>
-    <row r="416" ht="18.0" customHeight="1">
+    <row r="416" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="8"/>
       <c r="B416" s="8"/>
       <c r="C416" s="8"/>
@@ -12128,7 +12063,7 @@
       <c r="Y416" s="8"/>
       <c r="Z416" s="8"/>
     </row>
-    <row r="417" ht="18.0" customHeight="1">
+    <row r="417" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="8"/>
       <c r="B417" s="8"/>
       <c r="C417" s="8"/>
@@ -12156,7 +12091,7 @@
       <c r="Y417" s="8"/>
       <c r="Z417" s="8"/>
     </row>
-    <row r="418" ht="18.0" customHeight="1">
+    <row r="418" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="8"/>
       <c r="B418" s="8"/>
       <c r="C418" s="8"/>
@@ -12184,7 +12119,7 @@
       <c r="Y418" s="8"/>
       <c r="Z418" s="8"/>
     </row>
-    <row r="419" ht="18.0" customHeight="1">
+    <row r="419" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="8"/>
       <c r="B419" s="8"/>
       <c r="C419" s="8"/>
@@ -12212,7 +12147,7 @@
       <c r="Y419" s="8"/>
       <c r="Z419" s="8"/>
     </row>
-    <row r="420" ht="18.0" customHeight="1">
+    <row r="420" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="8"/>
       <c r="B420" s="8"/>
       <c r="C420" s="8"/>
@@ -12240,7 +12175,7 @@
       <c r="Y420" s="8"/>
       <c r="Z420" s="8"/>
     </row>
-    <row r="421" ht="18.0" customHeight="1">
+    <row r="421" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="8"/>
       <c r="B421" s="8"/>
       <c r="C421" s="8"/>
@@ -12268,7 +12203,7 @@
       <c r="Y421" s="8"/>
       <c r="Z421" s="8"/>
     </row>
-    <row r="422" ht="18.0" customHeight="1">
+    <row r="422" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="8"/>
       <c r="B422" s="8"/>
       <c r="C422" s="8"/>
@@ -12296,7 +12231,7 @@
       <c r="Y422" s="8"/>
       <c r="Z422" s="8"/>
     </row>
-    <row r="423" ht="18.0" customHeight="1">
+    <row r="423" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="8"/>
       <c r="B423" s="8"/>
       <c r="C423" s="8"/>
@@ -12324,7 +12259,7 @@
       <c r="Y423" s="8"/>
       <c r="Z423" s="8"/>
     </row>
-    <row r="424" ht="18.0" customHeight="1">
+    <row r="424" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="8"/>
       <c r="B424" s="8"/>
       <c r="C424" s="8"/>
@@ -12352,7 +12287,7 @@
       <c r="Y424" s="8"/>
       <c r="Z424" s="8"/>
     </row>
-    <row r="425" ht="18.0" customHeight="1">
+    <row r="425" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="8"/>
       <c r="B425" s="8"/>
       <c r="C425" s="8"/>
@@ -12380,7 +12315,7 @@
       <c r="Y425" s="8"/>
       <c r="Z425" s="8"/>
     </row>
-    <row r="426" ht="18.0" customHeight="1">
+    <row r="426" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="8"/>
       <c r="B426" s="8"/>
       <c r="C426" s="8"/>
@@ -12408,7 +12343,7 @@
       <c r="Y426" s="8"/>
       <c r="Z426" s="8"/>
     </row>
-    <row r="427" ht="18.0" customHeight="1">
+    <row r="427" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="8"/>
       <c r="B427" s="8"/>
       <c r="C427" s="8"/>
@@ -12436,7 +12371,7 @@
       <c r="Y427" s="8"/>
       <c r="Z427" s="8"/>
     </row>
-    <row r="428" ht="18.0" customHeight="1">
+    <row r="428" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="8"/>
       <c r="B428" s="8"/>
       <c r="C428" s="8"/>
@@ -12464,7 +12399,7 @@
       <c r="Y428" s="8"/>
       <c r="Z428" s="8"/>
     </row>
-    <row r="429" ht="18.0" customHeight="1">
+    <row r="429" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="8"/>
       <c r="B429" s="8"/>
       <c r="C429" s="8"/>
@@ -12492,7 +12427,7 @@
       <c r="Y429" s="8"/>
       <c r="Z429" s="8"/>
     </row>
-    <row r="430" ht="18.0" customHeight="1">
+    <row r="430" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="8"/>
       <c r="B430" s="8"/>
       <c r="C430" s="8"/>
@@ -12520,7 +12455,7 @@
       <c r="Y430" s="8"/>
       <c r="Z430" s="8"/>
     </row>
-    <row r="431" ht="18.0" customHeight="1">
+    <row r="431" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="8"/>
       <c r="B431" s="8"/>
       <c r="C431" s="8"/>
@@ -12548,7 +12483,7 @@
       <c r="Y431" s="8"/>
       <c r="Z431" s="8"/>
     </row>
-    <row r="432" ht="18.0" customHeight="1">
+    <row r="432" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="8"/>
       <c r="B432" s="8"/>
       <c r="C432" s="8"/>
@@ -12576,7 +12511,7 @@
       <c r="Y432" s="8"/>
       <c r="Z432" s="8"/>
     </row>
-    <row r="433" ht="18.0" customHeight="1">
+    <row r="433" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="8"/>
       <c r="B433" s="8"/>
       <c r="C433" s="8"/>
@@ -12604,7 +12539,7 @@
       <c r="Y433" s="8"/>
       <c r="Z433" s="8"/>
     </row>
-    <row r="434" ht="18.0" customHeight="1">
+    <row r="434" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="8"/>
       <c r="B434" s="8"/>
       <c r="C434" s="8"/>
@@ -12632,7 +12567,7 @@
       <c r="Y434" s="8"/>
       <c r="Z434" s="8"/>
     </row>
-    <row r="435" ht="18.0" customHeight="1">
+    <row r="435" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="8"/>
       <c r="B435" s="8"/>
       <c r="C435" s="8"/>
@@ -12660,7 +12595,7 @@
       <c r="Y435" s="8"/>
       <c r="Z435" s="8"/>
     </row>
-    <row r="436" ht="18.0" customHeight="1">
+    <row r="436" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="8"/>
       <c r="B436" s="8"/>
       <c r="C436" s="8"/>
@@ -12688,7 +12623,7 @@
       <c r="Y436" s="8"/>
       <c r="Z436" s="8"/>
     </row>
-    <row r="437" ht="18.0" customHeight="1">
+    <row r="437" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="8"/>
       <c r="B437" s="8"/>
       <c r="C437" s="8"/>
@@ -12716,7 +12651,7 @@
       <c r="Y437" s="8"/>
       <c r="Z437" s="8"/>
     </row>
-    <row r="438" ht="18.0" customHeight="1">
+    <row r="438" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="8"/>
       <c r="B438" s="8"/>
       <c r="C438" s="8"/>
@@ -12744,7 +12679,7 @@
       <c r="Y438" s="8"/>
       <c r="Z438" s="8"/>
     </row>
-    <row r="439" ht="18.0" customHeight="1">
+    <row r="439" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="8"/>
       <c r="B439" s="8"/>
       <c r="C439" s="8"/>
@@ -12772,7 +12707,7 @@
       <c r="Y439" s="8"/>
       <c r="Z439" s="8"/>
     </row>
-    <row r="440" ht="18.0" customHeight="1">
+    <row r="440" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="8"/>
       <c r="B440" s="8"/>
       <c r="C440" s="8"/>
@@ -12800,7 +12735,7 @@
       <c r="Y440" s="8"/>
       <c r="Z440" s="8"/>
     </row>
-    <row r="441" ht="18.0" customHeight="1">
+    <row r="441" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="8"/>
       <c r="B441" s="8"/>
       <c r="C441" s="8"/>
@@ -12828,7 +12763,7 @@
       <c r="Y441" s="8"/>
       <c r="Z441" s="8"/>
     </row>
-    <row r="442" ht="18.0" customHeight="1">
+    <row r="442" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="8"/>
       <c r="B442" s="8"/>
       <c r="C442" s="8"/>
@@ -12856,7 +12791,7 @@
       <c r="Y442" s="8"/>
       <c r="Z442" s="8"/>
     </row>
-    <row r="443" ht="18.0" customHeight="1">
+    <row r="443" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A443" s="8"/>
       <c r="B443" s="8"/>
       <c r="C443" s="8"/>
@@ -12884,7 +12819,7 @@
       <c r="Y443" s="8"/>
       <c r="Z443" s="8"/>
     </row>
-    <row r="444" ht="18.0" customHeight="1">
+    <row r="444" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="8"/>
       <c r="B444" s="8"/>
       <c r="C444" s="8"/>
@@ -12912,7 +12847,7 @@
       <c r="Y444" s="8"/>
       <c r="Z444" s="8"/>
     </row>
-    <row r="445" ht="18.0" customHeight="1">
+    <row r="445" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="8"/>
       <c r="B445" s="8"/>
       <c r="C445" s="8"/>
@@ -12940,7 +12875,7 @@
       <c r="Y445" s="8"/>
       <c r="Z445" s="8"/>
     </row>
-    <row r="446" ht="18.0" customHeight="1">
+    <row r="446" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A446" s="8"/>
       <c r="B446" s="8"/>
       <c r="C446" s="8"/>
@@ -12968,7 +12903,7 @@
       <c r="Y446" s="8"/>
       <c r="Z446" s="8"/>
     </row>
-    <row r="447" ht="18.0" customHeight="1">
+    <row r="447" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A447" s="8"/>
       <c r="B447" s="8"/>
       <c r="C447" s="8"/>
@@ -12996,7 +12931,7 @@
       <c r="Y447" s="8"/>
       <c r="Z447" s="8"/>
     </row>
-    <row r="448" ht="18.0" customHeight="1">
+    <row r="448" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="8"/>
       <c r="B448" s="8"/>
       <c r="C448" s="8"/>
@@ -13024,7 +12959,7 @@
       <c r="Y448" s="8"/>
       <c r="Z448" s="8"/>
     </row>
-    <row r="449" ht="18.0" customHeight="1">
+    <row r="449" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="8"/>
       <c r="B449" s="8"/>
       <c r="C449" s="8"/>
@@ -13052,7 +12987,7 @@
       <c r="Y449" s="8"/>
       <c r="Z449" s="8"/>
     </row>
-    <row r="450" ht="18.0" customHeight="1">
+    <row r="450" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="8"/>
       <c r="B450" s="8"/>
       <c r="C450" s="8"/>
@@ -13080,7 +13015,7 @@
       <c r="Y450" s="8"/>
       <c r="Z450" s="8"/>
     </row>
-    <row r="451" ht="18.0" customHeight="1">
+    <row r="451" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="8"/>
       <c r="B451" s="8"/>
       <c r="C451" s="8"/>
@@ -13108,7 +13043,7 @@
       <c r="Y451" s="8"/>
       <c r="Z451" s="8"/>
     </row>
-    <row r="452" ht="18.0" customHeight="1">
+    <row r="452" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="8"/>
       <c r="B452" s="8"/>
       <c r="C452" s="8"/>
@@ -13136,7 +13071,7 @@
       <c r="Y452" s="8"/>
       <c r="Z452" s="8"/>
     </row>
-    <row r="453" ht="18.0" customHeight="1">
+    <row r="453" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="8"/>
       <c r="B453" s="8"/>
       <c r="C453" s="8"/>
@@ -13164,7 +13099,7 @@
       <c r="Y453" s="8"/>
       <c r="Z453" s="8"/>
     </row>
-    <row r="454" ht="18.0" customHeight="1">
+    <row r="454" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A454" s="8"/>
       <c r="B454" s="8"/>
       <c r="C454" s="8"/>
@@ -13192,7 +13127,7 @@
       <c r="Y454" s="8"/>
       <c r="Z454" s="8"/>
     </row>
-    <row r="455" ht="18.0" customHeight="1">
+    <row r="455" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A455" s="8"/>
       <c r="B455" s="8"/>
       <c r="C455" s="8"/>
@@ -13220,7 +13155,7 @@
       <c r="Y455" s="8"/>
       <c r="Z455" s="8"/>
     </row>
-    <row r="456" ht="18.0" customHeight="1">
+    <row r="456" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="8"/>
       <c r="B456" s="8"/>
       <c r="C456" s="8"/>
@@ -13248,7 +13183,7 @@
       <c r="Y456" s="8"/>
       <c r="Z456" s="8"/>
     </row>
-    <row r="457" ht="18.0" customHeight="1">
+    <row r="457" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="8"/>
       <c r="B457" s="8"/>
       <c r="C457" s="8"/>
@@ -13276,7 +13211,7 @@
       <c r="Y457" s="8"/>
       <c r="Z457" s="8"/>
     </row>
-    <row r="458" ht="18.0" customHeight="1">
+    <row r="458" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="8"/>
       <c r="B458" s="8"/>
       <c r="C458" s="8"/>
@@ -13304,7 +13239,7 @@
       <c r="Y458" s="8"/>
       <c r="Z458" s="8"/>
     </row>
-    <row r="459" ht="18.0" customHeight="1">
+    <row r="459" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="8"/>
       <c r="B459" s="8"/>
       <c r="C459" s="8"/>
@@ -13332,7 +13267,7 @@
       <c r="Y459" s="8"/>
       <c r="Z459" s="8"/>
     </row>
-    <row r="460" ht="18.0" customHeight="1">
+    <row r="460" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="8"/>
       <c r="B460" s="8"/>
       <c r="C460" s="8"/>
@@ -13360,7 +13295,7 @@
       <c r="Y460" s="8"/>
       <c r="Z460" s="8"/>
     </row>
-    <row r="461" ht="18.0" customHeight="1">
+    <row r="461" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="8"/>
       <c r="B461" s="8"/>
       <c r="C461" s="8"/>
@@ -13388,7 +13323,7 @@
       <c r="Y461" s="8"/>
       <c r="Z461" s="8"/>
     </row>
-    <row r="462" ht="18.0" customHeight="1">
+    <row r="462" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="8"/>
       <c r="B462" s="8"/>
       <c r="C462" s="8"/>
@@ -13416,7 +13351,7 @@
       <c r="Y462" s="8"/>
       <c r="Z462" s="8"/>
     </row>
-    <row r="463" ht="18.0" customHeight="1">
+    <row r="463" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="8"/>
       <c r="B463" s="8"/>
       <c r="C463" s="8"/>
@@ -13444,7 +13379,7 @@
       <c r="Y463" s="8"/>
       <c r="Z463" s="8"/>
     </row>
-    <row r="464" ht="18.0" customHeight="1">
+    <row r="464" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="8"/>
       <c r="B464" s="8"/>
       <c r="C464" s="8"/>
@@ -13472,7 +13407,7 @@
       <c r="Y464" s="8"/>
       <c r="Z464" s="8"/>
     </row>
-    <row r="465" ht="18.0" customHeight="1">
+    <row r="465" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="8"/>
       <c r="B465" s="8"/>
       <c r="C465" s="8"/>
@@ -13500,7 +13435,7 @@
       <c r="Y465" s="8"/>
       <c r="Z465" s="8"/>
     </row>
-    <row r="466" ht="18.0" customHeight="1">
+    <row r="466" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="8"/>
       <c r="B466" s="8"/>
       <c r="C466" s="8"/>
@@ -13528,7 +13463,7 @@
       <c r="Y466" s="8"/>
       <c r="Z466" s="8"/>
     </row>
-    <row r="467" ht="18.0" customHeight="1">
+    <row r="467" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="8"/>
       <c r="B467" s="8"/>
       <c r="C467" s="8"/>
@@ -13556,7 +13491,7 @@
       <c r="Y467" s="8"/>
       <c r="Z467" s="8"/>
     </row>
-    <row r="468" ht="18.0" customHeight="1">
+    <row r="468" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="8"/>
       <c r="B468" s="8"/>
       <c r="C468" s="8"/>
@@ -13584,7 +13519,7 @@
       <c r="Y468" s="8"/>
       <c r="Z468" s="8"/>
     </row>
-    <row r="469" ht="18.0" customHeight="1">
+    <row r="469" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="8"/>
       <c r="B469" s="8"/>
       <c r="C469" s="8"/>
@@ -13612,7 +13547,7 @@
       <c r="Y469" s="8"/>
       <c r="Z469" s="8"/>
     </row>
-    <row r="470" ht="18.0" customHeight="1">
+    <row r="470" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="8"/>
       <c r="B470" s="8"/>
       <c r="C470" s="8"/>
@@ -13640,7 +13575,7 @@
       <c r="Y470" s="8"/>
       <c r="Z470" s="8"/>
     </row>
-    <row r="471" ht="18.0" customHeight="1">
+    <row r="471" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="8"/>
       <c r="B471" s="8"/>
       <c r="C471" s="8"/>
@@ -13668,7 +13603,7 @@
       <c r="Y471" s="8"/>
       <c r="Z471" s="8"/>
     </row>
-    <row r="472" ht="18.0" customHeight="1">
+    <row r="472" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="8"/>
       <c r="B472" s="8"/>
       <c r="C472" s="8"/>
@@ -13696,7 +13631,7 @@
       <c r="Y472" s="8"/>
       <c r="Z472" s="8"/>
     </row>
-    <row r="473" ht="18.0" customHeight="1">
+    <row r="473" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="8"/>
       <c r="B473" s="8"/>
       <c r="C473" s="8"/>
@@ -13724,7 +13659,7 @@
       <c r="Y473" s="8"/>
       <c r="Z473" s="8"/>
     </row>
-    <row r="474" ht="18.0" customHeight="1">
+    <row r="474" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A474" s="8"/>
       <c r="B474" s="8"/>
       <c r="C474" s="8"/>
@@ -13752,7 +13687,7 @@
       <c r="Y474" s="8"/>
       <c r="Z474" s="8"/>
     </row>
-    <row r="475" ht="18.0" customHeight="1">
+    <row r="475" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A475" s="8"/>
       <c r="B475" s="8"/>
       <c r="C475" s="8"/>
@@ -13780,7 +13715,7 @@
       <c r="Y475" s="8"/>
       <c r="Z475" s="8"/>
     </row>
-    <row r="476" ht="18.0" customHeight="1">
+    <row r="476" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A476" s="8"/>
       <c r="B476" s="8"/>
       <c r="C476" s="8"/>
@@ -13808,7 +13743,7 @@
       <c r="Y476" s="8"/>
       <c r="Z476" s="8"/>
     </row>
-    <row r="477" ht="18.0" customHeight="1">
+    <row r="477" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="8"/>
       <c r="B477" s="8"/>
       <c r="C477" s="8"/>
@@ -13836,7 +13771,7 @@
       <c r="Y477" s="8"/>
       <c r="Z477" s="8"/>
     </row>
-    <row r="478" ht="18.0" customHeight="1">
+    <row r="478" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A478" s="8"/>
       <c r="B478" s="8"/>
       <c r="C478" s="8"/>
@@ -13864,7 +13799,7 @@
       <c r="Y478" s="8"/>
       <c r="Z478" s="8"/>
     </row>
-    <row r="479" ht="18.0" customHeight="1">
+    <row r="479" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A479" s="8"/>
       <c r="B479" s="8"/>
       <c r="C479" s="8"/>
@@ -13892,7 +13827,7 @@
       <c r="Y479" s="8"/>
       <c r="Z479" s="8"/>
     </row>
-    <row r="480" ht="18.0" customHeight="1">
+    <row r="480" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="8"/>
       <c r="B480" s="8"/>
       <c r="C480" s="8"/>
@@ -13920,7 +13855,7 @@
       <c r="Y480" s="8"/>
       <c r="Z480" s="8"/>
     </row>
-    <row r="481" ht="18.0" customHeight="1">
+    <row r="481" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A481" s="8"/>
       <c r="B481" s="8"/>
       <c r="C481" s="8"/>
@@ -13948,7 +13883,7 @@
       <c r="Y481" s="8"/>
       <c r="Z481" s="8"/>
     </row>
-    <row r="482" ht="18.0" customHeight="1">
+    <row r="482" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A482" s="8"/>
       <c r="B482" s="8"/>
       <c r="C482" s="8"/>
@@ -13976,7 +13911,7 @@
       <c r="Y482" s="8"/>
       <c r="Z482" s="8"/>
     </row>
-    <row r="483" ht="18.0" customHeight="1">
+    <row r="483" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="8"/>
       <c r="B483" s="8"/>
       <c r="C483" s="8"/>
@@ -14004,7 +13939,7 @@
       <c r="Y483" s="8"/>
       <c r="Z483" s="8"/>
     </row>
-    <row r="484" ht="18.0" customHeight="1">
+    <row r="484" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A484" s="8"/>
       <c r="B484" s="8"/>
       <c r="C484" s="8"/>
@@ -14032,7 +13967,7 @@
       <c r="Y484" s="8"/>
       <c r="Z484" s="8"/>
     </row>
-    <row r="485" ht="18.0" customHeight="1">
+    <row r="485" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A485" s="8"/>
       <c r="B485" s="8"/>
       <c r="C485" s="8"/>
@@ -14060,7 +13995,7 @@
       <c r="Y485" s="8"/>
       <c r="Z485" s="8"/>
     </row>
-    <row r="486" ht="18.0" customHeight="1">
+    <row r="486" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A486" s="8"/>
       <c r="B486" s="8"/>
       <c r="C486" s="8"/>
@@ -14088,7 +14023,7 @@
       <c r="Y486" s="8"/>
       <c r="Z486" s="8"/>
     </row>
-    <row r="487" ht="18.0" customHeight="1">
+    <row r="487" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A487" s="8"/>
       <c r="B487" s="8"/>
       <c r="C487" s="8"/>
@@ -14116,7 +14051,7 @@
       <c r="Y487" s="8"/>
       <c r="Z487" s="8"/>
     </row>
-    <row r="488" ht="18.0" customHeight="1">
+    <row r="488" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="8"/>
       <c r="B488" s="8"/>
       <c r="C488" s="8"/>
@@ -14144,7 +14079,7 @@
       <c r="Y488" s="8"/>
       <c r="Z488" s="8"/>
     </row>
-    <row r="489" ht="18.0" customHeight="1">
+    <row r="489" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A489" s="8"/>
       <c r="B489" s="8"/>
       <c r="C489" s="8"/>
@@ -14172,7 +14107,7 @@
       <c r="Y489" s="8"/>
       <c r="Z489" s="8"/>
     </row>
-    <row r="490" ht="18.0" customHeight="1">
+    <row r="490" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A490" s="8"/>
       <c r="B490" s="8"/>
       <c r="C490" s="8"/>
@@ -14200,7 +14135,7 @@
       <c r="Y490" s="8"/>
       <c r="Z490" s="8"/>
     </row>
-    <row r="491" ht="18.0" customHeight="1">
+    <row r="491" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A491" s="8"/>
       <c r="B491" s="8"/>
       <c r="C491" s="8"/>
@@ -14228,7 +14163,7 @@
       <c r="Y491" s="8"/>
       <c r="Z491" s="8"/>
     </row>
-    <row r="492" ht="18.0" customHeight="1">
+    <row r="492" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A492" s="8"/>
       <c r="B492" s="8"/>
       <c r="C492" s="8"/>
@@ -14256,7 +14191,7 @@
       <c r="Y492" s="8"/>
       <c r="Z492" s="8"/>
     </row>
-    <row r="493" ht="18.0" customHeight="1">
+    <row r="493" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A493" s="8"/>
       <c r="B493" s="8"/>
       <c r="C493" s="8"/>
@@ -14284,7 +14219,7 @@
       <c r="Y493" s="8"/>
       <c r="Z493" s="8"/>
     </row>
-    <row r="494" ht="18.0" customHeight="1">
+    <row r="494" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A494" s="8"/>
       <c r="B494" s="8"/>
       <c r="C494" s="8"/>
@@ -14312,7 +14247,7 @@
       <c r="Y494" s="8"/>
       <c r="Z494" s="8"/>
     </row>
-    <row r="495" ht="18.0" customHeight="1">
+    <row r="495" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A495" s="8"/>
       <c r="B495" s="8"/>
       <c r="C495" s="8"/>
@@ -14340,7 +14275,7 @@
       <c r="Y495" s="8"/>
       <c r="Z495" s="8"/>
     </row>
-    <row r="496" ht="18.0" customHeight="1">
+    <row r="496" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A496" s="8"/>
       <c r="B496" s="8"/>
       <c r="C496" s="8"/>
@@ -14368,7 +14303,7 @@
       <c r="Y496" s="8"/>
       <c r="Z496" s="8"/>
     </row>
-    <row r="497" ht="18.0" customHeight="1">
+    <row r="497" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A497" s="8"/>
       <c r="B497" s="8"/>
       <c r="C497" s="8"/>
@@ -14396,7 +14331,7 @@
       <c r="Y497" s="8"/>
       <c r="Z497" s="8"/>
     </row>
-    <row r="498" ht="18.0" customHeight="1">
+    <row r="498" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A498" s="8"/>
       <c r="B498" s="8"/>
       <c r="C498" s="8"/>
@@ -14424,7 +14359,7 @@
       <c r="Y498" s="8"/>
       <c r="Z498" s="8"/>
     </row>
-    <row r="499" ht="18.0" customHeight="1">
+    <row r="499" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A499" s="8"/>
       <c r="B499" s="8"/>
       <c r="C499" s="8"/>
@@ -14452,7 +14387,7 @@
       <c r="Y499" s="8"/>
       <c r="Z499" s="8"/>
     </row>
-    <row r="500" ht="18.0" customHeight="1">
+    <row r="500" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A500" s="8"/>
       <c r="B500" s="8"/>
       <c r="C500" s="8"/>
@@ -14480,7 +14415,7 @@
       <c r="Y500" s="8"/>
       <c r="Z500" s="8"/>
     </row>
-    <row r="501" ht="18.0" customHeight="1">
+    <row r="501" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A501" s="8"/>
       <c r="B501" s="8"/>
       <c r="C501" s="8"/>
@@ -14508,7 +14443,7 @@
       <c r="Y501" s="8"/>
       <c r="Z501" s="8"/>
     </row>
-    <row r="502" ht="18.0" customHeight="1">
+    <row r="502" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A502" s="8"/>
       <c r="B502" s="8"/>
       <c r="C502" s="8"/>
@@ -14536,7 +14471,7 @@
       <c r="Y502" s="8"/>
       <c r="Z502" s="8"/>
     </row>
-    <row r="503" ht="18.0" customHeight="1">
+    <row r="503" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="8"/>
       <c r="B503" s="8"/>
       <c r="C503" s="8"/>
@@ -14564,7 +14499,7 @@
       <c r="Y503" s="8"/>
       <c r="Z503" s="8"/>
     </row>
-    <row r="504" ht="18.0" customHeight="1">
+    <row r="504" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A504" s="8"/>
       <c r="B504" s="8"/>
       <c r="C504" s="8"/>
@@ -14592,7 +14527,7 @@
       <c r="Y504" s="8"/>
       <c r="Z504" s="8"/>
     </row>
-    <row r="505" ht="18.0" customHeight="1">
+    <row r="505" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="8"/>
       <c r="B505" s="8"/>
       <c r="C505" s="8"/>
@@ -14620,7 +14555,7 @@
       <c r="Y505" s="8"/>
       <c r="Z505" s="8"/>
     </row>
-    <row r="506" ht="18.0" customHeight="1">
+    <row r="506" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A506" s="8"/>
       <c r="B506" s="8"/>
       <c r="C506" s="8"/>
@@ -14648,7 +14583,7 @@
       <c r="Y506" s="8"/>
       <c r="Z506" s="8"/>
     </row>
-    <row r="507" ht="18.0" customHeight="1">
+    <row r="507" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A507" s="8"/>
       <c r="B507" s="8"/>
       <c r="C507" s="8"/>
@@ -14676,7 +14611,7 @@
       <c r="Y507" s="8"/>
       <c r="Z507" s="8"/>
     </row>
-    <row r="508" ht="18.0" customHeight="1">
+    <row r="508" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A508" s="8"/>
       <c r="B508" s="8"/>
       <c r="C508" s="8"/>
@@ -14704,7 +14639,7 @@
       <c r="Y508" s="8"/>
       <c r="Z508" s="8"/>
     </row>
-    <row r="509" ht="18.0" customHeight="1">
+    <row r="509" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A509" s="8"/>
       <c r="B509" s="8"/>
       <c r="C509" s="8"/>
@@ -14732,7 +14667,7 @@
       <c r="Y509" s="8"/>
       <c r="Z509" s="8"/>
     </row>
-    <row r="510" ht="18.0" customHeight="1">
+    <row r="510" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A510" s="8"/>
       <c r="B510" s="8"/>
       <c r="C510" s="8"/>
@@ -14760,7 +14695,7 @@
       <c r="Y510" s="8"/>
       <c r="Z510" s="8"/>
     </row>
-    <row r="511" ht="18.0" customHeight="1">
+    <row r="511" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A511" s="8"/>
       <c r="B511" s="8"/>
       <c r="C511" s="8"/>
@@ -14788,7 +14723,7 @@
       <c r="Y511" s="8"/>
       <c r="Z511" s="8"/>
     </row>
-    <row r="512" ht="18.0" customHeight="1">
+    <row r="512" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A512" s="8"/>
       <c r="B512" s="8"/>
       <c r="C512" s="8"/>
@@ -14816,7 +14751,7 @@
       <c r="Y512" s="8"/>
       <c r="Z512" s="8"/>
     </row>
-    <row r="513" ht="18.0" customHeight="1">
+    <row r="513" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A513" s="8"/>
       <c r="B513" s="8"/>
       <c r="C513" s="8"/>
@@ -14844,7 +14779,7 @@
       <c r="Y513" s="8"/>
       <c r="Z513" s="8"/>
     </row>
-    <row r="514" ht="18.0" customHeight="1">
+    <row r="514" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A514" s="8"/>
       <c r="B514" s="8"/>
       <c r="C514" s="8"/>
@@ -14872,7 +14807,7 @@
       <c r="Y514" s="8"/>
       <c r="Z514" s="8"/>
     </row>
-    <row r="515" ht="18.0" customHeight="1">
+    <row r="515" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A515" s="8"/>
       <c r="B515" s="8"/>
       <c r="C515" s="8"/>
@@ -14900,7 +14835,7 @@
       <c r="Y515" s="8"/>
       <c r="Z515" s="8"/>
     </row>
-    <row r="516" ht="18.0" customHeight="1">
+    <row r="516" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A516" s="8"/>
       <c r="B516" s="8"/>
       <c r="C516" s="8"/>
@@ -14928,7 +14863,7 @@
       <c r="Y516" s="8"/>
       <c r="Z516" s="8"/>
     </row>
-    <row r="517" ht="18.0" customHeight="1">
+    <row r="517" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A517" s="8"/>
       <c r="B517" s="8"/>
       <c r="C517" s="8"/>
@@ -14956,7 +14891,7 @@
       <c r="Y517" s="8"/>
       <c r="Z517" s="8"/>
     </row>
-    <row r="518" ht="18.0" customHeight="1">
+    <row r="518" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A518" s="8"/>
       <c r="B518" s="8"/>
       <c r="C518" s="8"/>
@@ -14984,7 +14919,7 @@
       <c r="Y518" s="8"/>
       <c r="Z518" s="8"/>
     </row>
-    <row r="519" ht="18.0" customHeight="1">
+    <row r="519" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A519" s="8"/>
       <c r="B519" s="8"/>
       <c r="C519" s="8"/>
@@ -15012,7 +14947,7 @@
       <c r="Y519" s="8"/>
       <c r="Z519" s="8"/>
     </row>
-    <row r="520" ht="18.0" customHeight="1">
+    <row r="520" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A520" s="8"/>
       <c r="B520" s="8"/>
       <c r="C520" s="8"/>
@@ -15040,7 +14975,7 @@
       <c r="Y520" s="8"/>
       <c r="Z520" s="8"/>
     </row>
-    <row r="521" ht="18.0" customHeight="1">
+    <row r="521" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A521" s="8"/>
       <c r="B521" s="8"/>
       <c r="C521" s="8"/>
@@ -15068,7 +15003,7 @@
       <c r="Y521" s="8"/>
       <c r="Z521" s="8"/>
     </row>
-    <row r="522" ht="18.0" customHeight="1">
+    <row r="522" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A522" s="8"/>
       <c r="B522" s="8"/>
       <c r="C522" s="8"/>
@@ -15096,7 +15031,7 @@
       <c r="Y522" s="8"/>
       <c r="Z522" s="8"/>
     </row>
-    <row r="523" ht="18.0" customHeight="1">
+    <row r="523" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A523" s="8"/>
       <c r="B523" s="8"/>
       <c r="C523" s="8"/>
@@ -15124,7 +15059,7 @@
       <c r="Y523" s="8"/>
       <c r="Z523" s="8"/>
     </row>
-    <row r="524" ht="18.0" customHeight="1">
+    <row r="524" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A524" s="8"/>
       <c r="B524" s="8"/>
       <c r="C524" s="8"/>
@@ -15152,7 +15087,7 @@
       <c r="Y524" s="8"/>
       <c r="Z524" s="8"/>
     </row>
-    <row r="525" ht="18.0" customHeight="1">
+    <row r="525" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A525" s="8"/>
       <c r="B525" s="8"/>
       <c r="C525" s="8"/>
@@ -15180,7 +15115,7 @@
       <c r="Y525" s="8"/>
       <c r="Z525" s="8"/>
     </row>
-    <row r="526" ht="18.0" customHeight="1">
+    <row r="526" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A526" s="8"/>
       <c r="B526" s="8"/>
       <c r="C526" s="8"/>
@@ -15208,7 +15143,7 @@
       <c r="Y526" s="8"/>
       <c r="Z526" s="8"/>
     </row>
-    <row r="527" ht="18.0" customHeight="1">
+    <row r="527" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A527" s="8"/>
       <c r="B527" s="8"/>
       <c r="C527" s="8"/>
@@ -15236,7 +15171,7 @@
       <c r="Y527" s="8"/>
       <c r="Z527" s="8"/>
     </row>
-    <row r="528" ht="18.0" customHeight="1">
+    <row r="528" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A528" s="8"/>
       <c r="B528" s="8"/>
       <c r="C528" s="8"/>
@@ -15264,7 +15199,7 @@
       <c r="Y528" s="8"/>
       <c r="Z528" s="8"/>
     </row>
-    <row r="529" ht="18.0" customHeight="1">
+    <row r="529" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="8"/>
       <c r="B529" s="8"/>
       <c r="C529" s="8"/>
@@ -15292,7 +15227,7 @@
       <c r="Y529" s="8"/>
       <c r="Z529" s="8"/>
     </row>
-    <row r="530" ht="18.0" customHeight="1">
+    <row r="530" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="8"/>
       <c r="B530" s="8"/>
       <c r="C530" s="8"/>
@@ -15320,7 +15255,7 @@
       <c r="Y530" s="8"/>
       <c r="Z530" s="8"/>
     </row>
-    <row r="531" ht="18.0" customHeight="1">
+    <row r="531" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A531" s="8"/>
       <c r="B531" s="8"/>
       <c r="C531" s="8"/>
@@ -15348,7 +15283,7 @@
       <c r="Y531" s="8"/>
       <c r="Z531" s="8"/>
     </row>
-    <row r="532" ht="18.0" customHeight="1">
+    <row r="532" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A532" s="8"/>
       <c r="B532" s="8"/>
       <c r="C532" s="8"/>
@@ -15376,7 +15311,7 @@
       <c r="Y532" s="8"/>
       <c r="Z532" s="8"/>
     </row>
-    <row r="533" ht="18.0" customHeight="1">
+    <row r="533" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A533" s="8"/>
       <c r="B533" s="8"/>
       <c r="C533" s="8"/>
@@ -15404,7 +15339,7 @@
       <c r="Y533" s="8"/>
       <c r="Z533" s="8"/>
     </row>
-    <row r="534" ht="18.0" customHeight="1">
+    <row r="534" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="8"/>
       <c r="B534" s="8"/>
       <c r="C534" s="8"/>
@@ -15432,7 +15367,7 @@
       <c r="Y534" s="8"/>
       <c r="Z534" s="8"/>
     </row>
-    <row r="535" ht="18.0" customHeight="1">
+    <row r="535" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A535" s="8"/>
       <c r="B535" s="8"/>
       <c r="C535" s="8"/>
@@ -15460,7 +15395,7 @@
       <c r="Y535" s="8"/>
       <c r="Z535" s="8"/>
     </row>
-    <row r="536" ht="18.0" customHeight="1">
+    <row r="536" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="8"/>
       <c r="B536" s="8"/>
       <c r="C536" s="8"/>
@@ -15488,7 +15423,7 @@
       <c r="Y536" s="8"/>
       <c r="Z536" s="8"/>
     </row>
-    <row r="537" ht="18.0" customHeight="1">
+    <row r="537" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="8"/>
       <c r="B537" s="8"/>
       <c r="C537" s="8"/>
@@ -15516,7 +15451,7 @@
       <c r="Y537" s="8"/>
       <c r="Z537" s="8"/>
     </row>
-    <row r="538" ht="18.0" customHeight="1">
+    <row r="538" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="8"/>
       <c r="B538" s="8"/>
       <c r="C538" s="8"/>
@@ -15544,7 +15479,7 @@
       <c r="Y538" s="8"/>
       <c r="Z538" s="8"/>
     </row>
-    <row r="539" ht="18.0" customHeight="1">
+    <row r="539" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="8"/>
       <c r="B539" s="8"/>
       <c r="C539" s="8"/>
@@ -15572,7 +15507,7 @@
       <c r="Y539" s="8"/>
       <c r="Z539" s="8"/>
     </row>
-    <row r="540" ht="18.0" customHeight="1">
+    <row r="540" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="8"/>
       <c r="B540" s="8"/>
       <c r="C540" s="8"/>
@@ -15600,7 +15535,7 @@
       <c r="Y540" s="8"/>
       <c r="Z540" s="8"/>
     </row>
-    <row r="541" ht="18.0" customHeight="1">
+    <row r="541" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="8"/>
       <c r="B541" s="8"/>
       <c r="C541" s="8"/>
@@ -15628,7 +15563,7 @@
       <c r="Y541" s="8"/>
       <c r="Z541" s="8"/>
     </row>
-    <row r="542" ht="18.0" customHeight="1">
+    <row r="542" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="8"/>
       <c r="B542" s="8"/>
       <c r="C542" s="8"/>
@@ -15656,7 +15591,7 @@
       <c r="Y542" s="8"/>
       <c r="Z542" s="8"/>
     </row>
-    <row r="543" ht="18.0" customHeight="1">
+    <row r="543" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A543" s="8"/>
       <c r="B543" s="8"/>
       <c r="C543" s="8"/>
@@ -15684,7 +15619,7 @@
       <c r="Y543" s="8"/>
       <c r="Z543" s="8"/>
     </row>
-    <row r="544" ht="18.0" customHeight="1">
+    <row r="544" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A544" s="8"/>
       <c r="B544" s="8"/>
       <c r="C544" s="8"/>
@@ -15712,7 +15647,7 @@
       <c r="Y544" s="8"/>
       <c r="Z544" s="8"/>
     </row>
-    <row r="545" ht="18.0" customHeight="1">
+    <row r="545" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A545" s="8"/>
       <c r="B545" s="8"/>
       <c r="C545" s="8"/>
@@ -15740,7 +15675,7 @@
       <c r="Y545" s="8"/>
       <c r="Z545" s="8"/>
     </row>
-    <row r="546" ht="18.0" customHeight="1">
+    <row r="546" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A546" s="8"/>
       <c r="B546" s="8"/>
       <c r="C546" s="8"/>
@@ -15768,7 +15703,7 @@
       <c r="Y546" s="8"/>
       <c r="Z546" s="8"/>
     </row>
-    <row r="547" ht="18.0" customHeight="1">
+    <row r="547" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A547" s="8"/>
       <c r="B547" s="8"/>
       <c r="C547" s="8"/>
@@ -15796,7 +15731,7 @@
       <c r="Y547" s="8"/>
       <c r="Z547" s="8"/>
     </row>
-    <row r="548" ht="18.0" customHeight="1">
+    <row r="548" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A548" s="8"/>
       <c r="B548" s="8"/>
       <c r="C548" s="8"/>
@@ -15824,7 +15759,7 @@
       <c r="Y548" s="8"/>
       <c r="Z548" s="8"/>
     </row>
-    <row r="549" ht="18.0" customHeight="1">
+    <row r="549" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A549" s="8"/>
       <c r="B549" s="8"/>
       <c r="C549" s="8"/>
@@ -15852,7 +15787,7 @@
       <c r="Y549" s="8"/>
       <c r="Z549" s="8"/>
     </row>
-    <row r="550" ht="18.0" customHeight="1">
+    <row r="550" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A550" s="8"/>
       <c r="B550" s="8"/>
       <c r="C550" s="8"/>
@@ -15880,7 +15815,7 @@
       <c r="Y550" s="8"/>
       <c r="Z550" s="8"/>
     </row>
-    <row r="551" ht="18.0" customHeight="1">
+    <row r="551" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A551" s="8"/>
       <c r="B551" s="8"/>
       <c r="C551" s="8"/>
@@ -15908,7 +15843,7 @@
       <c r="Y551" s="8"/>
       <c r="Z551" s="8"/>
     </row>
-    <row r="552" ht="18.0" customHeight="1">
+    <row r="552" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="8"/>
       <c r="B552" s="8"/>
       <c r="C552" s="8"/>
@@ -15936,7 +15871,7 @@
       <c r="Y552" s="8"/>
       <c r="Z552" s="8"/>
     </row>
-    <row r="553" ht="18.0" customHeight="1">
+    <row r="553" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="8"/>
       <c r="B553" s="8"/>
       <c r="C553" s="8"/>
@@ -15964,7 +15899,7 @@
       <c r="Y553" s="8"/>
       <c r="Z553" s="8"/>
     </row>
-    <row r="554" ht="18.0" customHeight="1">
+    <row r="554" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="8"/>
       <c r="B554" s="8"/>
       <c r="C554" s="8"/>
@@ -15992,7 +15927,7 @@
       <c r="Y554" s="8"/>
       <c r="Z554" s="8"/>
     </row>
-    <row r="555" ht="18.0" customHeight="1">
+    <row r="555" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A555" s="8"/>
       <c r="B555" s="8"/>
       <c r="C555" s="8"/>
@@ -16020,7 +15955,7 @@
       <c r="Y555" s="8"/>
       <c r="Z555" s="8"/>
     </row>
-    <row r="556" ht="18.0" customHeight="1">
+    <row r="556" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A556" s="8"/>
       <c r="B556" s="8"/>
       <c r="C556" s="8"/>
@@ -16048,7 +15983,7 @@
       <c r="Y556" s="8"/>
       <c r="Z556" s="8"/>
     </row>
-    <row r="557" ht="18.0" customHeight="1">
+    <row r="557" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A557" s="8"/>
       <c r="B557" s="8"/>
       <c r="C557" s="8"/>
@@ -16076,7 +16011,7 @@
       <c r="Y557" s="8"/>
       <c r="Z557" s="8"/>
     </row>
-    <row r="558" ht="18.0" customHeight="1">
+    <row r="558" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A558" s="8"/>
       <c r="B558" s="8"/>
       <c r="C558" s="8"/>
@@ -16104,7 +16039,7 @@
       <c r="Y558" s="8"/>
       <c r="Z558" s="8"/>
     </row>
-    <row r="559" ht="18.0" customHeight="1">
+    <row r="559" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="8"/>
       <c r="B559" s="8"/>
       <c r="C559" s="8"/>
@@ -16132,7 +16067,7 @@
       <c r="Y559" s="8"/>
       <c r="Z559" s="8"/>
     </row>
-    <row r="560" ht="18.0" customHeight="1">
+    <row r="560" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A560" s="8"/>
       <c r="B560" s="8"/>
       <c r="C560" s="8"/>
@@ -16160,7 +16095,7 @@
       <c r="Y560" s="8"/>
       <c r="Z560" s="8"/>
     </row>
-    <row r="561" ht="18.0" customHeight="1">
+    <row r="561" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A561" s="8"/>
       <c r="B561" s="8"/>
       <c r="C561" s="8"/>
@@ -16188,7 +16123,7 @@
       <c r="Y561" s="8"/>
       <c r="Z561" s="8"/>
     </row>
-    <row r="562" ht="18.0" customHeight="1">
+    <row r="562" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A562" s="8"/>
       <c r="B562" s="8"/>
       <c r="C562" s="8"/>
@@ -16216,7 +16151,7 @@
       <c r="Y562" s="8"/>
       <c r="Z562" s="8"/>
     </row>
-    <row r="563" ht="18.0" customHeight="1">
+    <row r="563" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A563" s="8"/>
       <c r="B563" s="8"/>
       <c r="C563" s="8"/>
@@ -16244,7 +16179,7 @@
       <c r="Y563" s="8"/>
       <c r="Z563" s="8"/>
     </row>
-    <row r="564" ht="18.0" customHeight="1">
+    <row r="564" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A564" s="8"/>
       <c r="B564" s="8"/>
       <c r="C564" s="8"/>
@@ -16272,7 +16207,7 @@
       <c r="Y564" s="8"/>
       <c r="Z564" s="8"/>
     </row>
-    <row r="565" ht="18.0" customHeight="1">
+    <row r="565" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A565" s="8"/>
       <c r="B565" s="8"/>
       <c r="C565" s="8"/>
@@ -16300,7 +16235,7 @@
       <c r="Y565" s="8"/>
       <c r="Z565" s="8"/>
     </row>
-    <row r="566" ht="18.0" customHeight="1">
+    <row r="566" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A566" s="8"/>
       <c r="B566" s="8"/>
       <c r="C566" s="8"/>
@@ -16328,7 +16263,7 @@
       <c r="Y566" s="8"/>
       <c r="Z566" s="8"/>
     </row>
-    <row r="567" ht="18.0" customHeight="1">
+    <row r="567" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A567" s="8"/>
       <c r="B567" s="8"/>
       <c r="C567" s="8"/>
@@ -16356,7 +16291,7 @@
       <c r="Y567" s="8"/>
       <c r="Z567" s="8"/>
     </row>
-    <row r="568" ht="18.0" customHeight="1">
+    <row r="568" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A568" s="8"/>
       <c r="B568" s="8"/>
       <c r="C568" s="8"/>
@@ -16384,7 +16319,7 @@
       <c r="Y568" s="8"/>
       <c r="Z568" s="8"/>
     </row>
-    <row r="569" ht="18.0" customHeight="1">
+    <row r="569" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A569" s="8"/>
       <c r="B569" s="8"/>
       <c r="C569" s="8"/>
@@ -16412,7 +16347,7 @@
       <c r="Y569" s="8"/>
       <c r="Z569" s="8"/>
     </row>
-    <row r="570" ht="18.0" customHeight="1">
+    <row r="570" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A570" s="8"/>
       <c r="B570" s="8"/>
       <c r="C570" s="8"/>
@@ -16440,7 +16375,7 @@
       <c r="Y570" s="8"/>
       <c r="Z570" s="8"/>
     </row>
-    <row r="571" ht="18.0" customHeight="1">
+    <row r="571" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A571" s="8"/>
       <c r="B571" s="8"/>
       <c r="C571" s="8"/>
@@ -16468,7 +16403,7 @@
       <c r="Y571" s="8"/>
       <c r="Z571" s="8"/>
     </row>
-    <row r="572" ht="18.0" customHeight="1">
+    <row r="572" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A572" s="8"/>
       <c r="B572" s="8"/>
       <c r="C572" s="8"/>
@@ -16496,7 +16431,7 @@
       <c r="Y572" s="8"/>
       <c r="Z572" s="8"/>
     </row>
-    <row r="573" ht="18.0" customHeight="1">
+    <row r="573" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A573" s="8"/>
       <c r="B573" s="8"/>
       <c r="C573" s="8"/>
@@ -16524,7 +16459,7 @@
       <c r="Y573" s="8"/>
       <c r="Z573" s="8"/>
     </row>
-    <row r="574" ht="18.0" customHeight="1">
+    <row r="574" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A574" s="8"/>
       <c r="B574" s="8"/>
       <c r="C574" s="8"/>
@@ -16552,7 +16487,7 @@
       <c r="Y574" s="8"/>
       <c r="Z574" s="8"/>
     </row>
-    <row r="575" ht="18.0" customHeight="1">
+    <row r="575" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A575" s="8"/>
       <c r="B575" s="8"/>
       <c r="C575" s="8"/>
@@ -16580,7 +16515,7 @@
       <c r="Y575" s="8"/>
       <c r="Z575" s="8"/>
     </row>
-    <row r="576" ht="18.0" customHeight="1">
+    <row r="576" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A576" s="8"/>
       <c r="B576" s="8"/>
       <c r="C576" s="8"/>
@@ -16608,7 +16543,7 @@
       <c r="Y576" s="8"/>
       <c r="Z576" s="8"/>
     </row>
-    <row r="577" ht="18.0" customHeight="1">
+    <row r="577" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A577" s="8"/>
       <c r="B577" s="8"/>
       <c r="C577" s="8"/>
@@ -16636,7 +16571,7 @@
       <c r="Y577" s="8"/>
       <c r="Z577" s="8"/>
     </row>
-    <row r="578" ht="18.0" customHeight="1">
+    <row r="578" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A578" s="8"/>
       <c r="B578" s="8"/>
       <c r="C578" s="8"/>
@@ -16664,7 +16599,7 @@
       <c r="Y578" s="8"/>
       <c r="Z578" s="8"/>
     </row>
-    <row r="579" ht="18.0" customHeight="1">
+    <row r="579" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A579" s="8"/>
       <c r="B579" s="8"/>
       <c r="C579" s="8"/>
@@ -16692,7 +16627,7 @@
       <c r="Y579" s="8"/>
       <c r="Z579" s="8"/>
     </row>
-    <row r="580" ht="18.0" customHeight="1">
+    <row r="580" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A580" s="8"/>
       <c r="B580" s="8"/>
       <c r="C580" s="8"/>
@@ -16720,7 +16655,7 @@
       <c r="Y580" s="8"/>
       <c r="Z580" s="8"/>
     </row>
-    <row r="581" ht="18.0" customHeight="1">
+    <row r="581" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A581" s="8"/>
       <c r="B581" s="8"/>
       <c r="C581" s="8"/>
@@ -16748,7 +16683,7 @@
       <c r="Y581" s="8"/>
       <c r="Z581" s="8"/>
     </row>
-    <row r="582" ht="18.0" customHeight="1">
+    <row r="582" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A582" s="8"/>
       <c r="B582" s="8"/>
       <c r="C582" s="8"/>
@@ -16776,7 +16711,7 @@
       <c r="Y582" s="8"/>
       <c r="Z582" s="8"/>
     </row>
-    <row r="583" ht="18.0" customHeight="1">
+    <row r="583" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A583" s="8"/>
       <c r="B583" s="8"/>
       <c r="C583" s="8"/>
@@ -16804,7 +16739,7 @@
       <c r="Y583" s="8"/>
       <c r="Z583" s="8"/>
     </row>
-    <row r="584" ht="18.0" customHeight="1">
+    <row r="584" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A584" s="8"/>
       <c r="B584" s="8"/>
       <c r="C584" s="8"/>
@@ -16832,7 +16767,7 @@
       <c r="Y584" s="8"/>
       <c r="Z584" s="8"/>
     </row>
-    <row r="585" ht="18.0" customHeight="1">
+    <row r="585" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A585" s="8"/>
       <c r="B585" s="8"/>
       <c r="C585" s="8"/>
@@ -16860,7 +16795,7 @@
       <c r="Y585" s="8"/>
       <c r="Z585" s="8"/>
     </row>
-    <row r="586" ht="18.0" customHeight="1">
+    <row r="586" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A586" s="8"/>
       <c r="B586" s="8"/>
       <c r="C586" s="8"/>
@@ -16888,7 +16823,7 @@
       <c r="Y586" s="8"/>
       <c r="Z586" s="8"/>
     </row>
-    <row r="587" ht="18.0" customHeight="1">
+    <row r="587" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A587" s="8"/>
       <c r="B587" s="8"/>
       <c r="C587" s="8"/>
@@ -16916,7 +16851,7 @@
       <c r="Y587" s="8"/>
       <c r="Z587" s="8"/>
     </row>
-    <row r="588" ht="18.0" customHeight="1">
+    <row r="588" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A588" s="8"/>
       <c r="B588" s="8"/>
       <c r="C588" s="8"/>
@@ -16944,7 +16879,7 @@
       <c r="Y588" s="8"/>
       <c r="Z588" s="8"/>
     </row>
-    <row r="589" ht="18.0" customHeight="1">
+    <row r="589" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A589" s="8"/>
       <c r="B589" s="8"/>
       <c r="C589" s="8"/>
@@ -16972,7 +16907,7 @@
       <c r="Y589" s="8"/>
       <c r="Z589" s="8"/>
     </row>
-    <row r="590" ht="18.0" customHeight="1">
+    <row r="590" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A590" s="8"/>
       <c r="B590" s="8"/>
       <c r="C590" s="8"/>
@@ -17000,7 +16935,7 @@
       <c r="Y590" s="8"/>
       <c r="Z590" s="8"/>
     </row>
-    <row r="591" ht="18.0" customHeight="1">
+    <row r="591" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A591" s="8"/>
       <c r="B591" s="8"/>
       <c r="C591" s="8"/>
@@ -17028,7 +16963,7 @@
       <c r="Y591" s="8"/>
       <c r="Z591" s="8"/>
     </row>
-    <row r="592" ht="18.0" customHeight="1">
+    <row r="592" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A592" s="8"/>
       <c r="B592" s="8"/>
       <c r="C592" s="8"/>
@@ -17056,7 +16991,7 @@
       <c r="Y592" s="8"/>
       <c r="Z592" s="8"/>
     </row>
-    <row r="593" ht="18.0" customHeight="1">
+    <row r="593" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A593" s="8"/>
       <c r="B593" s="8"/>
       <c r="C593" s="8"/>
@@ -17084,7 +17019,7 @@
       <c r="Y593" s="8"/>
       <c r="Z593" s="8"/>
     </row>
-    <row r="594" ht="18.0" customHeight="1">
+    <row r="594" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A594" s="8"/>
       <c r="B594" s="8"/>
       <c r="C594" s="8"/>
@@ -17112,7 +17047,7 @@
       <c r="Y594" s="8"/>
       <c r="Z594" s="8"/>
     </row>
-    <row r="595" ht="18.0" customHeight="1">
+    <row r="595" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A595" s="8"/>
       <c r="B595" s="8"/>
       <c r="C595" s="8"/>
@@ -17140,7 +17075,7 @@
       <c r="Y595" s="8"/>
       <c r="Z595" s="8"/>
     </row>
-    <row r="596" ht="18.0" customHeight="1">
+    <row r="596" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A596" s="8"/>
       <c r="B596" s="8"/>
       <c r="C596" s="8"/>
@@ -17168,7 +17103,7 @@
       <c r="Y596" s="8"/>
       <c r="Z596" s="8"/>
     </row>
-    <row r="597" ht="18.0" customHeight="1">
+    <row r="597" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A597" s="8"/>
       <c r="B597" s="8"/>
       <c r="C597" s="8"/>
@@ -17196,7 +17131,7 @@
       <c r="Y597" s="8"/>
       <c r="Z597" s="8"/>
     </row>
-    <row r="598" ht="18.0" customHeight="1">
+    <row r="598" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A598" s="8"/>
       <c r="B598" s="8"/>
       <c r="C598" s="8"/>
@@ -17224,7 +17159,7 @@
       <c r="Y598" s="8"/>
       <c r="Z598" s="8"/>
     </row>
-    <row r="599" ht="18.0" customHeight="1">
+    <row r="599" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A599" s="8"/>
       <c r="B599" s="8"/>
       <c r="C599" s="8"/>
@@ -17252,7 +17187,7 @@
       <c r="Y599" s="8"/>
       <c r="Z599" s="8"/>
     </row>
-    <row r="600" ht="18.0" customHeight="1">
+    <row r="600" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A600" s="8"/>
       <c r="B600" s="8"/>
       <c r="C600" s="8"/>
@@ -17280,7 +17215,7 @@
       <c r="Y600" s="8"/>
       <c r="Z600" s="8"/>
     </row>
-    <row r="601" ht="18.0" customHeight="1">
+    <row r="601" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A601" s="8"/>
       <c r="B601" s="8"/>
       <c r="C601" s="8"/>
@@ -17308,7 +17243,7 @@
       <c r="Y601" s="8"/>
       <c r="Z601" s="8"/>
     </row>
-    <row r="602" ht="18.0" customHeight="1">
+    <row r="602" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A602" s="8"/>
       <c r="B602" s="8"/>
       <c r="C602" s="8"/>
@@ -17336,7 +17271,7 @@
       <c r="Y602" s="8"/>
       <c r="Z602" s="8"/>
     </row>
-    <row r="603" ht="18.0" customHeight="1">
+    <row r="603" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A603" s="8"/>
       <c r="B603" s="8"/>
       <c r="C603" s="8"/>
@@ -17364,7 +17299,7 @@
       <c r="Y603" s="8"/>
       <c r="Z603" s="8"/>
     </row>
-    <row r="604" ht="18.0" customHeight="1">
+    <row r="604" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A604" s="8"/>
       <c r="B604" s="8"/>
       <c r="C604" s="8"/>
@@ -17392,7 +17327,7 @@
       <c r="Y604" s="8"/>
       <c r="Z604" s="8"/>
     </row>
-    <row r="605" ht="18.0" customHeight="1">
+    <row r="605" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A605" s="8"/>
       <c r="B605" s="8"/>
       <c r="C605" s="8"/>
@@ -17420,7 +17355,7 @@
       <c r="Y605" s="8"/>
       <c r="Z605" s="8"/>
     </row>
-    <row r="606" ht="18.0" customHeight="1">
+    <row r="606" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A606" s="8"/>
       <c r="B606" s="8"/>
       <c r="C606" s="8"/>
@@ -17448,7 +17383,7 @@
       <c r="Y606" s="8"/>
       <c r="Z606" s="8"/>
     </row>
-    <row r="607" ht="18.0" customHeight="1">
+    <row r="607" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A607" s="8"/>
       <c r="B607" s="8"/>
       <c r="C607" s="8"/>
@@ -17476,7 +17411,7 @@
       <c r="Y607" s="8"/>
       <c r="Z607" s="8"/>
     </row>
-    <row r="608" ht="18.0" customHeight="1">
+    <row r="608" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A608" s="8"/>
       <c r="B608" s="8"/>
       <c r="C608" s="8"/>
@@ -17504,7 +17439,7 @@
       <c r="Y608" s="8"/>
       <c r="Z608" s="8"/>
     </row>
-    <row r="609" ht="18.0" customHeight="1">
+    <row r="609" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A609" s="8"/>
       <c r="B609" s="8"/>
       <c r="C609" s="8"/>
@@ -17532,7 +17467,7 @@
       <c r="Y609" s="8"/>
       <c r="Z609" s="8"/>
     </row>
-    <row r="610" ht="18.0" customHeight="1">
+    <row r="610" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A610" s="8"/>
       <c r="B610" s="8"/>
       <c r="C610" s="8"/>
@@ -17560,7 +17495,7 @@
       <c r="Y610" s="8"/>
       <c r="Z610" s="8"/>
     </row>
-    <row r="611" ht="18.0" customHeight="1">
+    <row r="611" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A611" s="8"/>
       <c r="B611" s="8"/>
       <c r="C611" s="8"/>
@@ -17588,7 +17523,7 @@
       <c r="Y611" s="8"/>
       <c r="Z611" s="8"/>
     </row>
-    <row r="612" ht="18.0" customHeight="1">
+    <row r="612" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A612" s="8"/>
       <c r="B612" s="8"/>
       <c r="C612" s="8"/>
@@ -17616,7 +17551,7 @@
       <c r="Y612" s="8"/>
       <c r="Z612" s="8"/>
     </row>
-    <row r="613" ht="18.0" customHeight="1">
+    <row r="613" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A613" s="8"/>
       <c r="B613" s="8"/>
       <c r="C613" s="8"/>
@@ -17644,7 +17579,7 @@
       <c r="Y613" s="8"/>
       <c r="Z613" s="8"/>
     </row>
-    <row r="614" ht="18.0" customHeight="1">
+    <row r="614" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A614" s="8"/>
       <c r="B614" s="8"/>
       <c r="C614" s="8"/>
@@ -17672,7 +17607,7 @@
       <c r="Y614" s="8"/>
       <c r="Z614" s="8"/>
     </row>
-    <row r="615" ht="18.0" customHeight="1">
+    <row r="615" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A615" s="8"/>
       <c r="B615" s="8"/>
       <c r="C615" s="8"/>
@@ -17700,7 +17635,7 @@
       <c r="Y615" s="8"/>
       <c r="Z615" s="8"/>
     </row>
-    <row r="616" ht="18.0" customHeight="1">
+    <row r="616" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A616" s="8"/>
       <c r="B616" s="8"/>
       <c r="C616" s="8"/>
@@ -17728,7 +17663,7 @@
       <c r="Y616" s="8"/>
       <c r="Z616" s="8"/>
     </row>
-    <row r="617" ht="18.0" customHeight="1">
+    <row r="617" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A617" s="8"/>
       <c r="B617" s="8"/>
       <c r="C617" s="8"/>
@@ -17756,7 +17691,7 @@
       <c r="Y617" s="8"/>
       <c r="Z617" s="8"/>
     </row>
-    <row r="618" ht="18.0" customHeight="1">
+    <row r="618" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A618" s="8"/>
       <c r="B618" s="8"/>
       <c r="C618" s="8"/>
@@ -17784,7 +17719,7 @@
       <c r="Y618" s="8"/>
       <c r="Z618" s="8"/>
     </row>
-    <row r="619" ht="18.0" customHeight="1">
+    <row r="619" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A619" s="8"/>
       <c r="B619" s="8"/>
       <c r="C619" s="8"/>
@@ -17812,7 +17747,7 @@
       <c r="Y619" s="8"/>
       <c r="Z619" s="8"/>
     </row>
-    <row r="620" ht="18.0" customHeight="1">
+    <row r="620" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A620" s="8"/>
       <c r="B620" s="8"/>
       <c r="C620" s="8"/>
@@ -17840,7 +17775,7 @@
       <c r="Y620" s="8"/>
       <c r="Z620" s="8"/>
     </row>
-    <row r="621" ht="18.0" customHeight="1">
+    <row r="621" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A621" s="8"/>
       <c r="B621" s="8"/>
       <c r="C621" s="8"/>
@@ -17868,7 +17803,7 @@
       <c r="Y621" s="8"/>
       <c r="Z621" s="8"/>
     </row>
-    <row r="622" ht="18.0" customHeight="1">
+    <row r="622" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A622" s="8"/>
       <c r="B622" s="8"/>
       <c r="C622" s="8"/>
@@ -17896,7 +17831,7 @@
       <c r="Y622" s="8"/>
       <c r="Z622" s="8"/>
     </row>
-    <row r="623" ht="18.0" customHeight="1">
+    <row r="623" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A623" s="8"/>
       <c r="B623" s="8"/>
       <c r="C623" s="8"/>
@@ -17924,7 +17859,7 @@
       <c r="Y623" s="8"/>
       <c r="Z623" s="8"/>
     </row>
-    <row r="624" ht="18.0" customHeight="1">
+    <row r="624" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A624" s="8"/>
       <c r="B624" s="8"/>
       <c r="C624" s="8"/>
@@ -17952,7 +17887,7 @@
       <c r="Y624" s="8"/>
       <c r="Z624" s="8"/>
     </row>
-    <row r="625" ht="18.0" customHeight="1">
+    <row r="625" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A625" s="8"/>
       <c r="B625" s="8"/>
       <c r="C625" s="8"/>
@@ -17980,7 +17915,7 @@
       <c r="Y625" s="8"/>
       <c r="Z625" s="8"/>
     </row>
-    <row r="626" ht="18.0" customHeight="1">
+    <row r="626" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A626" s="8"/>
       <c r="B626" s="8"/>
       <c r="C626" s="8"/>
@@ -18008,7 +17943,7 @@
       <c r="Y626" s="8"/>
       <c r="Z626" s="8"/>
     </row>
-    <row r="627" ht="18.0" customHeight="1">
+    <row r="627" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A627" s="8"/>
       <c r="B627" s="8"/>
       <c r="C627" s="8"/>
@@ -18036,7 +17971,7 @@
       <c r="Y627" s="8"/>
       <c r="Z627" s="8"/>
     </row>
-    <row r="628" ht="18.0" customHeight="1">
+    <row r="628" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A628" s="8"/>
       <c r="B628" s="8"/>
       <c r="C628" s="8"/>
@@ -18064,7 +17999,7 @@
       <c r="Y628" s="8"/>
       <c r="Z628" s="8"/>
     </row>
-    <row r="629" ht="18.0" customHeight="1">
+    <row r="629" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A629" s="8"/>
       <c r="B629" s="8"/>
       <c r="C629" s="8"/>
@@ -18092,7 +18027,7 @@
       <c r="Y629" s="8"/>
       <c r="Z629" s="8"/>
     </row>
-    <row r="630" ht="18.0" customHeight="1">
+    <row r="630" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A630" s="8"/>
       <c r="B630" s="8"/>
       <c r="C630" s="8"/>
@@ -18120,7 +18055,7 @@
       <c r="Y630" s="8"/>
       <c r="Z630" s="8"/>
     </row>
-    <row r="631" ht="18.0" customHeight="1">
+    <row r="631" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A631" s="8"/>
       <c r="B631" s="8"/>
       <c r="C631" s="8"/>
@@ -18148,7 +18083,7 @@
       <c r="Y631" s="8"/>
       <c r="Z631" s="8"/>
     </row>
-    <row r="632" ht="18.0" customHeight="1">
+    <row r="632" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A632" s="8"/>
       <c r="B632" s="8"/>
       <c r="C632" s="8"/>
@@ -18176,7 +18111,7 @@
       <c r="Y632" s="8"/>
       <c r="Z632" s="8"/>
     </row>
-    <row r="633" ht="18.0" customHeight="1">
+    <row r="633" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A633" s="8"/>
       <c r="B633" s="8"/>
       <c r="C633" s="8"/>
@@ -18204,7 +18139,7 @@
       <c r="Y633" s="8"/>
       <c r="Z633" s="8"/>
     </row>
-    <row r="634" ht="18.0" customHeight="1">
+    <row r="634" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A634" s="8"/>
       <c r="B634" s="8"/>
       <c r="C634" s="8"/>
@@ -18232,7 +18167,7 @@
       <c r="Y634" s="8"/>
       <c r="Z634" s="8"/>
     </row>
-    <row r="635" ht="18.0" customHeight="1">
+    <row r="635" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A635" s="8"/>
       <c r="B635" s="8"/>
       <c r="C635" s="8"/>
@@ -18260,7 +18195,7 @@
       <c r="Y635" s="8"/>
       <c r="Z635" s="8"/>
     </row>
-    <row r="636" ht="18.0" customHeight="1">
+    <row r="636" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A636" s="8"/>
       <c r="B636" s="8"/>
       <c r="C636" s="8"/>
@@ -18288,7 +18223,7 @@
       <c r="Y636" s="8"/>
       <c r="Z636" s="8"/>
     </row>
-    <row r="637" ht="18.0" customHeight="1">
+    <row r="637" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A637" s="8"/>
       <c r="B637" s="8"/>
       <c r="C637" s="8"/>
@@ -18316,7 +18251,7 @@
       <c r="Y637" s="8"/>
       <c r="Z637" s="8"/>
     </row>
-    <row r="638" ht="18.0" customHeight="1">
+    <row r="638" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A638" s="8"/>
       <c r="B638" s="8"/>
       <c r="C638" s="8"/>
@@ -18344,7 +18279,7 @@
       <c r="Y638" s="8"/>
       <c r="Z638" s="8"/>
     </row>
-    <row r="639" ht="18.0" customHeight="1">
+    <row r="639" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A639" s="8"/>
       <c r="B639" s="8"/>
       <c r="C639" s="8"/>
@@ -18372,7 +18307,7 @@
       <c r="Y639" s="8"/>
       <c r="Z639" s="8"/>
     </row>
-    <row r="640" ht="18.0" customHeight="1">
+    <row r="640" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A640" s="8"/>
       <c r="B640" s="8"/>
       <c r="C640" s="8"/>
@@ -18400,7 +18335,7 @@
       <c r="Y640" s="8"/>
       <c r="Z640" s="8"/>
     </row>
-    <row r="641" ht="18.0" customHeight="1">
+    <row r="641" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A641" s="8"/>
       <c r="B641" s="8"/>
       <c r="C641" s="8"/>
@@ -18428,7 +18363,7 @@
       <c r="Y641" s="8"/>
       <c r="Z641" s="8"/>
     </row>
-    <row r="642" ht="18.0" customHeight="1">
+    <row r="642" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A642" s="8"/>
       <c r="B642" s="8"/>
       <c r="C642" s="8"/>
@@ -18456,7 +18391,7 @@
       <c r="Y642" s="8"/>
       <c r="Z642" s="8"/>
     </row>
-    <row r="643" ht="18.0" customHeight="1">
+    <row r="643" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A643" s="8"/>
       <c r="B643" s="8"/>
       <c r="C643" s="8"/>
@@ -18484,7 +18419,7 @@
       <c r="Y643" s="8"/>
       <c r="Z643" s="8"/>
     </row>
-    <row r="644" ht="18.0" customHeight="1">
+    <row r="644" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A644" s="8"/>
       <c r="B644" s="8"/>
       <c r="C644" s="8"/>
@@ -18512,7 +18447,7 @@
       <c r="Y644" s="8"/>
       <c r="Z644" s="8"/>
     </row>
-    <row r="645" ht="18.0" customHeight="1">
+    <row r="645" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A645" s="8"/>
       <c r="B645" s="8"/>
       <c r="C645" s="8"/>
@@ -18540,7 +18475,7 @@
       <c r="Y645" s="8"/>
       <c r="Z645" s="8"/>
     </row>
-    <row r="646" ht="18.0" customHeight="1">
+    <row r="646" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A646" s="8"/>
       <c r="B646" s="8"/>
       <c r="C646" s="8"/>
@@ -18568,7 +18503,7 @@
       <c r="Y646" s="8"/>
       <c r="Z646" s="8"/>
     </row>
-    <row r="647" ht="18.0" customHeight="1">
+    <row r="647" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A647" s="8"/>
       <c r="B647" s="8"/>
       <c r="C647" s="8"/>
@@ -18596,7 +18531,7 @@
       <c r="Y647" s="8"/>
       <c r="Z647" s="8"/>
     </row>
-    <row r="648" ht="18.0" customHeight="1">
+    <row r="648" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A648" s="8"/>
       <c r="B648" s="8"/>
       <c r="C648" s="8"/>
@@ -18624,7 +18559,7 @@
       <c r="Y648" s="8"/>
       <c r="Z648" s="8"/>
     </row>
-    <row r="649" ht="18.0" customHeight="1">
+    <row r="649" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A649" s="8"/>
       <c r="B649" s="8"/>
       <c r="C649" s="8"/>
@@ -18652,7 +18587,7 @@
       <c r="Y649" s="8"/>
       <c r="Z649" s="8"/>
     </row>
-    <row r="650" ht="18.0" customHeight="1">
+    <row r="650" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A650" s="8"/>
       <c r="B650" s="8"/>
       <c r="C650" s="8"/>
@@ -18680,7 +18615,7 @@
       <c r="Y650" s="8"/>
       <c r="Z650" s="8"/>
     </row>
-    <row r="651" ht="18.0" customHeight="1">
+    <row r="651" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A651" s="8"/>
       <c r="B651" s="8"/>
       <c r="C651" s="8"/>
@@ -18708,7 +18643,7 @@
       <c r="Y651" s="8"/>
       <c r="Z651" s="8"/>
     </row>
-    <row r="652" ht="18.0" customHeight="1">
+    <row r="652" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A652" s="8"/>
       <c r="B652" s="8"/>
       <c r="C652" s="8"/>
@@ -18736,7 +18671,7 @@
       <c r="Y652" s="8"/>
       <c r="Z652" s="8"/>
     </row>
-    <row r="653" ht="18.0" customHeight="1">
+    <row r="653" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A653" s="8"/>
       <c r="B653" s="8"/>
       <c r="C653" s="8"/>
@@ -18764,7 +18699,7 @@
       <c r="Y653" s="8"/>
       <c r="Z653" s="8"/>
     </row>
-    <row r="654" ht="18.0" customHeight="1">
+    <row r="654" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A654" s="8"/>
       <c r="B654" s="8"/>
       <c r="C654" s="8"/>
@@ -18792,7 +18727,7 @@
       <c r="Y654" s="8"/>
       <c r="Z654" s="8"/>
     </row>
-    <row r="655" ht="18.0" customHeight="1">
+    <row r="655" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A655" s="8"/>
       <c r="B655" s="8"/>
       <c r="C655" s="8"/>
@@ -18820,7 +18755,7 @@
       <c r="Y655" s="8"/>
       <c r="Z655" s="8"/>
     </row>
-    <row r="656" ht="18.0" customHeight="1">
+    <row r="656" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A656" s="8"/>
       <c r="B656" s="8"/>
       <c r="C656" s="8"/>
@@ -18848,7 +18783,7 @@
       <c r="Y656" s="8"/>
       <c r="Z656" s="8"/>
     </row>
-    <row r="657" ht="18.0" customHeight="1">
+    <row r="657" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A657" s="8"/>
       <c r="B657" s="8"/>
       <c r="C657" s="8"/>
@@ -18876,7 +18811,7 @@
       <c r="Y657" s="8"/>
       <c r="Z657" s="8"/>
     </row>
-    <row r="658" ht="18.0" customHeight="1">
+    <row r="658" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A658" s="8"/>
       <c r="B658" s="8"/>
       <c r="C658" s="8"/>
@@ -18904,7 +18839,7 @@
       <c r="Y658" s="8"/>
       <c r="Z658" s="8"/>
     </row>
-    <row r="659" ht="18.0" customHeight="1">
+    <row r="659" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A659" s="8"/>
       <c r="B659" s="8"/>
       <c r="C659" s="8"/>
@@ -18932,7 +18867,7 @@
       <c r="Y659" s="8"/>
       <c r="Z659" s="8"/>
     </row>
-    <row r="660" ht="18.0" customHeight="1">
+    <row r="660" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A660" s="8"/>
       <c r="B660" s="8"/>
       <c r="C660" s="8"/>
@@ -18960,7 +18895,7 @@
       <c r="Y660" s="8"/>
       <c r="Z660" s="8"/>
     </row>
-    <row r="661" ht="18.0" customHeight="1">
+    <row r="661" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A661" s="8"/>
       <c r="B661" s="8"/>
       <c r="C661" s="8"/>
@@ -18988,7 +18923,7 @@
       <c r="Y661" s="8"/>
       <c r="Z661" s="8"/>
     </row>
-    <row r="662" ht="18.0" customHeight="1">
+    <row r="662" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A662" s="8"/>
       <c r="B662" s="8"/>
       <c r="C662" s="8"/>
@@ -19016,7 +18951,7 @@
       <c r="Y662" s="8"/>
       <c r="Z662" s="8"/>
     </row>
-    <row r="663" ht="18.0" customHeight="1">
+    <row r="663" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A663" s="8"/>
       <c r="B663" s="8"/>
       <c r="C663" s="8"/>
@@ -19044,7 +18979,7 @@
       <c r="Y663" s="8"/>
       <c r="Z663" s="8"/>
     </row>
-    <row r="664" ht="18.0" customHeight="1">
+    <row r="664" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A664" s="8"/>
       <c r="B664" s="8"/>
       <c r="C664" s="8"/>
@@ -19072,7 +19007,7 @@
       <c r="Y664" s="8"/>
       <c r="Z664" s="8"/>
     </row>
-    <row r="665" ht="18.0" customHeight="1">
+    <row r="665" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A665" s="8"/>
       <c r="B665" s="8"/>
       <c r="C665" s="8"/>
@@ -19100,7 +19035,7 @@
       <c r="Y665" s="8"/>
       <c r="Z665" s="8"/>
     </row>
-    <row r="666" ht="18.0" customHeight="1">
+    <row r="666" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A666" s="8"/>
       <c r="B666" s="8"/>
       <c r="C666" s="8"/>
@@ -19128,7 +19063,7 @@
       <c r="Y666" s="8"/>
       <c r="Z666" s="8"/>
     </row>
-    <row r="667" ht="18.0" customHeight="1">
+    <row r="667" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A667" s="8"/>
       <c r="B667" s="8"/>
       <c r="C667" s="8"/>
@@ -19156,7 +19091,7 @@
       <c r="Y667" s="8"/>
       <c r="Z667" s="8"/>
     </row>
-    <row r="668" ht="18.0" customHeight="1">
+    <row r="668" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A668" s="8"/>
       <c r="B668" s="8"/>
       <c r="C668" s="8"/>
@@ -19184,7 +19119,7 @@
       <c r="Y668" s="8"/>
       <c r="Z668" s="8"/>
     </row>
-    <row r="669" ht="18.0" customHeight="1">
+    <row r="669" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A669" s="8"/>
       <c r="B669" s="8"/>
       <c r="C669" s="8"/>
@@ -19212,7 +19147,7 @@
       <c r="Y669" s="8"/>
       <c r="Z669" s="8"/>
     </row>
-    <row r="670" ht="18.0" customHeight="1">
+    <row r="670" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A670" s="8"/>
       <c r="B670" s="8"/>
       <c r="C670" s="8"/>
@@ -19240,7 +19175,7 @@
       <c r="Y670" s="8"/>
       <c r="Z670" s="8"/>
     </row>
-    <row r="671" ht="18.0" customHeight="1">
+    <row r="671" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A671" s="8"/>
       <c r="B671" s="8"/>
       <c r="C671" s="8"/>
@@ -19268,7 +19203,7 @@
       <c r="Y671" s="8"/>
       <c r="Z671" s="8"/>
     </row>
-    <row r="672" ht="18.0" customHeight="1">
+    <row r="672" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A672" s="8"/>
       <c r="B672" s="8"/>
       <c r="C672" s="8"/>
@@ -19296,7 +19231,7 @@
       <c r="Y672" s="8"/>
       <c r="Z672" s="8"/>
     </row>
-    <row r="673" ht="18.0" customHeight="1">
+    <row r="673" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A673" s="8"/>
       <c r="B673" s="8"/>
       <c r="C673" s="8"/>
@@ -19324,7 +19259,7 @@
       <c r="Y673" s="8"/>
       <c r="Z673" s="8"/>
     </row>
-    <row r="674" ht="18.0" customHeight="1">
+    <row r="674" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A674" s="8"/>
       <c r="B674" s="8"/>
       <c r="C674" s="8"/>
@@ -19352,7 +19287,7 @@
       <c r="Y674" s="8"/>
       <c r="Z674" s="8"/>
     </row>
-    <row r="675" ht="18.0" customHeight="1">
+    <row r="675" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A675" s="8"/>
       <c r="B675" s="8"/>
       <c r="C675" s="8"/>
@@ -19380,7 +19315,7 @@
       <c r="Y675" s="8"/>
       <c r="Z675" s="8"/>
     </row>
-    <row r="676" ht="18.0" customHeight="1">
+    <row r="676" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A676" s="8"/>
       <c r="B676" s="8"/>
       <c r="C676" s="8"/>
@@ -19408,7 +19343,7 @@
       <c r="Y676" s="8"/>
       <c r="Z676" s="8"/>
     </row>
-    <row r="677" ht="18.0" customHeight="1">
+    <row r="677" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A677" s="8"/>
       <c r="B677" s="8"/>
       <c r="C677" s="8"/>
@@ -19436,7 +19371,7 @@
       <c r="Y677" s="8"/>
       <c r="Z677" s="8"/>
     </row>
-    <row r="678" ht="18.0" customHeight="1">
+    <row r="678" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A678" s="8"/>
       <c r="B678" s="8"/>
       <c r="C678" s="8"/>
@@ -19464,7 +19399,7 @@
       <c r="Y678" s="8"/>
       <c r="Z678" s="8"/>
     </row>
-    <row r="679" ht="18.0" customHeight="1">
+    <row r="679" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A679" s="8"/>
       <c r="B679" s="8"/>
       <c r="C679" s="8"/>
@@ -19492,7 +19427,7 @@
       <c r="Y679" s="8"/>
       <c r="Z679" s="8"/>
     </row>
-    <row r="680" ht="18.0" customHeight="1">
+    <row r="680" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A680" s="8"/>
       <c r="B680" s="8"/>
       <c r="C680" s="8"/>
@@ -19520,7 +19455,7 @@
       <c r="Y680" s="8"/>
       <c r="Z680" s="8"/>
     </row>
-    <row r="681" ht="18.0" customHeight="1">
+    <row r="681" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A681" s="8"/>
       <c r="B681" s="8"/>
       <c r="C681" s="8"/>
@@ -19548,7 +19483,7 @@
       <c r="Y681" s="8"/>
       <c r="Z681" s="8"/>
     </row>
-    <row r="682" ht="18.0" customHeight="1">
+    <row r="682" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A682" s="8"/>
       <c r="B682" s="8"/>
       <c r="C682" s="8"/>
@@ -19576,7 +19511,7 @@
       <c r="Y682" s="8"/>
       <c r="Z682" s="8"/>
     </row>
-    <row r="683" ht="18.0" customHeight="1">
+    <row r="683" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A683" s="8"/>
       <c r="B683" s="8"/>
       <c r="C683" s="8"/>
@@ -19604,7 +19539,7 @@
       <c r="Y683" s="8"/>
       <c r="Z683" s="8"/>
     </row>
-    <row r="684" ht="18.0" customHeight="1">
+    <row r="684" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A684" s="8"/>
       <c r="B684" s="8"/>
       <c r="C684" s="8"/>
@@ -19632,7 +19567,7 @@
       <c r="Y684" s="8"/>
       <c r="Z684" s="8"/>
     </row>
-    <row r="685" ht="18.0" customHeight="1">
+    <row r="685" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A685" s="8"/>
       <c r="B685" s="8"/>
       <c r="C685" s="8"/>
@@ -19660,7 +19595,7 @@
       <c r="Y685" s="8"/>
       <c r="Z685" s="8"/>
     </row>
-    <row r="686" ht="18.0" customHeight="1">
+    <row r="686" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A686" s="8"/>
       <c r="B686" s="8"/>
       <c r="C686" s="8"/>
@@ -19688,7 +19623,7 @@
       <c r="Y686" s="8"/>
       <c r="Z686" s="8"/>
     </row>
-    <row r="687" ht="18.0" customHeight="1">
+    <row r="687" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A687" s="8"/>
       <c r="B687" s="8"/>
       <c r="C687" s="8"/>
@@ -19716,7 +19651,7 @@
       <c r="Y687" s="8"/>
       <c r="Z687" s="8"/>
     </row>
-    <row r="688" ht="18.0" customHeight="1">
+    <row r="688" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A688" s="8"/>
       <c r="B688" s="8"/>
       <c r="C688" s="8"/>
@@ -19744,7 +19679,7 @@
       <c r="Y688" s="8"/>
       <c r="Z688" s="8"/>
     </row>
-    <row r="689" ht="18.0" customHeight="1">
+    <row r="689" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A689" s="8"/>
       <c r="B689" s="8"/>
       <c r="C689" s="8"/>
@@ -19772,7 +19707,7 @@
       <c r="Y689" s="8"/>
       <c r="Z689" s="8"/>
     </row>
-    <row r="690" ht="18.0" customHeight="1">
+    <row r="690" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A690" s="8"/>
       <c r="B690" s="8"/>
       <c r="C690" s="8"/>
@@ -19800,7 +19735,7 @@
       <c r="Y690" s="8"/>
       <c r="Z690" s="8"/>
     </row>
-    <row r="691" ht="18.0" customHeight="1">
+    <row r="691" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A691" s="8"/>
       <c r="B691" s="8"/>
       <c r="C691" s="8"/>
@@ -19828,7 +19763,7 @@
       <c r="Y691" s="8"/>
       <c r="Z691" s="8"/>
     </row>
-    <row r="692" ht="18.0" customHeight="1">
+    <row r="692" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A692" s="8"/>
       <c r="B692" s="8"/>
       <c r="C692" s="8"/>
@@ -19856,7 +19791,7 @@
       <c r="Y692" s="8"/>
       <c r="Z692" s="8"/>
     </row>
-    <row r="693" ht="18.0" customHeight="1">
+    <row r="693" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A693" s="8"/>
       <c r="B693" s="8"/>
       <c r="C693" s="8"/>
@@ -19884,7 +19819,7 @@
       <c r="Y693" s="8"/>
       <c r="Z693" s="8"/>
     </row>
-    <row r="694" ht="18.0" customHeight="1">
+    <row r="694" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A694" s="8"/>
       <c r="B694" s="8"/>
       <c r="C694" s="8"/>
@@ -19912,7 +19847,7 @@
       <c r="Y694" s="8"/>
       <c r="Z694" s="8"/>
     </row>
-    <row r="695" ht="18.0" customHeight="1">
+    <row r="695" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A695" s="8"/>
       <c r="B695" s="8"/>
       <c r="C695" s="8"/>
@@ -19940,7 +19875,7 @@
       <c r="Y695" s="8"/>
       <c r="Z695" s="8"/>
     </row>
-    <row r="696" ht="18.0" customHeight="1">
+    <row r="696" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A696" s="8"/>
       <c r="B696" s="8"/>
       <c r="C696" s="8"/>
@@ -19968,7 +19903,7 @@
       <c r="Y696" s="8"/>
       <c r="Z696" s="8"/>
     </row>
-    <row r="697" ht="18.0" customHeight="1">
+    <row r="697" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A697" s="8"/>
       <c r="B697" s="8"/>
       <c r="C697" s="8"/>
@@ -19996,7 +19931,7 @@
       <c r="Y697" s="8"/>
       <c r="Z697" s="8"/>
     </row>
-    <row r="698" ht="18.0" customHeight="1">
+    <row r="698" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A698" s="8"/>
       <c r="B698" s="8"/>
       <c r="C698" s="8"/>
@@ -20024,7 +19959,7 @@
       <c r="Y698" s="8"/>
       <c r="Z698" s="8"/>
     </row>
-    <row r="699" ht="18.0" customHeight="1">
+    <row r="699" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A699" s="8"/>
       <c r="B699" s="8"/>
       <c r="C699" s="8"/>
@@ -20052,7 +19987,7 @@
       <c r="Y699" s="8"/>
       <c r="Z699" s="8"/>
     </row>
-    <row r="700" ht="18.0" customHeight="1">
+    <row r="700" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A700" s="8"/>
       <c r="B700" s="8"/>
       <c r="C700" s="8"/>
@@ -20080,7 +20015,7 @@
       <c r="Y700" s="8"/>
       <c r="Z700" s="8"/>
     </row>
-    <row r="701" ht="18.0" customHeight="1">
+    <row r="701" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A701" s="8"/>
       <c r="B701" s="8"/>
       <c r="C701" s="8"/>
@@ -20108,7 +20043,7 @@
       <c r="Y701" s="8"/>
       <c r="Z701" s="8"/>
     </row>
-    <row r="702" ht="18.0" customHeight="1">
+    <row r="702" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A702" s="8"/>
       <c r="B702" s="8"/>
       <c r="C702" s="8"/>
@@ -20136,7 +20071,7 @@
       <c r="Y702" s="8"/>
       <c r="Z702" s="8"/>
     </row>
-    <row r="703" ht="18.0" customHeight="1">
+    <row r="703" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A703" s="8"/>
       <c r="B703" s="8"/>
       <c r="C703" s="8"/>
@@ -20164,7 +20099,7 @@
       <c r="Y703" s="8"/>
       <c r="Z703" s="8"/>
     </row>
-    <row r="704" ht="18.0" customHeight="1">
+    <row r="704" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A704" s="8"/>
       <c r="B704" s="8"/>
       <c r="C704" s="8"/>
@@ -20192,7 +20127,7 @@
       <c r="Y704" s="8"/>
       <c r="Z704" s="8"/>
     </row>
-    <row r="705" ht="18.0" customHeight="1">
+    <row r="705" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A705" s="8"/>
       <c r="B705" s="8"/>
       <c r="C705" s="8"/>
@@ -20220,7 +20155,7 @@
       <c r="Y705" s="8"/>
       <c r="Z705" s="8"/>
     </row>
-    <row r="706" ht="18.0" customHeight="1">
+    <row r="706" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A706" s="8"/>
       <c r="B706" s="8"/>
       <c r="C706" s="8"/>
@@ -20248,7 +20183,7 @@
       <c r="Y706" s="8"/>
       <c r="Z706" s="8"/>
     </row>
-    <row r="707" ht="18.0" customHeight="1">
+    <row r="707" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A707" s="8"/>
       <c r="B707" s="8"/>
       <c r="C707" s="8"/>
@@ -20276,7 +20211,7 @@
       <c r="Y707" s="8"/>
       <c r="Z707" s="8"/>
     </row>
-    <row r="708" ht="18.0" customHeight="1">
+    <row r="708" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A708" s="8"/>
       <c r="B708" s="8"/>
       <c r="C708" s="8"/>
@@ -20304,7 +20239,7 @@
       <c r="Y708" s="8"/>
       <c r="Z708" s="8"/>
     </row>
-    <row r="709" ht="18.0" customHeight="1">
+    <row r="709" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A709" s="8"/>
       <c r="B709" s="8"/>
       <c r="C709" s="8"/>
@@ -20332,7 +20267,7 @@
       <c r="Y709" s="8"/>
       <c r="Z709" s="8"/>
     </row>
-    <row r="710" ht="18.0" customHeight="1">
+    <row r="710" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A710" s="8"/>
       <c r="B710" s="8"/>
       <c r="C710" s="8"/>
@@ -20360,7 +20295,7 @@
       <c r="Y710" s="8"/>
       <c r="Z710" s="8"/>
     </row>
-    <row r="711" ht="18.0" customHeight="1">
+    <row r="711" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A711" s="8"/>
       <c r="B711" s="8"/>
       <c r="C711" s="8"/>
@@ -20388,7 +20323,7 @@
       <c r="Y711" s="8"/>
       <c r="Z711" s="8"/>
     </row>
-    <row r="712" ht="18.0" customHeight="1">
+    <row r="712" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A712" s="8"/>
       <c r="B712" s="8"/>
       <c r="C712" s="8"/>
@@ -20416,7 +20351,7 @@
       <c r="Y712" s="8"/>
       <c r="Z712" s="8"/>
     </row>
-    <row r="713" ht="18.0" customHeight="1">
+    <row r="713" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A713" s="8"/>
       <c r="B713" s="8"/>
       <c r="C713" s="8"/>
@@ -20444,7 +20379,7 @@
       <c r="Y713" s="8"/>
       <c r="Z713" s="8"/>
     </row>
-    <row r="714" ht="18.0" customHeight="1">
+    <row r="714" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A714" s="8"/>
       <c r="B714" s="8"/>
       <c r="C714" s="8"/>
@@ -20472,7 +20407,7 @@
       <c r="Y714" s="8"/>
       <c r="Z714" s="8"/>
     </row>
-    <row r="715" ht="18.0" customHeight="1">
+    <row r="715" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A715" s="8"/>
       <c r="B715" s="8"/>
       <c r="C715" s="8"/>
@@ -20500,7 +20435,7 @@
       <c r="Y715" s="8"/>
       <c r="Z715" s="8"/>
     </row>
-    <row r="716" ht="18.0" customHeight="1">
+    <row r="716" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A716" s="8"/>
       <c r="B716" s="8"/>
       <c r="C716" s="8"/>
@@ -20528,7 +20463,7 @@
       <c r="Y716" s="8"/>
       <c r="Z716" s="8"/>
     </row>
-    <row r="717" ht="18.0" customHeight="1">
+    <row r="717" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A717" s="8"/>
       <c r="B717" s="8"/>
       <c r="C717" s="8"/>
@@ -20556,7 +20491,7 @@
       <c r="Y717" s="8"/>
       <c r="Z717" s="8"/>
     </row>
-    <row r="718" ht="18.0" customHeight="1">
+    <row r="718" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A718" s="8"/>
       <c r="B718" s="8"/>
       <c r="C718" s="8"/>
@@ -20584,7 +20519,7 @@
       <c r="Y718" s="8"/>
       <c r="Z718" s="8"/>
     </row>
-    <row r="719" ht="18.0" customHeight="1">
+    <row r="719" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A719" s="8"/>
       <c r="B719" s="8"/>
       <c r="C719" s="8"/>
@@ -20612,7 +20547,7 @@
       <c r="Y719" s="8"/>
       <c r="Z719" s="8"/>
     </row>
-    <row r="720" ht="18.0" customHeight="1">
+    <row r="720" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A720" s="8"/>
       <c r="B720" s="8"/>
       <c r="C720" s="8"/>
@@ -20640,7 +20575,7 @@
       <c r="Y720" s="8"/>
       <c r="Z720" s="8"/>
     </row>
-    <row r="721" ht="18.0" customHeight="1">
+    <row r="721" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A721" s="8"/>
       <c r="B721" s="8"/>
       <c r="C721" s="8"/>
@@ -20668,7 +20603,7 @@
       <c r="Y721" s="8"/>
       <c r="Z721" s="8"/>
     </row>
-    <row r="722" ht="18.0" customHeight="1">
+    <row r="722" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A722" s="8"/>
       <c r="B722" s="8"/>
       <c r="C722" s="8"/>
@@ -20696,7 +20631,7 @@
       <c r="Y722" s="8"/>
       <c r="Z722" s="8"/>
     </row>
-    <row r="723" ht="18.0" customHeight="1">
+    <row r="723" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A723" s="8"/>
       <c r="B723" s="8"/>
       <c r="C723" s="8"/>
@@ -20724,7 +20659,7 @@
       <c r="Y723" s="8"/>
       <c r="Z723" s="8"/>
     </row>
-    <row r="724" ht="18.0" customHeight="1">
+    <row r="724" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A724" s="8"/>
       <c r="B724" s="8"/>
       <c r="C724" s="8"/>
@@ -20752,7 +20687,7 @@
       <c r="Y724" s="8"/>
       <c r="Z724" s="8"/>
     </row>
-    <row r="725" ht="18.0" customHeight="1">
+    <row r="725" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A725" s="8"/>
       <c r="B725" s="8"/>
       <c r="C725" s="8"/>
@@ -20780,7 +20715,7 @@
       <c r="Y725" s="8"/>
       <c r="Z725" s="8"/>
     </row>
-    <row r="726" ht="18.0" customHeight="1">
+    <row r="726" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A726" s="8"/>
       <c r="B726" s="8"/>
       <c r="C726" s="8"/>
@@ -20808,7 +20743,7 @@
       <c r="Y726" s="8"/>
       <c r="Z726" s="8"/>
     </row>
-    <row r="727" ht="18.0" customHeight="1">
+    <row r="727" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A727" s="8"/>
       <c r="B727" s="8"/>
       <c r="C727" s="8"/>
@@ -20836,7 +20771,7 @@
       <c r="Y727" s="8"/>
       <c r="Z727" s="8"/>
     </row>
-    <row r="728" ht="18.0" customHeight="1">
+    <row r="728" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A728" s="8"/>
       <c r="B728" s="8"/>
       <c r="C728" s="8"/>
@@ -20864,7 +20799,7 @@
       <c r="Y728" s="8"/>
       <c r="Z728" s="8"/>
     </row>
-    <row r="729" ht="18.0" customHeight="1">
+    <row r="729" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A729" s="8"/>
       <c r="B729" s="8"/>
       <c r="C729" s="8"/>
@@ -20892,7 +20827,7 @@
       <c r="Y729" s="8"/>
       <c r="Z729" s="8"/>
     </row>
-    <row r="730" ht="18.0" customHeight="1">
+    <row r="730" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A730" s="8"/>
       <c r="B730" s="8"/>
       <c r="C730" s="8"/>
@@ -20920,7 +20855,7 @@
       <c r="Y730" s="8"/>
       <c r="Z730" s="8"/>
     </row>
-    <row r="731" ht="18.0" customHeight="1">
+    <row r="731" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A731" s="8"/>
       <c r="B731" s="8"/>
       <c r="C731" s="8"/>
@@ -20948,7 +20883,7 @@
       <c r="Y731" s="8"/>
       <c r="Z731" s="8"/>
     </row>
-    <row r="732" ht="18.0" customHeight="1">
+    <row r="732" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A732" s="8"/>
       <c r="B732" s="8"/>
       <c r="C732" s="8"/>
@@ -20976,7 +20911,7 @@
       <c r="Y732" s="8"/>
       <c r="Z732" s="8"/>
     </row>
-    <row r="733" ht="18.0" customHeight="1">
+    <row r="733" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A733" s="8"/>
       <c r="B733" s="8"/>
       <c r="C733" s="8"/>
@@ -21004,7 +20939,7 @@
       <c r="Y733" s="8"/>
       <c r="Z733" s="8"/>
     </row>
-    <row r="734" ht="18.0" customHeight="1">
+    <row r="734" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A734" s="8"/>
       <c r="B734" s="8"/>
       <c r="C734" s="8"/>
@@ -21032,7 +20967,7 @@
       <c r="Y734" s="8"/>
       <c r="Z734" s="8"/>
     </row>
-    <row r="735" ht="18.0" customHeight="1">
+    <row r="735" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A735" s="8"/>
       <c r="B735" s="8"/>
       <c r="C735" s="8"/>
@@ -21060,7 +20995,7 @@
       <c r="Y735" s="8"/>
       <c r="Z735" s="8"/>
     </row>
-    <row r="736" ht="18.0" customHeight="1">
+    <row r="736" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A736" s="8"/>
       <c r="B736" s="8"/>
       <c r="C736" s="8"/>
@@ -21088,7 +21023,7 @@
       <c r="Y736" s="8"/>
       <c r="Z736" s="8"/>
     </row>
-    <row r="737" ht="18.0" customHeight="1">
+    <row r="737" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A737" s="8"/>
       <c r="B737" s="8"/>
       <c r="C737" s="8"/>
@@ -21116,7 +21051,7 @@
       <c r="Y737" s="8"/>
       <c r="Z737" s="8"/>
     </row>
-    <row r="738" ht="18.0" customHeight="1">
+    <row r="738" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A738" s="8"/>
       <c r="B738" s="8"/>
       <c r="C738" s="8"/>
@@ -21144,7 +21079,7 @@
       <c r="Y738" s="8"/>
       <c r="Z738" s="8"/>
     </row>
-    <row r="739" ht="18.0" customHeight="1">
+    <row r="739" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A739" s="8"/>
       <c r="B739" s="8"/>
       <c r="C739" s="8"/>
@@ -21172,7 +21107,7 @@
       <c r="Y739" s="8"/>
       <c r="Z739" s="8"/>
     </row>
-    <row r="740" ht="18.0" customHeight="1">
+    <row r="740" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A740" s="8"/>
       <c r="B740" s="8"/>
       <c r="C740" s="8"/>
@@ -21200,7 +21135,7 @@
       <c r="Y740" s="8"/>
       <c r="Z740" s="8"/>
     </row>
-    <row r="741" ht="18.0" customHeight="1">
+    <row r="741" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A741" s="8"/>
       <c r="B741" s="8"/>
       <c r="C741" s="8"/>
@@ -21228,7 +21163,7 @@
       <c r="Y741" s="8"/>
       <c r="Z741" s="8"/>
     </row>
-    <row r="742" ht="18.0" customHeight="1">
+    <row r="742" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A742" s="8"/>
       <c r="B742" s="8"/>
       <c r="C742" s="8"/>
@@ -21256,7 +21191,7 @@
       <c r="Y742" s="8"/>
       <c r="Z742" s="8"/>
     </row>
-    <row r="743" ht="18.0" customHeight="1">
+    <row r="743" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A743" s="8"/>
       <c r="B743" s="8"/>
       <c r="C743" s="8"/>
@@ -21284,7 +21219,7 @@
       <c r="Y743" s="8"/>
       <c r="Z743" s="8"/>
     </row>
-    <row r="744" ht="18.0" customHeight="1">
+    <row r="744" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A744" s="8"/>
       <c r="B744" s="8"/>
       <c r="C744" s="8"/>
@@ -21312,7 +21247,7 @@
       <c r="Y744" s="8"/>
       <c r="Z744" s="8"/>
     </row>
-    <row r="745" ht="18.0" customHeight="1">
+    <row r="745" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A745" s="8"/>
       <c r="B745" s="8"/>
       <c r="C745" s="8"/>
@@ -21340,7 +21275,7 @@
       <c r="Y745" s="8"/>
       <c r="Z745" s="8"/>
     </row>
-    <row r="746" ht="18.0" customHeight="1">
+    <row r="746" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A746" s="8"/>
       <c r="B746" s="8"/>
       <c r="C746" s="8"/>
@@ -21368,7 +21303,7 @@
       <c r="Y746" s="8"/>
       <c r="Z746" s="8"/>
     </row>
-    <row r="747" ht="18.0" customHeight="1">
+    <row r="747" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A747" s="8"/>
       <c r="B747" s="8"/>
       <c r="C747" s="8"/>
@@ -21396,7 +21331,7 @@
       <c r="Y747" s="8"/>
       <c r="Z747" s="8"/>
     </row>
-    <row r="748" ht="18.0" customHeight="1">
+    <row r="748" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A748" s="8"/>
       <c r="B748" s="8"/>
       <c r="C748" s="8"/>
@@ -21424,7 +21359,7 @@
       <c r="Y748" s="8"/>
       <c r="Z748" s="8"/>
     </row>
-    <row r="749" ht="18.0" customHeight="1">
+    <row r="749" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A749" s="8"/>
       <c r="B749" s="8"/>
       <c r="C749" s="8"/>
@@ -21452,7 +21387,7 @@
       <c r="Y749" s="8"/>
       <c r="Z749" s="8"/>
     </row>
-    <row r="750" ht="18.0" customHeight="1">
+    <row r="750" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A750" s="8"/>
       <c r="B750" s="8"/>
       <c r="C750" s="8"/>
@@ -21480,7 +21415,7 @@
       <c r="Y750" s="8"/>
       <c r="Z750" s="8"/>
     </row>
-    <row r="751" ht="18.0" customHeight="1">
+    <row r="751" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A751" s="8"/>
       <c r="B751" s="8"/>
       <c r="C751" s="8"/>
@@ -21508,7 +21443,7 @@
       <c r="Y751" s="8"/>
       <c r="Z751" s="8"/>
     </row>
-    <row r="752" ht="18.0" customHeight="1">
+    <row r="752" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A752" s="8"/>
       <c r="B752" s="8"/>
       <c r="C752" s="8"/>
@@ -21536,7 +21471,7 @@
       <c r="Y752" s="8"/>
       <c r="Z752" s="8"/>
     </row>
-    <row r="753" ht="18.0" customHeight="1">
+    <row r="753" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A753" s="8"/>
       <c r="B753" s="8"/>
       <c r="C753" s="8"/>
@@ -21564,7 +21499,7 @@
       <c r="Y753" s="8"/>
       <c r="Z753" s="8"/>
     </row>
-    <row r="754" ht="18.0" customHeight="1">
+    <row r="754" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A754" s="8"/>
       <c r="B754" s="8"/>
       <c r="C754" s="8"/>
@@ -21592,7 +21527,7 @@
       <c r="Y754" s="8"/>
       <c r="Z754" s="8"/>
     </row>
-    <row r="755" ht="18.0" customHeight="1">
+    <row r="755" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A755" s="8"/>
       <c r="B755" s="8"/>
       <c r="C755" s="8"/>
@@ -21620,7 +21555,7 @@
       <c r="Y755" s="8"/>
       <c r="Z755" s="8"/>
     </row>
-    <row r="756" ht="18.0" customHeight="1">
+    <row r="756" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A756" s="8"/>
       <c r="B756" s="8"/>
       <c r="C756" s="8"/>
@@ -21648,7 +21583,7 @@
       <c r="Y756" s="8"/>
       <c r="Z756" s="8"/>
     </row>
-    <row r="757" ht="18.0" customHeight="1">
+    <row r="757" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A757" s="8"/>
       <c r="B757" s="8"/>
       <c r="C757" s="8"/>
@@ -21676,7 +21611,7 @@
       <c r="Y757" s="8"/>
       <c r="Z757" s="8"/>
     </row>
-    <row r="758" ht="18.0" customHeight="1">
+    <row r="758" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A758" s="8"/>
       <c r="B758" s="8"/>
       <c r="C758" s="8"/>
@@ -21704,7 +21639,7 @@
       <c r="Y758" s="8"/>
       <c r="Z758" s="8"/>
     </row>
-    <row r="759" ht="18.0" customHeight="1">
+    <row r="759" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A759" s="8"/>
       <c r="B759" s="8"/>
       <c r="C759" s="8"/>
@@ -21732,7 +21667,7 @@
       <c r="Y759" s="8"/>
       <c r="Z759" s="8"/>
     </row>
-    <row r="760" ht="18.0" customHeight="1">
+    <row r="760" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A760" s="8"/>
       <c r="B760" s="8"/>
       <c r="C760" s="8"/>
@@ -21760,7 +21695,7 @@
       <c r="Y760" s="8"/>
       <c r="Z760" s="8"/>
     </row>
-    <row r="761" ht="18.0" customHeight="1">
+    <row r="761" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A761" s="8"/>
       <c r="B761" s="8"/>
       <c r="C761" s="8"/>
@@ -21788,7 +21723,7 @@
       <c r="Y761" s="8"/>
       <c r="Z761" s="8"/>
     </row>
-    <row r="762" ht="18.0" customHeight="1">
+    <row r="762" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A762" s="8"/>
       <c r="B762" s="8"/>
       <c r="C762" s="8"/>
@@ -21816,7 +21751,7 @@
       <c r="Y762" s="8"/>
       <c r="Z762" s="8"/>
     </row>
-    <row r="763" ht="18.0" customHeight="1">
+    <row r="763" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A763" s="8"/>
       <c r="B763" s="8"/>
       <c r="C763" s="8"/>
@@ -21844,7 +21779,7 @@
       <c r="Y763" s="8"/>
       <c r="Z763" s="8"/>
     </row>
-    <row r="764" ht="18.0" customHeight="1">
+    <row r="764" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A764" s="8"/>
       <c r="B764" s="8"/>
       <c r="C764" s="8"/>
@@ -21872,7 +21807,7 @@
       <c r="Y764" s="8"/>
       <c r="Z764" s="8"/>
     </row>
-    <row r="765" ht="18.0" customHeight="1">
+    <row r="765" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A765" s="8"/>
       <c r="B765" s="8"/>
       <c r="C765" s="8"/>
@@ -21900,7 +21835,7 @@
       <c r="Y765" s="8"/>
       <c r="Z765" s="8"/>
     </row>
-    <row r="766" ht="18.0" customHeight="1">
+    <row r="766" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A766" s="8"/>
       <c r="B766" s="8"/>
       <c r="C766" s="8"/>
@@ -21928,7 +21863,7 @@
       <c r="Y766" s="8"/>
       <c r="Z766" s="8"/>
     </row>
-    <row r="767" ht="18.0" customHeight="1">
+    <row r="767" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A767" s="8"/>
       <c r="B767" s="8"/>
       <c r="C767" s="8"/>
@@ -21956,7 +21891,7 @@
       <c r="Y767" s="8"/>
       <c r="Z767" s="8"/>
     </row>
-    <row r="768" ht="18.0" customHeight="1">
+    <row r="768" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A768" s="8"/>
       <c r="B768" s="8"/>
       <c r="C768" s="8"/>
@@ -21984,7 +21919,7 @@
       <c r="Y768" s="8"/>
       <c r="Z768" s="8"/>
     </row>
-    <row r="769" ht="18.0" customHeight="1">
+    <row r="769" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A769" s="8"/>
       <c r="B769" s="8"/>
       <c r="C769" s="8"/>
@@ -22012,7 +21947,7 @@
       <c r="Y769" s="8"/>
       <c r="Z769" s="8"/>
     </row>
-    <row r="770" ht="18.0" customHeight="1">
+    <row r="770" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A770" s="8"/>
       <c r="B770" s="8"/>
       <c r="C770" s="8"/>
@@ -22040,7 +21975,7 @@
       <c r="Y770" s="8"/>
       <c r="Z770" s="8"/>
     </row>
-    <row r="771" ht="18.0" customHeight="1">
+    <row r="771" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A771" s="8"/>
       <c r="B771" s="8"/>
       <c r="C771" s="8"/>
@@ -22068,7 +22003,7 @@
       <c r="Y771" s="8"/>
       <c r="Z771" s="8"/>
     </row>
-    <row r="772" ht="18.0" customHeight="1">
+    <row r="772" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A772" s="8"/>
       <c r="B772" s="8"/>
       <c r="C772" s="8"/>
@@ -22096,7 +22031,7 @@
       <c r="Y772" s="8"/>
       <c r="Z772" s="8"/>
     </row>
-    <row r="773" ht="18.0" customHeight="1">
+    <row r="773" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A773" s="8"/>
       <c r="B773" s="8"/>
       <c r="C773" s="8"/>
@@ -22124,7 +22059,7 @@
       <c r="Y773" s="8"/>
       <c r="Z773" s="8"/>
     </row>
-    <row r="774" ht="18.0" customHeight="1">
+    <row r="774" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A774" s="8"/>
       <c r="B774" s="8"/>
       <c r="C774" s="8"/>
@@ -22152,7 +22087,7 @@
       <c r="Y774" s="8"/>
       <c r="Z774" s="8"/>
     </row>
-    <row r="775" ht="18.0" customHeight="1">
+    <row r="775" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A775" s="8"/>
       <c r="B775" s="8"/>
       <c r="C775" s="8"/>
@@ -22180,7 +22115,7 @@
       <c r="Y775" s="8"/>
       <c r="Z775" s="8"/>
     </row>
-    <row r="776" ht="18.0" customHeight="1">
+    <row r="776" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A776" s="8"/>
       <c r="B776" s="8"/>
       <c r="C776" s="8"/>
@@ -22208,7 +22143,7 @@
       <c r="Y776" s="8"/>
       <c r="Z776" s="8"/>
     </row>
-    <row r="777" ht="18.0" customHeight="1">
+    <row r="777" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A777" s="8"/>
       <c r="B777" s="8"/>
       <c r="C777" s="8"/>
@@ -22236,7 +22171,7 @@
       <c r="Y777" s="8"/>
       <c r="Z777" s="8"/>
     </row>
-    <row r="778" ht="18.0" customHeight="1">
+    <row r="778" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A778" s="8"/>
       <c r="B778" s="8"/>
       <c r="C778" s="8"/>
@@ -22264,7 +22199,7 @@
       <c r="Y778" s="8"/>
       <c r="Z778" s="8"/>
     </row>
-    <row r="779" ht="18.0" customHeight="1">
+    <row r="779" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A779" s="8"/>
       <c r="B779" s="8"/>
       <c r="C779" s="8"/>
@@ -22292,7 +22227,7 @@
       <c r="Y779" s="8"/>
       <c r="Z779" s="8"/>
     </row>
-    <row r="780" ht="18.0" customHeight="1">
+    <row r="780" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A780" s="8"/>
       <c r="B780" s="8"/>
       <c r="C780" s="8"/>
@@ -22320,7 +22255,7 @@
       <c r="Y780" s="8"/>
       <c r="Z780" s="8"/>
     </row>
-    <row r="781" ht="18.0" customHeight="1">
+    <row r="781" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A781" s="8"/>
       <c r="B781" s="8"/>
       <c r="C781" s="8"/>
@@ -22348,7 +22283,7 @@
       <c r="Y781" s="8"/>
       <c r="Z781" s="8"/>
     </row>
-    <row r="782" ht="18.0" customHeight="1">
+    <row r="782" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A782" s="8"/>
       <c r="B782" s="8"/>
       <c r="C782" s="8"/>
@@ -22376,7 +22311,7 @@
       <c r="Y782" s="8"/>
       <c r="Z782" s="8"/>
     </row>
-    <row r="783" ht="18.0" customHeight="1">
+    <row r="783" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A783" s="8"/>
       <c r="B783" s="8"/>
       <c r="C783" s="8"/>
@@ -22404,7 +22339,7 @@
       <c r="Y783" s="8"/>
       <c r="Z783" s="8"/>
     </row>
-    <row r="784" ht="18.0" customHeight="1">
+    <row r="784" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A784" s="8"/>
       <c r="B784" s="8"/>
       <c r="C784" s="8"/>
@@ -22432,7 +22367,7 @@
       <c r="Y784" s="8"/>
       <c r="Z784" s="8"/>
     </row>
-    <row r="785" ht="18.0" customHeight="1">
+    <row r="785" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A785" s="8"/>
       <c r="B785" s="8"/>
       <c r="C785" s="8"/>
@@ -22460,7 +22395,7 @@
       <c r="Y785" s="8"/>
       <c r="Z785" s="8"/>
     </row>
-    <row r="786" ht="18.0" customHeight="1">
+    <row r="786" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A786" s="8"/>
       <c r="B786" s="8"/>
       <c r="C786" s="8"/>
@@ -22488,7 +22423,7 @@
       <c r="Y786" s="8"/>
       <c r="Z786" s="8"/>
     </row>
-    <row r="787" ht="18.0" customHeight="1">
+    <row r="787" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A787" s="8"/>
       <c r="B787" s="8"/>
       <c r="C787" s="8"/>
@@ -22516,7 +22451,7 @@
       <c r="Y787" s="8"/>
       <c r="Z787" s="8"/>
     </row>
-    <row r="788" ht="18.0" customHeight="1">
+    <row r="788" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A788" s="8"/>
       <c r="B788" s="8"/>
       <c r="C788" s="8"/>
@@ -22544,7 +22479,7 @@
       <c r="Y788" s="8"/>
       <c r="Z788" s="8"/>
     </row>
-    <row r="789" ht="18.0" customHeight="1">
+    <row r="789" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A789" s="8"/>
       <c r="B789" s="8"/>
       <c r="C789" s="8"/>
@@ -22572,7 +22507,7 @@
       <c r="Y789" s="8"/>
       <c r="Z789" s="8"/>
     </row>
-    <row r="790" ht="18.0" customHeight="1">
+    <row r="790" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A790" s="8"/>
       <c r="B790" s="8"/>
       <c r="C790" s="8"/>
@@ -22600,7 +22535,7 @@
       <c r="Y790" s="8"/>
       <c r="Z790" s="8"/>
     </row>
-    <row r="791" ht="18.0" customHeight="1">
+    <row r="791" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A791" s="8"/>
       <c r="B791" s="8"/>
       <c r="C791" s="8"/>
@@ -22628,7 +22563,7 @@
       <c r="Y791" s="8"/>
       <c r="Z791" s="8"/>
     </row>
-    <row r="792" ht="18.0" customHeight="1">
+    <row r="792" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A792" s="8"/>
       <c r="B792" s="8"/>
       <c r="C792" s="8"/>
@@ -22656,7 +22591,7 @@
       <c r="Y792" s="8"/>
       <c r="Z792" s="8"/>
     </row>
-    <row r="793" ht="18.0" customHeight="1">
+    <row r="793" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A793" s="8"/>
       <c r="B793" s="8"/>
       <c r="C793" s="8"/>
@@ -22684,7 +22619,7 @@
       <c r="Y793" s="8"/>
       <c r="Z793" s="8"/>
     </row>
-    <row r="794" ht="18.0" customHeight="1">
+    <row r="794" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A794" s="8"/>
       <c r="B794" s="8"/>
       <c r="C794" s="8"/>
@@ -22712,7 +22647,7 @@
       <c r="Y794" s="8"/>
       <c r="Z794" s="8"/>
     </row>
-    <row r="795" ht="18.0" customHeight="1">
+    <row r="795" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A795" s="8"/>
       <c r="B795" s="8"/>
       <c r="C795" s="8"/>
@@ -22740,7 +22675,7 @@
       <c r="Y795" s="8"/>
       <c r="Z795" s="8"/>
     </row>
-    <row r="796" ht="18.0" customHeight="1">
+    <row r="796" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A796" s="8"/>
       <c r="B796" s="8"/>
       <c r="C796" s="8"/>
@@ -22768,7 +22703,7 @@
       <c r="Y796" s="8"/>
       <c r="Z796" s="8"/>
     </row>
-    <row r="797" ht="18.0" customHeight="1">
+    <row r="797" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A797" s="8"/>
       <c r="B797" s="8"/>
       <c r="C797" s="8"/>
@@ -22796,7 +22731,7 @@
       <c r="Y797" s="8"/>
       <c r="Z797" s="8"/>
     </row>
-    <row r="798" ht="18.0" customHeight="1">
+    <row r="798" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A798" s="8"/>
       <c r="B798" s="8"/>
       <c r="C798" s="8"/>
@@ -22824,7 +22759,7 @@
       <c r="Y798" s="8"/>
       <c r="Z798" s="8"/>
     </row>
-    <row r="799" ht="18.0" customHeight="1">
+    <row r="799" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A799" s="8"/>
       <c r="B799" s="8"/>
       <c r="C799" s="8"/>
@@ -22852,7 +22787,7 @@
       <c r="Y799" s="8"/>
       <c r="Z799" s="8"/>
     </row>
-    <row r="800" ht="18.0" customHeight="1">
+    <row r="800" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A800" s="8"/>
       <c r="B800" s="8"/>
       <c r="C800" s="8"/>
@@ -22880,7 +22815,7 @@
       <c r="Y800" s="8"/>
       <c r="Z800" s="8"/>
     </row>
-    <row r="801" ht="18.0" customHeight="1">
+    <row r="801" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A801" s="8"/>
       <c r="B801" s="8"/>
       <c r="C801" s="8"/>
@@ -22908,7 +22843,7 @@
       <c r="Y801" s="8"/>
       <c r="Z801" s="8"/>
     </row>
-    <row r="802" ht="18.0" customHeight="1">
+    <row r="802" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A802" s="8"/>
       <c r="B802" s="8"/>
       <c r="C802" s="8"/>
@@ -22936,7 +22871,7 @@
       <c r="Y802" s="8"/>
       <c r="Z802" s="8"/>
     </row>
-    <row r="803" ht="18.0" customHeight="1">
+    <row r="803" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A803" s="8"/>
       <c r="B803" s="8"/>
       <c r="C803" s="8"/>
@@ -22964,7 +22899,7 @@
       <c r="Y803" s="8"/>
       <c r="Z803" s="8"/>
     </row>
-    <row r="804" ht="18.0" customHeight="1">
+    <row r="804" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A804" s="8"/>
       <c r="B804" s="8"/>
       <c r="C804" s="8"/>
@@ -22992,7 +22927,7 @@
       <c r="Y804" s="8"/>
       <c r="Z804" s="8"/>
     </row>
-    <row r="805" ht="18.0" customHeight="1">
+    <row r="805" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A805" s="8"/>
       <c r="B805" s="8"/>
       <c r="C805" s="8"/>
@@ -23020,7 +22955,7 @@
       <c r="Y805" s="8"/>
       <c r="Z805" s="8"/>
     </row>
-    <row r="806" ht="18.0" customHeight="1">
+    <row r="806" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A806" s="8"/>
       <c r="B806" s="8"/>
       <c r="C806" s="8"/>
@@ -23048,7 +22983,7 @@
       <c r="Y806" s="8"/>
       <c r="Z806" s="8"/>
     </row>
-    <row r="807" ht="18.0" customHeight="1">
+    <row r="807" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A807" s="8"/>
       <c r="B807" s="8"/>
       <c r="C807" s="8"/>
@@ -23076,7 +23011,7 @@
       <c r="Y807" s="8"/>
       <c r="Z807" s="8"/>
     </row>
-    <row r="808" ht="18.0" customHeight="1">
+    <row r="808" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A808" s="8"/>
       <c r="B808" s="8"/>
       <c r="C808" s="8"/>
@@ -23104,7 +23039,7 @@
       <c r="Y808" s="8"/>
       <c r="Z808" s="8"/>
     </row>
-    <row r="809" ht="18.0" customHeight="1">
+    <row r="809" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A809" s="8"/>
       <c r="B809" s="8"/>
       <c r="C809" s="8"/>
@@ -23132,7 +23067,7 @@
       <c r="Y809" s="8"/>
       <c r="Z809" s="8"/>
     </row>
-    <row r="810" ht="18.0" customHeight="1">
+    <row r="810" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A810" s="8"/>
       <c r="B810" s="8"/>
       <c r="C810" s="8"/>
@@ -23160,7 +23095,7 @@
       <c r="Y810" s="8"/>
       <c r="Z810" s="8"/>
     </row>
-    <row r="811" ht="18.0" customHeight="1">
+    <row r="811" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A811" s="8"/>
       <c r="B811" s="8"/>
       <c r="C811" s="8"/>
@@ -23188,7 +23123,7 @@
       <c r="Y811" s="8"/>
       <c r="Z811" s="8"/>
     </row>
-    <row r="812" ht="18.0" customHeight="1">
+    <row r="812" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A812" s="8"/>
       <c r="B812" s="8"/>
       <c r="C812" s="8"/>
@@ -23216,7 +23151,7 @@
       <c r="Y812" s="8"/>
       <c r="Z812" s="8"/>
     </row>
-    <row r="813" ht="18.0" customHeight="1">
+    <row r="813" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A813" s="8"/>
       <c r="B813" s="8"/>
       <c r="C813" s="8"/>
@@ -23244,7 +23179,7 @@
       <c r="Y813" s="8"/>
       <c r="Z813" s="8"/>
     </row>
-    <row r="814" ht="18.0" customHeight="1">
+    <row r="814" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A814" s="8"/>
       <c r="B814" s="8"/>
       <c r="C814" s="8"/>
@@ -23272,7 +23207,7 @@
       <c r="Y814" s="8"/>
       <c r="Z814" s="8"/>
     </row>
-    <row r="815" ht="18.0" customHeight="1">
+    <row r="815" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A815" s="8"/>
       <c r="B815" s="8"/>
       <c r="C815" s="8"/>
@@ -23300,7 +23235,7 @@
       <c r="Y815" s="8"/>
       <c r="Z815" s="8"/>
     </row>
-    <row r="816" ht="18.0" customHeight="1">
+    <row r="816" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A816" s="8"/>
       <c r="B816" s="8"/>
       <c r="C816" s="8"/>
@@ -23328,7 +23263,7 @@
       <c r="Y816" s="8"/>
       <c r="Z816" s="8"/>
     </row>
-    <row r="817" ht="18.0" customHeight="1">
+    <row r="817" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A817" s="8"/>
       <c r="B817" s="8"/>
       <c r="C817" s="8"/>
@@ -23356,7 +23291,7 @@
       <c r="Y817" s="8"/>
       <c r="Z817" s="8"/>
     </row>
-    <row r="818" ht="18.0" customHeight="1">
+    <row r="818" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A818" s="8"/>
       <c r="B818" s="8"/>
       <c r="C818" s="8"/>
@@ -23384,7 +23319,7 @@
       <c r="Y818" s="8"/>
       <c r="Z818" s="8"/>
     </row>
-    <row r="819" ht="18.0" customHeight="1">
+    <row r="819" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A819" s="8"/>
       <c r="B819" s="8"/>
       <c r="C819" s="8"/>
@@ -23412,7 +23347,7 @@
       <c r="Y819" s="8"/>
       <c r="Z819" s="8"/>
     </row>
-    <row r="820" ht="18.0" customHeight="1">
+    <row r="820" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A820" s="8"/>
       <c r="B820" s="8"/>
       <c r="C820" s="8"/>
@@ -23440,7 +23375,7 @@
       <c r="Y820" s="8"/>
       <c r="Z820" s="8"/>
     </row>
-    <row r="821" ht="18.0" customHeight="1">
+    <row r="821" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A821" s="8"/>
       <c r="B821" s="8"/>
       <c r="C821" s="8"/>
@@ -23468,7 +23403,7 @@
       <c r="Y821" s="8"/>
       <c r="Z821" s="8"/>
     </row>
-    <row r="822" ht="18.0" customHeight="1">
+    <row r="822" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A822" s="8"/>
       <c r="B822" s="8"/>
       <c r="C822" s="8"/>
@@ -23496,7 +23431,7 @@
       <c r="Y822" s="8"/>
       <c r="Z822" s="8"/>
     </row>
-    <row r="823" ht="18.0" customHeight="1">
+    <row r="823" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A823" s="8"/>
       <c r="B823" s="8"/>
       <c r="C823" s="8"/>
@@ -23524,7 +23459,7 @@
       <c r="Y823" s="8"/>
       <c r="Z823" s="8"/>
     </row>
-    <row r="824" ht="18.0" customHeight="1">
+    <row r="824" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A824" s="8"/>
       <c r="B824" s="8"/>
       <c r="C824" s="8"/>
@@ -23552,7 +23487,7 @@
       <c r="Y824" s="8"/>
       <c r="Z824" s="8"/>
     </row>
-    <row r="825" ht="18.0" customHeight="1">
+    <row r="825" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A825" s="8"/>
       <c r="B825" s="8"/>
       <c r="C825" s="8"/>
@@ -23580,7 +23515,7 @@
       <c r="Y825" s="8"/>
       <c r="Z825" s="8"/>
     </row>
-    <row r="826" ht="18.0" customHeight="1">
+    <row r="826" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A826" s="8"/>
       <c r="B826" s="8"/>
       <c r="C826" s="8"/>
@@ -23608,7 +23543,7 @@
       <c r="Y826" s="8"/>
       <c r="Z826" s="8"/>
     </row>
-    <row r="827" ht="18.0" customHeight="1">
+    <row r="827" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A827" s="8"/>
       <c r="B827" s="8"/>
       <c r="C827" s="8"/>
@@ -23636,7 +23571,7 @@
       <c r="Y827" s="8"/>
       <c r="Z827" s="8"/>
     </row>
-    <row r="828" ht="18.0" customHeight="1">
+    <row r="828" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A828" s="8"/>
       <c r="B828" s="8"/>
       <c r="C828" s="8"/>
@@ -23664,7 +23599,7 @@
       <c r="Y828" s="8"/>
       <c r="Z828" s="8"/>
     </row>
-    <row r="829" ht="18.0" customHeight="1">
+    <row r="829" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A829" s="8"/>
       <c r="B829" s="8"/>
       <c r="C829" s="8"/>
@@ -23692,7 +23627,7 @@
       <c r="Y829" s="8"/>
       <c r="Z829" s="8"/>
     </row>
-    <row r="830" ht="18.0" customHeight="1">
+    <row r="830" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A830" s="8"/>
       <c r="B830" s="8"/>
       <c r="C830" s="8"/>
@@ -23720,7 +23655,7 @@
       <c r="Y830" s="8"/>
       <c r="Z830" s="8"/>
     </row>
-    <row r="831" ht="18.0" customHeight="1">
+    <row r="831" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A831" s="8"/>
       <c r="B831" s="8"/>
       <c r="C831" s="8"/>
@@ -23748,7 +23683,7 @@
       <c r="Y831" s="8"/>
       <c r="Z831" s="8"/>
     </row>
-    <row r="832" ht="18.0" customHeight="1">
+    <row r="832" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A832" s="8"/>
       <c r="B832" s="8"/>
       <c r="C832" s="8"/>
@@ -23776,7 +23711,7 @@
       <c r="Y832" s="8"/>
       <c r="Z832" s="8"/>
     </row>
-    <row r="833" ht="18.0" customHeight="1">
+    <row r="833" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A833" s="8"/>
       <c r="B833" s="8"/>
       <c r="C833" s="8"/>
@@ -23804,7 +23739,7 @@
       <c r="Y833" s="8"/>
       <c r="Z833" s="8"/>
     </row>
-    <row r="834" ht="18.0" customHeight="1">
+    <row r="834" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A834" s="8"/>
       <c r="B834" s="8"/>
       <c r="C834" s="8"/>
@@ -23832,7 +23767,7 @@
       <c r="Y834" s="8"/>
       <c r="Z834" s="8"/>
     </row>
-    <row r="835" ht="18.0" customHeight="1">
+    <row r="835" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A835" s="8"/>
       <c r="B835" s="8"/>
       <c r="C835" s="8"/>
@@ -23860,7 +23795,7 @@
       <c r="Y835" s="8"/>
       <c r="Z835" s="8"/>
     </row>
-    <row r="836" ht="18.0" customHeight="1">
+    <row r="836" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A836" s="8"/>
       <c r="B836" s="8"/>
       <c r="C836" s="8"/>
@@ -23888,7 +23823,7 @@
       <c r="Y836" s="8"/>
       <c r="Z836" s="8"/>
     </row>
-    <row r="837" ht="18.0" customHeight="1">
+    <row r="837" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A837" s="8"/>
       <c r="B837" s="8"/>
       <c r="C837" s="8"/>
@@ -23916,7 +23851,7 @@
       <c r="Y837" s="8"/>
       <c r="Z837" s="8"/>
     </row>
-    <row r="838" ht="18.0" customHeight="1">
+    <row r="838" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A838" s="8"/>
       <c r="B838" s="8"/>
       <c r="C838" s="8"/>
@@ -23944,7 +23879,7 @@
       <c r="Y838" s="8"/>
       <c r="Z838" s="8"/>
     </row>
-    <row r="839" ht="18.0" customHeight="1">
+    <row r="839" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A839" s="8"/>
       <c r="B839" s="8"/>
       <c r="C839" s="8"/>
@@ -23972,7 +23907,7 @@
       <c r="Y839" s="8"/>
       <c r="Z839" s="8"/>
     </row>
-    <row r="840" ht="18.0" customHeight="1">
+    <row r="840" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A840" s="8"/>
       <c r="B840" s="8"/>
       <c r="C840" s="8"/>
@@ -24000,7 +23935,7 @@
       <c r="Y840" s="8"/>
       <c r="Z840" s="8"/>
     </row>
-    <row r="841" ht="18.0" customHeight="1">
+    <row r="841" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A841" s="8"/>
       <c r="B841" s="8"/>
       <c r="C841" s="8"/>
@@ -24028,7 +23963,7 @@
       <c r="Y841" s="8"/>
       <c r="Z841" s="8"/>
     </row>
-    <row r="842" ht="18.0" customHeight="1">
+    <row r="842" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A842" s="8"/>
       <c r="B842" s="8"/>
       <c r="C842" s="8"/>
@@ -24056,7 +23991,7 @@
       <c r="Y842" s="8"/>
       <c r="Z842" s="8"/>
     </row>
-    <row r="843" ht="18.0" customHeight="1">
+    <row r="843" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A843" s="8"/>
       <c r="B843" s="8"/>
       <c r="C843" s="8"/>
@@ -24084,7 +24019,7 @@
       <c r="Y843" s="8"/>
       <c r="Z843" s="8"/>
     </row>
-    <row r="844" ht="18.0" customHeight="1">
+    <row r="844" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A844" s="8"/>
       <c r="B844" s="8"/>
       <c r="C844" s="8"/>
@@ -24112,7 +24047,7 @@
       <c r="Y844" s="8"/>
       <c r="Z844" s="8"/>
     </row>
-    <row r="845" ht="18.0" customHeight="1">
+    <row r="845" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A845" s="8"/>
       <c r="B845" s="8"/>
       <c r="C845" s="8"/>
@@ -24140,7 +24075,7 @@
       <c r="Y845" s="8"/>
       <c r="Z845" s="8"/>
     </row>
-    <row r="846" ht="18.0" customHeight="1">
+    <row r="846" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A846" s="8"/>
       <c r="B846" s="8"/>
       <c r="C846" s="8"/>
@@ -24168,7 +24103,7 @@
       <c r="Y846" s="8"/>
       <c r="Z846" s="8"/>
     </row>
-    <row r="847" ht="18.0" customHeight="1">
+    <row r="847" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A847" s="8"/>
       <c r="B847" s="8"/>
       <c r="C847" s="8"/>
@@ -24196,7 +24131,7 @@
       <c r="Y847" s="8"/>
       <c r="Z847" s="8"/>
     </row>
-    <row r="848" ht="18.0" customHeight="1">
+    <row r="848" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A848" s="8"/>
       <c r="B848" s="8"/>
       <c r="C848" s="8"/>
@@ -24224,7 +24159,7 @@
       <c r="Y848" s="8"/>
       <c r="Z848" s="8"/>
     </row>
-    <row r="849" ht="18.0" customHeight="1">
+    <row r="849" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A849" s="8"/>
       <c r="B849" s="8"/>
       <c r="C849" s="8"/>
@@ -24252,7 +24187,7 @@
       <c r="Y849" s="8"/>
       <c r="Z849" s="8"/>
     </row>
-    <row r="850" ht="18.0" customHeight="1">
+    <row r="850" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A850" s="8"/>
       <c r="B850" s="8"/>
       <c r="C850" s="8"/>
@@ -24280,7 +24215,7 @@
       <c r="Y850" s="8"/>
       <c r="Z850" s="8"/>
     </row>
-    <row r="851" ht="18.0" customHeight="1">
+    <row r="851" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A851" s="8"/>
       <c r="B851" s="8"/>
       <c r="C851" s="8"/>
@@ -24308,7 +24243,7 @@
       <c r="Y851" s="8"/>
       <c r="Z851" s="8"/>
     </row>
-    <row r="852" ht="18.0" customHeight="1">
+    <row r="852" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A852" s="8"/>
       <c r="B852" s="8"/>
       <c r="C852" s="8"/>
@@ -24336,7 +24271,7 @@
       <c r="Y852" s="8"/>
       <c r="Z852" s="8"/>
     </row>
-    <row r="853" ht="18.0" customHeight="1">
+    <row r="853" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A853" s="8"/>
       <c r="B853" s="8"/>
       <c r="C853" s="8"/>
@@ -24364,7 +24299,7 @@
       <c r="Y853" s="8"/>
       <c r="Z853" s="8"/>
     </row>
-    <row r="854" ht="18.0" customHeight="1">
+    <row r="854" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A854" s="8"/>
       <c r="B854" s="8"/>
       <c r="C854" s="8"/>
@@ -24392,7 +24327,7 @@
       <c r="Y854" s="8"/>
       <c r="Z854" s="8"/>
     </row>
-    <row r="855" ht="18.0" customHeight="1">
+    <row r="855" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A855" s="8"/>
       <c r="B855" s="8"/>
       <c r="C855" s="8"/>
@@ -24420,7 +24355,7 @@
       <c r="Y855" s="8"/>
       <c r="Z855" s="8"/>
     </row>
-    <row r="856" ht="18.0" customHeight="1">
+    <row r="856" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A856" s="8"/>
       <c r="B856" s="8"/>
       <c r="C856" s="8"/>
@@ -24448,7 +24383,7 @@
       <c r="Y856" s="8"/>
       <c r="Z856" s="8"/>
     </row>
-    <row r="857" ht="18.0" customHeight="1">
+    <row r="857" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A857" s="8"/>
       <c r="B857" s="8"/>
       <c r="C857" s="8"/>
@@ -24476,7 +24411,7 @@
       <c r="Y857" s="8"/>
       <c r="Z857" s="8"/>
     </row>
-    <row r="858" ht="18.0" customHeight="1">
+    <row r="858" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A858" s="8"/>
       <c r="B858" s="8"/>
       <c r="C858" s="8"/>
@@ -24504,7 +24439,7 @@
       <c r="Y858" s="8"/>
       <c r="Z858" s="8"/>
     </row>
-    <row r="859" ht="18.0" customHeight="1">
+    <row r="859" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A859" s="8"/>
       <c r="B859" s="8"/>
       <c r="C859" s="8"/>
@@ -24532,7 +24467,7 @@
       <c r="Y859" s="8"/>
       <c r="Z859" s="8"/>
     </row>
-    <row r="860" ht="18.0" customHeight="1">
+    <row r="860" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A860" s="8"/>
       <c r="B860" s="8"/>
       <c r="C860" s="8"/>
@@ -24560,7 +24495,7 @@
       <c r="Y860" s="8"/>
       <c r="Z860" s="8"/>
     </row>
-    <row r="861" ht="18.0" customHeight="1">
+    <row r="861" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A861" s="8"/>
       <c r="B861" s="8"/>
       <c r="C861" s="8"/>
@@ -24588,7 +24523,7 @@
       <c r="Y861" s="8"/>
       <c r="Z861" s="8"/>
     </row>
-    <row r="862" ht="18.0" customHeight="1">
+    <row r="862" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A862" s="8"/>
       <c r="B862" s="8"/>
       <c r="C862" s="8"/>
@@ -24616,7 +24551,7 @@
       <c r="Y862" s="8"/>
       <c r="Z862" s="8"/>
     </row>
-    <row r="863" ht="18.0" customHeight="1">
+    <row r="863" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A863" s="8"/>
       <c r="B863" s="8"/>
       <c r="C863" s="8"/>
@@ -24644,7 +24579,7 @@
       <c r="Y863" s="8"/>
       <c r="Z863" s="8"/>
     </row>
-    <row r="864" ht="18.0" customHeight="1">
+    <row r="864" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A864" s="8"/>
       <c r="B864" s="8"/>
       <c r="C864" s="8"/>
@@ -24672,7 +24607,7 @@
       <c r="Y864" s="8"/>
       <c r="Z864" s="8"/>
     </row>
-    <row r="865" ht="18.0" customHeight="1">
+    <row r="865" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A865" s="8"/>
       <c r="B865" s="8"/>
       <c r="C865" s="8"/>
@@ -24700,7 +24635,7 @@
       <c r="Y865" s="8"/>
       <c r="Z865" s="8"/>
     </row>
-    <row r="866" ht="18.0" customHeight="1">
+    <row r="866" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A866" s="8"/>
       <c r="B866" s="8"/>
       <c r="C866" s="8"/>
@@ -24728,7 +24663,7 @@
       <c r="Y866" s="8"/>
       <c r="Z866" s="8"/>
     </row>
-    <row r="867" ht="18.0" customHeight="1">
+    <row r="867" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A867" s="8"/>
       <c r="B867" s="8"/>
       <c r="C867" s="8"/>
@@ -24756,7 +24691,7 @@
       <c r="Y867" s="8"/>
       <c r="Z867" s="8"/>
     </row>
-    <row r="868" ht="18.0" customHeight="1">
+    <row r="868" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A868" s="8"/>
       <c r="B868" s="8"/>
       <c r="C868" s="8"/>
@@ -24784,7 +24719,7 @@
       <c r="Y868" s="8"/>
       <c r="Z868" s="8"/>
     </row>
-    <row r="869" ht="18.0" customHeight="1">
+    <row r="869" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A869" s="8"/>
       <c r="B869" s="8"/>
       <c r="C869" s="8"/>
@@ -24812,7 +24747,7 @@
       <c r="Y869" s="8"/>
       <c r="Z869" s="8"/>
     </row>
-    <row r="870" ht="18.0" customHeight="1">
+    <row r="870" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A870" s="8"/>
       <c r="B870" s="8"/>
       <c r="C870" s="8"/>
@@ -24840,7 +24775,7 @@
       <c r="Y870" s="8"/>
       <c r="Z870" s="8"/>
     </row>
-    <row r="871" ht="18.0" customHeight="1">
+    <row r="871" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A871" s="8"/>
       <c r="B871" s="8"/>
       <c r="C871" s="8"/>
@@ -24868,7 +24803,7 @@
       <c r="Y871" s="8"/>
       <c r="Z871" s="8"/>
     </row>
-    <row r="872" ht="18.0" customHeight="1">
+    <row r="872" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A872" s="8"/>
       <c r="B872" s="8"/>
       <c r="C872" s="8"/>
@@ -24896,7 +24831,7 @@
       <c r="Y872" s="8"/>
       <c r="Z872" s="8"/>
     </row>
-    <row r="873" ht="18.0" customHeight="1">
+    <row r="873" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A873" s="8"/>
       <c r="B873" s="8"/>
       <c r="C873" s="8"/>
@@ -24924,7 +24859,7 @@
       <c r="Y873" s="8"/>
       <c r="Z873" s="8"/>
     </row>
-    <row r="874" ht="18.0" customHeight="1">
+    <row r="874" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A874" s="8"/>
       <c r="B874" s="8"/>
       <c r="C874" s="8"/>
@@ -24952,7 +24887,7 @@
       <c r="Y874" s="8"/>
       <c r="Z874" s="8"/>
     </row>
-    <row r="875" ht="18.0" customHeight="1">
+    <row r="875" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A875" s="8"/>
       <c r="B875" s="8"/>
       <c r="C875" s="8"/>
@@ -24980,7 +24915,7 @@
       <c r="Y875" s="8"/>
       <c r="Z875" s="8"/>
     </row>
-    <row r="876" ht="18.0" customHeight="1">
+    <row r="876" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A876" s="8"/>
       <c r="B876" s="8"/>
       <c r="C876" s="8"/>
@@ -25008,7 +24943,7 @@
       <c r="Y876" s="8"/>
       <c r="Z876" s="8"/>
     </row>
-    <row r="877" ht="18.0" customHeight="1">
+    <row r="877" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A877" s="8"/>
       <c r="B877" s="8"/>
       <c r="C877" s="8"/>
@@ -25036,7 +24971,7 @@
       <c r="Y877" s="8"/>
       <c r="Z877" s="8"/>
     </row>
-    <row r="878" ht="18.0" customHeight="1">
+    <row r="878" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A878" s="8"/>
       <c r="B878" s="8"/>
       <c r="C878" s="8"/>
@@ -25064,7 +24999,7 @@
       <c r="Y878" s="8"/>
       <c r="Z878" s="8"/>
     </row>
-    <row r="879" ht="18.0" customHeight="1">
+    <row r="879" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A879" s="8"/>
       <c r="B879" s="8"/>
       <c r="C879" s="8"/>
@@ -25092,7 +25027,7 @@
       <c r="Y879" s="8"/>
       <c r="Z879" s="8"/>
     </row>
-    <row r="880" ht="18.0" customHeight="1">
+    <row r="880" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A880" s="8"/>
       <c r="B880" s="8"/>
       <c r="C880" s="8"/>
@@ -25120,7 +25055,7 @@
       <c r="Y880" s="8"/>
       <c r="Z880" s="8"/>
     </row>
-    <row r="881" ht="18.0" customHeight="1">
+    <row r="881" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A881" s="8"/>
       <c r="B881" s="8"/>
       <c r="C881" s="8"/>
@@ -25148,7 +25083,7 @@
       <c r="Y881" s="8"/>
       <c r="Z881" s="8"/>
     </row>
-    <row r="882" ht="18.0" customHeight="1">
+    <row r="882" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A882" s="8"/>
       <c r="B882" s="8"/>
       <c r="C882" s="8"/>
@@ -25176,7 +25111,7 @@
       <c r="Y882" s="8"/>
       <c r="Z882" s="8"/>
     </row>
-    <row r="883" ht="18.0" customHeight="1">
+    <row r="883" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A883" s="8"/>
       <c r="B883" s="8"/>
       <c r="C883" s="8"/>
@@ -25204,7 +25139,7 @@
       <c r="Y883" s="8"/>
       <c r="Z883" s="8"/>
     </row>
-    <row r="884" ht="18.0" customHeight="1">
+    <row r="884" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A884" s="8"/>
       <c r="B884" s="8"/>
       <c r="C884" s="8"/>
@@ -25232,7 +25167,7 @@
       <c r="Y884" s="8"/>
       <c r="Z884" s="8"/>
     </row>
-    <row r="885" ht="18.0" customHeight="1">
+    <row r="885" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A885" s="8"/>
       <c r="B885" s="8"/>
       <c r="C885" s="8"/>
@@ -25260,7 +25195,7 @@
       <c r="Y885" s="8"/>
       <c r="Z885" s="8"/>
     </row>
-    <row r="886" ht="18.0" customHeight="1">
+    <row r="886" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A886" s="8"/>
       <c r="B886" s="8"/>
       <c r="C886" s="8"/>
@@ -25288,7 +25223,7 @@
       <c r="Y886" s="8"/>
       <c r="Z886" s="8"/>
     </row>
-    <row r="887" ht="18.0" customHeight="1">
+    <row r="887" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A887" s="8"/>
       <c r="B887" s="8"/>
       <c r="C887" s="8"/>
@@ -25316,7 +25251,7 @@
       <c r="Y887" s="8"/>
       <c r="Z887" s="8"/>
     </row>
-    <row r="888" ht="18.0" customHeight="1">
+    <row r="888" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A888" s="8"/>
       <c r="B888" s="8"/>
       <c r="C888" s="8"/>
@@ -25344,7 +25279,7 @@
       <c r="Y888" s="8"/>
       <c r="Z888" s="8"/>
     </row>
-    <row r="889" ht="18.0" customHeight="1">
+    <row r="889" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A889" s="8"/>
       <c r="B889" s="8"/>
       <c r="C889" s="8"/>
@@ -25372,7 +25307,7 @@
       <c r="Y889" s="8"/>
       <c r="Z889" s="8"/>
     </row>
-    <row r="890" ht="18.0" customHeight="1">
+    <row r="890" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A890" s="8"/>
       <c r="B890" s="8"/>
       <c r="C890" s="8"/>
@@ -25400,7 +25335,7 @@
       <c r="Y890" s="8"/>
       <c r="Z890" s="8"/>
     </row>
-    <row r="891" ht="18.0" customHeight="1">
+    <row r="891" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A891" s="8"/>
       <c r="B891" s="8"/>
       <c r="C891" s="8"/>
@@ -25428,7 +25363,7 @@
       <c r="Y891" s="8"/>
       <c r="Z891" s="8"/>
     </row>
-    <row r="892" ht="18.0" customHeight="1">
+    <row r="892" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A892" s="8"/>
       <c r="B892" s="8"/>
       <c r="C892" s="8"/>
@@ -25456,7 +25391,7 @@
       <c r="Y892" s="8"/>
       <c r="Z892" s="8"/>
     </row>
-    <row r="893" ht="18.0" customHeight="1">
+    <row r="893" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A893" s="8"/>
       <c r="B893" s="8"/>
       <c r="C893" s="8"/>
@@ -25484,7 +25419,7 @@
       <c r="Y893" s="8"/>
       <c r="Z893" s="8"/>
     </row>
-    <row r="894" ht="18.0" customHeight="1">
+    <row r="894" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A894" s="8"/>
       <c r="B894" s="8"/>
       <c r="C894" s="8"/>
@@ -25512,7 +25447,7 @@
       <c r="Y894" s="8"/>
       <c r="Z894" s="8"/>
     </row>
-    <row r="895" ht="18.0" customHeight="1">
+    <row r="895" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A895" s="8"/>
       <c r="B895" s="8"/>
       <c r="C895" s="8"/>
@@ -25540,7 +25475,7 @@
       <c r="Y895" s="8"/>
       <c r="Z895" s="8"/>
     </row>
-    <row r="896" ht="18.0" customHeight="1">
+    <row r="896" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A896" s="8"/>
       <c r="B896" s="8"/>
       <c r="C896" s="8"/>
@@ -25568,7 +25503,7 @@
       <c r="Y896" s="8"/>
       <c r="Z896" s="8"/>
     </row>
-    <row r="897" ht="18.0" customHeight="1">
+    <row r="897" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A897" s="8"/>
       <c r="B897" s="8"/>
       <c r="C897" s="8"/>
@@ -25596,7 +25531,7 @@
       <c r="Y897" s="8"/>
       <c r="Z897" s="8"/>
     </row>
-    <row r="898" ht="18.0" customHeight="1">
+    <row r="898" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A898" s="8"/>
       <c r="B898" s="8"/>
       <c r="C898" s="8"/>
@@ -25624,7 +25559,7 @@
       <c r="Y898" s="8"/>
       <c r="Z898" s="8"/>
     </row>
-    <row r="899" ht="18.0" customHeight="1">
+    <row r="899" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A899" s="8"/>
       <c r="B899" s="8"/>
       <c r="C899" s="8"/>
@@ -25652,7 +25587,7 @@
       <c r="Y899" s="8"/>
       <c r="Z899" s="8"/>
     </row>
-    <row r="900" ht="18.0" customHeight="1">
+    <row r="900" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A900" s="8"/>
       <c r="B900" s="8"/>
       <c r="C900" s="8"/>
@@ -25680,7 +25615,7 @@
       <c r="Y900" s="8"/>
       <c r="Z900" s="8"/>
     </row>
-    <row r="901" ht="18.0" customHeight="1">
+    <row r="901" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A901" s="8"/>
       <c r="B901" s="8"/>
       <c r="C901" s="8"/>
@@ -25708,7 +25643,7 @@
       <c r="Y901" s="8"/>
       <c r="Z901" s="8"/>
     </row>
-    <row r="902" ht="18.0" customHeight="1">
+    <row r="902" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A902" s="8"/>
       <c r="B902" s="8"/>
       <c r="C902" s="8"/>
@@ -25736,7 +25671,7 @@
       <c r="Y902" s="8"/>
       <c r="Z902" s="8"/>
     </row>
-    <row r="903" ht="18.0" customHeight="1">
+    <row r="903" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A903" s="8"/>
       <c r="B903" s="8"/>
       <c r="C903" s="8"/>
@@ -25764,7 +25699,7 @@
       <c r="Y903" s="8"/>
       <c r="Z903" s="8"/>
     </row>
-    <row r="904" ht="18.0" customHeight="1">
+    <row r="904" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A904" s="8"/>
       <c r="B904" s="8"/>
       <c r="C904" s="8"/>
@@ -25792,7 +25727,7 @@
       <c r="Y904" s="8"/>
       <c r="Z904" s="8"/>
     </row>
-    <row r="905" ht="18.0" customHeight="1">
+    <row r="905" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A905" s="8"/>
       <c r="B905" s="8"/>
       <c r="C905" s="8"/>
@@ -25820,7 +25755,7 @@
       <c r="Y905" s="8"/>
       <c r="Z905" s="8"/>
     </row>
-    <row r="906" ht="18.0" customHeight="1">
+    <row r="906" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A906" s="8"/>
       <c r="B906" s="8"/>
       <c r="C906" s="8"/>
@@ -25848,7 +25783,7 @@
       <c r="Y906" s="8"/>
       <c r="Z906" s="8"/>
     </row>
-    <row r="907" ht="18.0" customHeight="1">
+    <row r="907" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A907" s="8"/>
       <c r="B907" s="8"/>
       <c r="C907" s="8"/>
@@ -25876,7 +25811,7 @@
       <c r="Y907" s="8"/>
       <c r="Z907" s="8"/>
     </row>
-    <row r="908" ht="18.0" customHeight="1">
+    <row r="908" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A908" s="8"/>
       <c r="B908" s="8"/>
       <c r="C908" s="8"/>
@@ -25904,7 +25839,7 @@
       <c r="Y908" s="8"/>
       <c r="Z908" s="8"/>
     </row>
-    <row r="909" ht="18.0" customHeight="1">
+    <row r="909" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A909" s="8"/>
       <c r="B909" s="8"/>
       <c r="C909" s="8"/>
@@ -25932,7 +25867,7 @@
       <c r="Y909" s="8"/>
       <c r="Z909" s="8"/>
     </row>
-    <row r="910" ht="18.0" customHeight="1">
+    <row r="910" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A910" s="8"/>
       <c r="B910" s="8"/>
       <c r="C910" s="8"/>
@@ -25960,7 +25895,7 @@
       <c r="Y910" s="8"/>
       <c r="Z910" s="8"/>
     </row>
-    <row r="911" ht="18.0" customHeight="1">
+    <row r="911" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A911" s="8"/>
       <c r="B911" s="8"/>
       <c r="C911" s="8"/>
@@ -25988,7 +25923,7 @@
       <c r="Y911" s="8"/>
       <c r="Z911" s="8"/>
     </row>
-    <row r="912" ht="18.0" customHeight="1">
+    <row r="912" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A912" s="8"/>
       <c r="B912" s="8"/>
       <c r="C912" s="8"/>
@@ -26016,7 +25951,7 @@
       <c r="Y912" s="8"/>
       <c r="Z912" s="8"/>
     </row>
-    <row r="913" ht="18.0" customHeight="1">
+    <row r="913" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A913" s="8"/>
       <c r="B913" s="8"/>
       <c r="C913" s="8"/>
@@ -26044,7 +25979,7 @@
       <c r="Y913" s="8"/>
       <c r="Z913" s="8"/>
     </row>
-    <row r="914" ht="18.0" customHeight="1">
+    <row r="914" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A914" s="8"/>
       <c r="B914" s="8"/>
       <c r="C914" s="8"/>
@@ -26072,7 +26007,7 @@
       <c r="Y914" s="8"/>
       <c r="Z914" s="8"/>
     </row>
-    <row r="915" ht="18.0" customHeight="1">
+    <row r="915" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A915" s="8"/>
       <c r="B915" s="8"/>
       <c r="C915" s="8"/>
@@ -26100,7 +26035,7 @@
       <c r="Y915" s="8"/>
       <c r="Z915" s="8"/>
     </row>
-    <row r="916" ht="18.0" customHeight="1">
+    <row r="916" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A916" s="8"/>
       <c r="B916" s="8"/>
       <c r="C916" s="8"/>
@@ -26128,7 +26063,7 @@
       <c r="Y916" s="8"/>
       <c r="Z916" s="8"/>
     </row>
-    <row r="917" ht="18.0" customHeight="1">
+    <row r="917" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A917" s="8"/>
       <c r="B917" s="8"/>
       <c r="C917" s="8"/>
@@ -26156,7 +26091,7 @@
       <c r="Y917" s="8"/>
       <c r="Z917" s="8"/>
     </row>
-    <row r="918" ht="18.0" customHeight="1">
+    <row r="918" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A918" s="8"/>
       <c r="B918" s="8"/>
       <c r="C918" s="8"/>
@@ -26184,7 +26119,7 @@
       <c r="Y918" s="8"/>
       <c r="Z918" s="8"/>
     </row>
-    <row r="919" ht="18.0" customHeight="1">
+    <row r="919" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A919" s="8"/>
       <c r="B919" s="8"/>
       <c r="C919" s="8"/>
@@ -26212,7 +26147,7 @@
       <c r="Y919" s="8"/>
       <c r="Z919" s="8"/>
     </row>
-    <row r="920" ht="18.0" customHeight="1">
+    <row r="920" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A920" s="8"/>
       <c r="B920" s="8"/>
       <c r="C920" s="8"/>
@@ -26240,7 +26175,7 @@
       <c r="Y920" s="8"/>
       <c r="Z920" s="8"/>
     </row>
-    <row r="921" ht="18.0" customHeight="1">
+    <row r="921" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A921" s="8"/>
       <c r="B921" s="8"/>
       <c r="C921" s="8"/>
@@ -26268,7 +26203,7 @@
       <c r="Y921" s="8"/>
       <c r="Z921" s="8"/>
     </row>
-    <row r="922" ht="18.0" customHeight="1">
+    <row r="922" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A922" s="8"/>
       <c r="B922" s="8"/>
       <c r="C922" s="8"/>
@@ -26296,7 +26231,7 @@
       <c r="Y922" s="8"/>
       <c r="Z922" s="8"/>
     </row>
-    <row r="923" ht="18.0" customHeight="1">
+    <row r="923" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A923" s="8"/>
       <c r="B923" s="8"/>
       <c r="C923" s="8"/>
@@ -26324,7 +26259,7 @@
       <c r="Y923" s="8"/>
       <c r="Z923" s="8"/>
     </row>
-    <row r="924" ht="18.0" customHeight="1">
+    <row r="924" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A924" s="8"/>
       <c r="B924" s="8"/>
       <c r="C924" s="8"/>
@@ -26352,7 +26287,7 @@
       <c r="Y924" s="8"/>
       <c r="Z924" s="8"/>
     </row>
-    <row r="925" ht="18.0" customHeight="1">
+    <row r="925" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A925" s="8"/>
       <c r="B925" s="8"/>
       <c r="C925" s="8"/>
@@ -26380,7 +26315,7 @@
       <c r="Y925" s="8"/>
       <c r="Z925" s="8"/>
     </row>
-    <row r="926" ht="18.0" customHeight="1">
+    <row r="926" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A926" s="8"/>
       <c r="B926" s="8"/>
       <c r="C926" s="8"/>
@@ -26408,7 +26343,7 @@
       <c r="Y926" s="8"/>
       <c r="Z926" s="8"/>
     </row>
-    <row r="927" ht="18.0" customHeight="1">
+    <row r="927" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A927" s="8"/>
       <c r="B927" s="8"/>
       <c r="C927" s="8"/>
@@ -26436,7 +26371,7 @@
       <c r="Y927" s="8"/>
       <c r="Z927" s="8"/>
     </row>
-    <row r="928" ht="18.0" customHeight="1">
+    <row r="928" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A928" s="8"/>
       <c r="B928" s="8"/>
       <c r="C928" s="8"/>
@@ -26464,7 +26399,7 @@
       <c r="Y928" s="8"/>
       <c r="Z928" s="8"/>
     </row>
-    <row r="929" ht="18.0" customHeight="1">
+    <row r="929" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A929" s="8"/>
       <c r="B929" s="8"/>
       <c r="C929" s="8"/>
@@ -26492,7 +26427,7 @@
       <c r="Y929" s="8"/>
       <c r="Z929" s="8"/>
     </row>
-    <row r="930" ht="18.0" customHeight="1">
+    <row r="930" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A930" s="8"/>
       <c r="B930" s="8"/>
       <c r="C930" s="8"/>
@@ -26520,7 +26455,7 @@
       <c r="Y930" s="8"/>
       <c r="Z930" s="8"/>
     </row>
-    <row r="931" ht="18.0" customHeight="1">
+    <row r="931" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A931" s="8"/>
       <c r="B931" s="8"/>
       <c r="C931" s="8"/>
@@ -26548,7 +26483,7 @@
       <c r="Y931" s="8"/>
       <c r="Z931" s="8"/>
     </row>
-    <row r="932" ht="18.0" customHeight="1">
+    <row r="932" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A932" s="8"/>
       <c r="B932" s="8"/>
       <c r="C932" s="8"/>
@@ -26576,7 +26511,7 @@
       <c r="Y932" s="8"/>
       <c r="Z932" s="8"/>
     </row>
-    <row r="933" ht="18.0" customHeight="1">
+    <row r="933" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A933" s="8"/>
       <c r="B933" s="8"/>
       <c r="C933" s="8"/>
@@ -26604,7 +26539,7 @@
       <c r="Y933" s="8"/>
       <c r="Z933" s="8"/>
     </row>
-    <row r="934" ht="18.0" customHeight="1">
+    <row r="934" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A934" s="8"/>
       <c r="B934" s="8"/>
       <c r="C934" s="8"/>
@@ -26632,7 +26567,7 @@
       <c r="Y934" s="8"/>
       <c r="Z934" s="8"/>
     </row>
-    <row r="935" ht="18.0" customHeight="1">
+    <row r="935" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A935" s="8"/>
       <c r="B935" s="8"/>
       <c r="C935" s="8"/>
@@ -26660,7 +26595,7 @@
       <c r="Y935" s="8"/>
       <c r="Z935" s="8"/>
     </row>
-    <row r="936" ht="18.0" customHeight="1">
+    <row r="936" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A936" s="8"/>
       <c r="B936" s="8"/>
       <c r="C936" s="8"/>
@@ -26688,7 +26623,7 @@
       <c r="Y936" s="8"/>
       <c r="Z936" s="8"/>
     </row>
-    <row r="937" ht="18.0" customHeight="1">
+    <row r="937" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A937" s="8"/>
       <c r="B937" s="8"/>
       <c r="C937" s="8"/>
@@ -26716,7 +26651,7 @@
       <c r="Y937" s="8"/>
       <c r="Z937" s="8"/>
     </row>
-    <row r="938" ht="18.0" customHeight="1">
+    <row r="938" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A938" s="8"/>
       <c r="B938" s="8"/>
       <c r="C938" s="8"/>
@@ -26744,7 +26679,7 @@
       <c r="Y938" s="8"/>
       <c r="Z938" s="8"/>
     </row>
-    <row r="939" ht="18.0" customHeight="1">
+    <row r="939" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A939" s="8"/>
       <c r="B939" s="8"/>
       <c r="C939" s="8"/>
@@ -26772,7 +26707,7 @@
       <c r="Y939" s="8"/>
       <c r="Z939" s="8"/>
     </row>
-    <row r="940" ht="18.0" customHeight="1">
+    <row r="940" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A940" s="8"/>
       <c r="B940" s="8"/>
       <c r="C940" s="8"/>
@@ -26800,7 +26735,7 @@
       <c r="Y940" s="8"/>
       <c r="Z940" s="8"/>
     </row>
-    <row r="941" ht="18.0" customHeight="1">
+    <row r="941" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A941" s="8"/>
       <c r="B941" s="8"/>
       <c r="C941" s="8"/>
@@ -26828,7 +26763,7 @@
       <c r="Y941" s="8"/>
       <c r="Z941" s="8"/>
     </row>
-    <row r="942" ht="18.0" customHeight="1">
+    <row r="942" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A942" s="8"/>
       <c r="B942" s="8"/>
       <c r="C942" s="8"/>
@@ -26856,7 +26791,7 @@
       <c r="Y942" s="8"/>
       <c r="Z942" s="8"/>
     </row>
-    <row r="943" ht="18.0" customHeight="1">
+    <row r="943" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A943" s="8"/>
       <c r="B943" s="8"/>
       <c r="C943" s="8"/>
@@ -26884,7 +26819,7 @@
       <c r="Y943" s="8"/>
       <c r="Z943" s="8"/>
     </row>
-    <row r="944" ht="18.0" customHeight="1">
+    <row r="944" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A944" s="8"/>
       <c r="B944" s="8"/>
       <c r="C944" s="8"/>
@@ -26912,7 +26847,7 @@
       <c r="Y944" s="8"/>
       <c r="Z944" s="8"/>
     </row>
-    <row r="945" ht="18.0" customHeight="1">
+    <row r="945" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A945" s="8"/>
       <c r="B945" s="8"/>
       <c r="C945" s="8"/>
@@ -26940,7 +26875,7 @@
       <c r="Y945" s="8"/>
       <c r="Z945" s="8"/>
     </row>
-    <row r="946" ht="18.0" customHeight="1">
+    <row r="946" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A946" s="8"/>
       <c r="B946" s="8"/>
       <c r="C946" s="8"/>
@@ -26968,7 +26903,7 @@
       <c r="Y946" s="8"/>
       <c r="Z946" s="8"/>
     </row>
-    <row r="947" ht="18.0" customHeight="1">
+    <row r="947" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A947" s="8"/>
       <c r="B947" s="8"/>
       <c r="C947" s="8"/>
@@ -26996,7 +26931,7 @@
       <c r="Y947" s="8"/>
       <c r="Z947" s="8"/>
     </row>
-    <row r="948" ht="18.0" customHeight="1">
+    <row r="948" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A948" s="8"/>
       <c r="B948" s="8"/>
       <c r="C948" s="8"/>
@@ -27024,7 +26959,7 @@
       <c r="Y948" s="8"/>
       <c r="Z948" s="8"/>
     </row>
-    <row r="949" ht="18.0" customHeight="1">
+    <row r="949" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A949" s="8"/>
       <c r="B949" s="8"/>
       <c r="C949" s="8"/>
@@ -27052,7 +26987,7 @@
       <c r="Y949" s="8"/>
       <c r="Z949" s="8"/>
     </row>
-    <row r="950" ht="18.0" customHeight="1">
+    <row r="950" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A950" s="8"/>
       <c r="B950" s="8"/>
       <c r="C950" s="8"/>
@@ -27080,7 +27015,7 @@
       <c r="Y950" s="8"/>
       <c r="Z950" s="8"/>
     </row>
-    <row r="951" ht="18.0" customHeight="1">
+    <row r="951" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A951" s="8"/>
       <c r="B951" s="8"/>
       <c r="C951" s="8"/>
@@ -27108,7 +27043,7 @@
       <c r="Y951" s="8"/>
       <c r="Z951" s="8"/>
     </row>
-    <row r="952" ht="18.0" customHeight="1">
+    <row r="952" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A952" s="8"/>
       <c r="B952" s="8"/>
       <c r="C952" s="8"/>
@@ -27136,7 +27071,7 @@
       <c r="Y952" s="8"/>
       <c r="Z952" s="8"/>
     </row>
-    <row r="953" ht="18.0" customHeight="1">
+    <row r="953" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A953" s="8"/>
       <c r="B953" s="8"/>
       <c r="C953" s="8"/>
@@ -27164,7 +27099,7 @@
       <c r="Y953" s="8"/>
       <c r="Z953" s="8"/>
     </row>
-    <row r="954" ht="18.0" customHeight="1">
+    <row r="954" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A954" s="8"/>
       <c r="B954" s="8"/>
       <c r="C954" s="8"/>
@@ -27192,7 +27127,7 @@
       <c r="Y954" s="8"/>
       <c r="Z954" s="8"/>
     </row>
-    <row r="955" ht="18.0" customHeight="1">
+    <row r="955" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A955" s="8"/>
       <c r="B955" s="8"/>
       <c r="C955" s="8"/>
@@ -27220,7 +27155,7 @@
       <c r="Y955" s="8"/>
       <c r="Z955" s="8"/>
     </row>
-    <row r="956" ht="18.0" customHeight="1">
+    <row r="956" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A956" s="8"/>
       <c r="B956" s="8"/>
       <c r="C956" s="8"/>
@@ -27248,7 +27183,7 @@
       <c r="Y956" s="8"/>
       <c r="Z956" s="8"/>
     </row>
-    <row r="957" ht="18.0" customHeight="1">
+    <row r="957" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A957" s="8"/>
       <c r="B957" s="8"/>
       <c r="C957" s="8"/>
@@ -27276,7 +27211,7 @@
       <c r="Y957" s="8"/>
       <c r="Z957" s="8"/>
     </row>
-    <row r="958" ht="18.0" customHeight="1">
+    <row r="958" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A958" s="8"/>
       <c r="B958" s="8"/>
       <c r="C958" s="8"/>
@@ -27304,7 +27239,7 @@
       <c r="Y958" s="8"/>
       <c r="Z958" s="8"/>
     </row>
-    <row r="959" ht="18.0" customHeight="1">
+    <row r="959" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A959" s="8"/>
       <c r="B959" s="8"/>
       <c r="C959" s="8"/>
@@ -27332,7 +27267,7 @@
       <c r="Y959" s="8"/>
       <c r="Z959" s="8"/>
     </row>
-    <row r="960" ht="18.0" customHeight="1">
+    <row r="960" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A960" s="8"/>
       <c r="B960" s="8"/>
       <c r="C960" s="8"/>
@@ -27360,7 +27295,7 @@
       <c r="Y960" s="8"/>
       <c r="Z960" s="8"/>
     </row>
-    <row r="961" ht="18.0" customHeight="1">
+    <row r="961" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A961" s="8"/>
       <c r="B961" s="8"/>
       <c r="C961" s="8"/>
@@ -27388,7 +27323,7 @@
       <c r="Y961" s="8"/>
       <c r="Z961" s="8"/>
     </row>
-    <row r="962" ht="18.0" customHeight="1">
+    <row r="962" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A962" s="8"/>
       <c r="B962" s="8"/>
       <c r="C962" s="8"/>
@@ -27416,7 +27351,7 @@
       <c r="Y962" s="8"/>
       <c r="Z962" s="8"/>
     </row>
-    <row r="963" ht="18.0" customHeight="1">
+    <row r="963" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A963" s="8"/>
       <c r="B963" s="8"/>
       <c r="C963" s="8"/>
@@ -27444,7 +27379,7 @@
       <c r="Y963" s="8"/>
       <c r="Z963" s="8"/>
     </row>
-    <row r="964" ht="18.0" customHeight="1">
+    <row r="964" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A964" s="8"/>
       <c r="B964" s="8"/>
       <c r="C964" s="8"/>
@@ -27472,7 +27407,7 @@
       <c r="Y964" s="8"/>
       <c r="Z964" s="8"/>
     </row>
-    <row r="965" ht="18.0" customHeight="1">
+    <row r="965" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A965" s="8"/>
       <c r="B965" s="8"/>
       <c r="C965" s="8"/>
@@ -27500,7 +27435,7 @@
       <c r="Y965" s="8"/>
       <c r="Z965" s="8"/>
     </row>
-    <row r="966" ht="18.0" customHeight="1">
+    <row r="966" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A966" s="8"/>
       <c r="B966" s="8"/>
       <c r="C966" s="8"/>
@@ -27528,7 +27463,7 @@
       <c r="Y966" s="8"/>
       <c r="Z966" s="8"/>
     </row>
-    <row r="967" ht="18.0" customHeight="1">
+    <row r="967" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A967" s="8"/>
       <c r="B967" s="8"/>
       <c r="C967" s="8"/>
@@ -27556,7 +27491,7 @@
       <c r="Y967" s="8"/>
       <c r="Z967" s="8"/>
     </row>
-    <row r="968" ht="18.0" customHeight="1">
+    <row r="968" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A968" s="8"/>
       <c r="B968" s="8"/>
       <c r="C968" s="8"/>
@@ -27584,7 +27519,7 @@
       <c r="Y968" s="8"/>
       <c r="Z968" s="8"/>
     </row>
-    <row r="969" ht="18.0" customHeight="1">
+    <row r="969" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A969" s="8"/>
       <c r="B969" s="8"/>
       <c r="C969" s="8"/>
@@ -27612,7 +27547,7 @@
       <c r="Y969" s="8"/>
       <c r="Z969" s="8"/>
     </row>
-    <row r="970" ht="18.0" customHeight="1">
+    <row r="970" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A970" s="8"/>
       <c r="B970" s="8"/>
       <c r="C970" s="8"/>
@@ -27640,7 +27575,7 @@
       <c r="Y970" s="8"/>
       <c r="Z970" s="8"/>
     </row>
-    <row r="971" ht="18.0" customHeight="1">
+    <row r="971" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A971" s="8"/>
       <c r="B971" s="8"/>
       <c r="C971" s="8"/>
@@ -27668,7 +27603,7 @@
       <c r="Y971" s="8"/>
       <c r="Z971" s="8"/>
     </row>
-    <row r="972" ht="18.0" customHeight="1">
+    <row r="972" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A972" s="8"/>
       <c r="B972" s="8"/>
       <c r="C972" s="8"/>
@@ -27696,7 +27631,7 @@
       <c r="Y972" s="8"/>
       <c r="Z972" s="8"/>
     </row>
-    <row r="973" ht="18.0" customHeight="1">
+    <row r="973" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A973" s="8"/>
       <c r="B973" s="8"/>
       <c r="C973" s="8"/>
@@ -27724,7 +27659,7 @@
       <c r="Y973" s="8"/>
       <c r="Z973" s="8"/>
     </row>
-    <row r="974" ht="18.0" customHeight="1">
+    <row r="974" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A974" s="8"/>
       <c r="B974" s="8"/>
       <c r="C974" s="8"/>
@@ -27752,7 +27687,7 @@
       <c r="Y974" s="8"/>
       <c r="Z974" s="8"/>
     </row>
-    <row r="975" ht="18.0" customHeight="1">
+    <row r="975" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A975" s="8"/>
       <c r="B975" s="8"/>
       <c r="C975" s="8"/>
@@ -27780,7 +27715,7 @@
       <c r="Y975" s="8"/>
       <c r="Z975" s="8"/>
     </row>
-    <row r="976" ht="18.0" customHeight="1">
+    <row r="976" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A976" s="8"/>
       <c r="B976" s="8"/>
       <c r="C976" s="8"/>
@@ -27808,7 +27743,7 @@
       <c r="Y976" s="8"/>
       <c r="Z976" s="8"/>
     </row>
-    <row r="977" ht="18.0" customHeight="1">
+    <row r="977" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A977" s="8"/>
       <c r="B977" s="8"/>
       <c r="C977" s="8"/>
@@ -27836,7 +27771,7 @@
       <c r="Y977" s="8"/>
       <c r="Z977" s="8"/>
     </row>
-    <row r="978" ht="18.0" customHeight="1">
+    <row r="978" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A978" s="8"/>
       <c r="B978" s="8"/>
       <c r="C978" s="8"/>
@@ -27864,7 +27799,7 @@
       <c r="Y978" s="8"/>
       <c r="Z978" s="8"/>
     </row>
-    <row r="979" ht="18.0" customHeight="1">
+    <row r="979" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A979" s="8"/>
       <c r="B979" s="8"/>
       <c r="C979" s="8"/>
@@ -27892,7 +27827,7 @@
       <c r="Y979" s="8"/>
       <c r="Z979" s="8"/>
     </row>
-    <row r="980" ht="18.0" customHeight="1">
+    <row r="980" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A980" s="8"/>
       <c r="B980" s="8"/>
       <c r="C980" s="8"/>
@@ -27920,7 +27855,7 @@
       <c r="Y980" s="8"/>
       <c r="Z980" s="8"/>
     </row>
-    <row r="981" ht="18.0" customHeight="1">
+    <row r="981" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A981" s="8"/>
       <c r="B981" s="8"/>
       <c r="C981" s="8"/>
@@ -27948,7 +27883,7 @@
       <c r="Y981" s="8"/>
       <c r="Z981" s="8"/>
     </row>
-    <row r="982" ht="18.0" customHeight="1">
+    <row r="982" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A982" s="8"/>
       <c r="B982" s="8"/>
       <c r="C982" s="8"/>
@@ -27976,7 +27911,7 @@
       <c r="Y982" s="8"/>
       <c r="Z982" s="8"/>
     </row>
-    <row r="983" ht="18.0" customHeight="1">
+    <row r="983" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A983" s="8"/>
       <c r="B983" s="8"/>
       <c r="C983" s="8"/>
@@ -28004,7 +27939,7 @@
       <c r="Y983" s="8"/>
       <c r="Z983" s="8"/>
     </row>
-    <row r="984" ht="18.0" customHeight="1">
+    <row r="984" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A984" s="8"/>
       <c r="B984" s="8"/>
       <c r="C984" s="8"/>
@@ -28032,7 +27967,7 @@
       <c r="Y984" s="8"/>
       <c r="Z984" s="8"/>
     </row>
-    <row r="985" ht="18.0" customHeight="1">
+    <row r="985" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A985" s="8"/>
       <c r="B985" s="8"/>
       <c r="C985" s="8"/>
@@ -28060,7 +27995,7 @@
       <c r="Y985" s="8"/>
       <c r="Z985" s="8"/>
     </row>
-    <row r="986" ht="18.0" customHeight="1">
+    <row r="986" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A986" s="8"/>
       <c r="B986" s="8"/>
       <c r="C986" s="8"/>
@@ -28088,7 +28023,7 @@
       <c r="Y986" s="8"/>
       <c r="Z986" s="8"/>
     </row>
-    <row r="987" ht="18.0" customHeight="1">
+    <row r="987" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A987" s="8"/>
       <c r="B987" s="8"/>
       <c r="C987" s="8"/>
@@ -28116,7 +28051,7 @@
       <c r="Y987" s="8"/>
       <c r="Z987" s="8"/>
     </row>
-    <row r="988" ht="18.0" customHeight="1">
+    <row r="988" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A988" s="8"/>
       <c r="B988" s="8"/>
       <c r="C988" s="8"/>
@@ -28144,7 +28079,7 @@
       <c r="Y988" s="8"/>
       <c r="Z988" s="8"/>
     </row>
-    <row r="989" ht="18.0" customHeight="1">
+    <row r="989" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A989" s="8"/>
       <c r="B989" s="8"/>
       <c r="C989" s="8"/>
@@ -28172,7 +28107,7 @@
       <c r="Y989" s="8"/>
       <c r="Z989" s="8"/>
     </row>
-    <row r="990" ht="18.0" customHeight="1">
+    <row r="990" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A990" s="8"/>
       <c r="B990" s="8"/>
       <c r="C990" s="8"/>
@@ -28200,7 +28135,7 @@
       <c r="Y990" s="8"/>
       <c r="Z990" s="8"/>
     </row>
-    <row r="991" ht="18.0" customHeight="1">
+    <row r="991" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A991" s="8"/>
       <c r="B991" s="8"/>
       <c r="C991" s="8"/>
@@ -28228,7 +28163,7 @@
       <c r="Y991" s="8"/>
       <c r="Z991" s="8"/>
     </row>
-    <row r="992" ht="18.0" customHeight="1">
+    <row r="992" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A992" s="8"/>
       <c r="B992" s="8"/>
       <c r="C992" s="8"/>
@@ -28256,7 +28191,7 @@
       <c r="Y992" s="8"/>
       <c r="Z992" s="8"/>
     </row>
-    <row r="993" ht="18.0" customHeight="1">
+    <row r="993" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A993" s="8"/>
       <c r="B993" s="8"/>
       <c r="C993" s="8"/>
@@ -28284,7 +28219,7 @@
       <c r="Y993" s="8"/>
       <c r="Z993" s="8"/>
     </row>
-    <row r="994" ht="18.0" customHeight="1">
+    <row r="994" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A994" s="8"/>
       <c r="B994" s="8"/>
       <c r="C994" s="8"/>
@@ -28312,7 +28247,7 @@
       <c r="Y994" s="8"/>
       <c r="Z994" s="8"/>
     </row>
-    <row r="995" ht="18.0" customHeight="1">
+    <row r="995" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A995" s="8"/>
       <c r="B995" s="8"/>
       <c r="C995" s="8"/>
@@ -28340,7 +28275,7 @@
       <c r="Y995" s="8"/>
       <c r="Z995" s="8"/>
     </row>
-    <row r="996" ht="18.0" customHeight="1">
+    <row r="996" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A996" s="8"/>
       <c r="B996" s="8"/>
       <c r="C996" s="8"/>
@@ -28368,7 +28303,7 @@
       <c r="Y996" s="8"/>
       <c r="Z996" s="8"/>
     </row>
-    <row r="997" ht="18.0" customHeight="1">
+    <row r="997" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A997" s="8"/>
       <c r="B997" s="8"/>
       <c r="C997" s="8"/>
@@ -28396,7 +28331,7 @@
       <c r="Y997" s="8"/>
       <c r="Z997" s="8"/>
     </row>
-    <row r="998" ht="18.0" customHeight="1">
+    <row r="998" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A998" s="8"/>
       <c r="B998" s="8"/>
       <c r="C998" s="8"/>
@@ -28424,7 +28359,7 @@
       <c r="Y998" s="8"/>
       <c r="Z998" s="8"/>
     </row>
-    <row r="999" ht="18.0" customHeight="1">
+    <row r="999" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A999" s="8"/>
       <c r="B999" s="8"/>
       <c r="C999" s="8"/>
@@ -28452,7 +28387,7 @@
       <c r="Y999" s="8"/>
       <c r="Z999" s="8"/>
     </row>
-    <row r="1000" ht="18.0" customHeight="1">
+    <row r="1000" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1000" s="8"/>
       <c r="B1000" s="8"/>
       <c r="C1000" s="8"/>
@@ -28481,9 +28416,12 @@
       <c r="Z1000" s="8"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>